--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="PlanofCare" sheetId="4" r:id="rId4"/>
     <sheet name="oasis" sheetId="5" r:id="rId5"/>
     <sheet name="Administrative" sheetId="6" r:id="rId6"/>
+    <sheet name="VerifyClinician" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +76,6 @@
     <t>click_custom</t>
   </si>
   <si>
-    <t>20170512023147</t>
-  </si>
-  <si>
     <t>New Notes</t>
   </si>
   <si>
@@ -424,6 +422,45 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.submit()" and @aria-label="save"]</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Test')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>chha</t>
+  </si>
+  <si>
+    <t>msw</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>rn</t>
   </si>
 </sst>
 </file>
@@ -465,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -489,6 +526,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +830,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -879,9 +922,7 @@
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -891,13 +932,16 @@
       <c r="G4" s="5">
         <v>3</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -918,10 +962,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -942,10 +986,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -966,10 +1010,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -990,7 +1034,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -1011,7 +1055,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1032,10 +1076,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -1056,7 +1100,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -1077,7 +1121,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -1098,10 +1142,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1122,6 +1166,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1209,10 +1254,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1224,12 +1269,12 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1246,18 +1291,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1274,18 +1319,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1302,7 +1347,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1406,10 +1451,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1">
@@ -1422,12 +1467,12 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1444,18 +1489,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1524,10 +1569,10 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1545,24 +1590,24 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1580,10 +1625,10 @@
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1601,22 +1646,22 @@
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1634,10 +1679,10 @@
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1655,10 +1700,10 @@
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1676,10 +1721,10 @@
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1697,10 +1742,10 @@
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1718,10 +1763,10 @@
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1739,10 +1784,10 @@
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1760,10 +1805,10 @@
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1781,10 +1826,10 @@
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1802,36 +1847,36 @@
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1849,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -1870,10 +1915,10 @@
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -1891,10 +1936,10 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -1912,10 +1957,10 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -1933,10 +1978,10 @@
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1954,13 +1999,13 @@
     </row>
     <row r="24" spans="1:8" ht="30">
       <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1974,13 +2019,13 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1994,13 +2039,13 @@
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2014,13 +2059,13 @@
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2034,13 +2079,13 @@
     </row>
     <row r="28" spans="1:8" ht="30">
       <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2054,10 +2099,10 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2075,7 +2120,7 @@
     </row>
     <row r="30" spans="1:8" ht="45">
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -2093,7 +2138,7 @@
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -2111,7 +2156,7 @@
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -2129,7 +2174,7 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -2147,7 +2192,7 @@
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2165,10 +2210,10 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -2186,7 +2231,7 @@
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -2204,7 +2249,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -2222,7 +2267,7 @@
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2240,10 +2285,10 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2261,7 +2306,7 @@
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2279,7 +2324,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2297,7 +2342,7 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -2315,7 +2360,7 @@
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -2333,7 +2378,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2351,7 +2396,7 @@
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -2369,7 +2414,7 @@
     </row>
     <row r="46" spans="1:7" ht="15">
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -2387,10 +2432,10 @@
     </row>
     <row r="47" spans="1:7" ht="45">
       <c r="A47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -2408,7 +2453,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -2426,7 +2471,7 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -2444,7 +2489,7 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -2462,7 +2507,7 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -2480,7 +2525,7 @@
     </row>
     <row r="52" spans="1:7" ht="15">
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -2498,10 +2543,10 @@
     </row>
     <row r="53" spans="1:7" ht="15">
       <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -2519,22 +2564,22 @@
     </row>
     <row r="54" spans="1:7" ht="15">
       <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -2552,7 +2597,7 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -2570,10 +2615,10 @@
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="A57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -2591,7 +2636,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -2609,10 +2654,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -2630,7 +2675,7 @@
     </row>
     <row r="60" spans="1:7" ht="45">
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -2648,10 +2693,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -2669,7 +2714,7 @@
     </row>
     <row r="62" spans="1:7" ht="45">
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -2687,10 +2732,10 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -2708,7 +2753,7 @@
     </row>
     <row r="64" spans="1:7" ht="45">
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -2765,7 +2810,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2835,16 +2880,16 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -2871,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2908,15 +2953,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2933,63 +2978,63 @@
     </row>
     <row r="3" spans="1:9" ht="45">
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -3006,10 +3051,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3023,18 +3068,954 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
         <v>1</v>
       </c>
     </row>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="oasis" sheetId="5" r:id="rId5"/>
     <sheet name="Administrative" sheetId="6" r:id="rId6"/>
     <sheet name="VerifyClinician" sheetId="7" r:id="rId7"/>
+    <sheet name="Comm" sheetId="8" r:id="rId8"/>
+    <sheet name="Order" sheetId="9" r:id="rId9"/>
+    <sheet name="General" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -409,9 +412,6 @@
     <t>//input[@ng-model="vm.charts.consent.witnessPrint"]</t>
   </si>
   <si>
-    <t>//div[@ng-click="vm.signature(vm.charts.consent.patientSign, 'patient-signature')"]</t>
-  </si>
-  <si>
     <t>//div[@ng-click="vm.signature(vm.charts.consent.witnessSign, 'witness-signature')"]</t>
   </si>
   <si>
@@ -461,6 +461,573 @@
   </si>
   <si>
     <t>rn</t>
+  </si>
+  <si>
+    <t>//*[@id="navigation"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[5]</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.order.comm.subject"]</t>
+  </si>
+  <si>
+    <t>Subjecttest</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Physician Name"]</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]//li[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.order.comm.value"]</t>
+  </si>
+  <si>
+    <t>//md-select-menu//md-option[1]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.send()"]</t>
+  </si>
+  <si>
+    <t>//div[@subtitle="SUBJECTTEST"]</t>
+  </si>
+  <si>
+    <t>//*[@id="navigation"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.newOrder($event, 'new')"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.frequency.subject"]</t>
+  </si>
+  <si>
+    <t>Subject Order</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.frequency.orderType"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Physician Name"]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>Elimination</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[5]</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[7]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[8]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[9]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[10]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[11]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[12]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[13]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[14]</t>
+  </si>
+  <si>
+    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[15]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.value"]</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Witness</t>
+  </si>
+  <si>
+    <t>//div[@ng-show="vm.charts.consent.patientSign.sigImg === null"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.consent.verbalConsent.responsibleParty"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.consent.verbalConsent.receivedBy"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.consent.verbalConsent.witnessedBy"]</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>witnessed</t>
+  </si>
+  <si>
+    <t>//div[@ng-click="vm.signature(vm.charts.consent.clinicianSign, 'clinician-signature')"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.consent.clinicianPrint"]</t>
+  </si>
+  <si>
+    <t>clinician</t>
+  </si>
+  <si>
+    <t>//div[@ng-click="vm.signature(vm.charts.dnrAD.signature, 'dnr-signature')"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.dnrAD.relationship"]</t>
+  </si>
+  <si>
+    <t>relation patient</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.dpoa.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.cancel(vm.selectedNote)"]</t>
+  </si>
+  <si>
+    <t>Back to OASIS</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"3 / 3")]</t>
+  </si>
+  <si>
+    <t>Verify saved</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.dnrAD.value"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'General')]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.basic.m0020.id"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.basic.m0064.ssn"]</t>
+  </si>
+  <si>
+    <t>sss number</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0140"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[8]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[9]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[10]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[11]</t>
+  </si>
+  <si>
+    <t>//form[@name="m0150"]//md-checkbox[12]</t>
+  </si>
+  <si>
+    <t>M014</t>
+  </si>
+  <si>
+    <t>m0150</t>
+  </si>
+  <si>
+    <t>notify md</t>
+  </si>
+  <si>
+    <t>vitals</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2at.value"])[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2sat.value"])[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.via"]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.on"]</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2sat.type"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.side"]/md-radio-button)[1]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.position"]/md-radio-button)[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital.maintain"]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital.patienAsymptomatic"]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital.mdInformed"]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//textarea[@ng-model="vm.charts.vital.comments"]</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2at.value"])[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2sat.value"])[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.via"])[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.on"])[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2sat.type"])[2]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.side"]/md-radio-button)[3]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.position"]/md-radio-button)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[12]</t>
+  </si>
+  <si>
+    <t>//form[@name="vital"]//md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2at.value"])[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2sat.value"])[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.via"])[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2at.on"])[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-select[@ng-model="vm.charts.vital[sign.name].o2sat.type"])[3]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.side"]/md-radio-button)[6]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.vital[sign.name].bloodPressure.position"]/md-radio-button)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="vital"]//md-slider)[18]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="homebound"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.homebound.detail"]</t>
+  </si>
+  <si>
+    <t>comment homebound</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"6 / 6")]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m0150.detail"]</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="notifyphysician"]//md-slider)[17]</t>
   </si>
 </sst>
 </file>
@@ -502,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,6 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +1398,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H25"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -1167,6 +1735,1815 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:E107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1"/>
+    <col min="2" max="2" width="50.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="24" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12312213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12312123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="B47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45">
+      <c r="A52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45">
+      <c r="B57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
+      <c r="B58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="B61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="B62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="B63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30">
+      <c r="B64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30">
+      <c r="B68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="B70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45">
+      <c r="A73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45">
+      <c r="A75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45">
+      <c r="B79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30">
+      <c r="B85" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30">
+      <c r="B87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30">
+      <c r="A89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45">
+      <c r="A90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30">
+      <c r="A91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30">
+      <c r="A93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45">
+      <c r="A94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45">
+      <c r="B95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45">
+      <c r="B96" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="B102" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="B104" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="B106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="B107" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="B108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1525,7 +3902,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -2914,10 +5291,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15"/>
@@ -2980,36 +5357,120 @@
       <c r="B3" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="B5" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
@@ -3018,6 +5479,9 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
@@ -3026,18 +5490,33 @@
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -3051,10 +5530,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3063,12 +5542,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -3080,11 +5559,328 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="B18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="B26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="B27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="B32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3092,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -3179,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>57</v>
@@ -3222,13 +6018,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3241,16 +6037,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -3309,7 +6105,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>57</v>
@@ -3352,13 +6148,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3371,16 +6167,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -3439,7 +6235,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>57</v>
@@ -3482,13 +6278,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3501,16 +6297,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -3569,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>57</v>
@@ -3612,13 +6408,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3631,16 +6427,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -3699,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>57</v>
@@ -3742,13 +6538,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -3761,16 +6557,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -3829,7 +6625,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>57</v>
@@ -3872,13 +6668,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -3891,16 +6687,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -3912,7 +6708,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -3959,7 +6755,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>57</v>
@@ -4002,13 +6798,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4022,4 +6818,1850 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
+      <c r="B9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1"/>
+    <col min="2" max="2" width="51.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60">
+      <c r="B14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
+      <c r="B15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60">
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60">
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60">
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60">
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="B26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60">
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45">
+      <c r="B30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60">
+      <c r="B31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="B32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="B34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45">
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60">
+      <c r="B36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45">
+      <c r="B37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60">
+      <c r="B38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45">
+      <c r="B39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60">
+      <c r="B40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45">
+      <c r="B41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60">
+      <c r="B43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45">
+      <c r="B44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60">
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45">
+      <c r="B46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60">
+      <c r="B47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45">
+      <c r="B48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45">
+      <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60">
+      <c r="B50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45">
+      <c r="A51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60">
+      <c r="B52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45">
+      <c r="A53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60">
+      <c r="B54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60">
+      <c r="B56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45">
+      <c r="A57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60">
+      <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45">
+      <c r="A59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60">
+      <c r="B60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45">
+      <c r="A61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60">
+      <c r="B62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45">
+      <c r="A63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60">
+      <c r="B64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60">
+      <c r="B66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45">
+      <c r="A67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60">
+      <c r="B68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45">
+      <c r="A69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60">
+      <c r="B70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45">
+      <c r="A71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60">
+      <c r="B72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45">
+      <c r="A73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60">
+      <c r="B74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45">
+      <c r="A75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60">
+      <c r="B76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60">
+      <c r="B78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45">
+      <c r="A79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="45">
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="45">
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -1028,6 +1028,9 @@
   </si>
   <si>
     <t>(//form[@name="notifyphysician"]//md-slider)[17]</t>
+  </si>
+  <si>
+    <t>//p[contains(text(),"Subject Order")]</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:E107"/>
     </sheetView>
   </sheetViews>
@@ -7090,8 +7093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -8652,9 +8655,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="45">
+    <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>57</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>//button[@aria-label="Plan"]</t>
-  </si>
-  <si>
     <t>//input[@ng-model="vm.myPlan.description"]</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>//button[@ng-click="vm.cancel()"]</t>
   </si>
   <si>
-    <t>//button[@aria-label="Memo"]</t>
-  </si>
-  <si>
     <t>//span[@class="ng-binding"]</t>
   </si>
   <si>
@@ -1031,6 +1025,18 @@
   </si>
   <si>
     <t>//p[contains(text(),"Subject Order")]</t>
+  </si>
+  <si>
+    <t>//md-fab-speed-dial[contains(@class,"md-is-open")]//button[@aria-label="Plan"]</t>
+  </si>
+  <si>
+    <t>//md-fab-speed-dial[contains(@class,"md-is-open")]//button[@aria-label="Memo"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="1. Plan 1"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="2. Plan 2"]</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1796,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1814,13 +1820,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>12312213</v>
@@ -1828,13 +1834,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>12312123</v>
@@ -1842,10 +1848,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1862,61 +1868,61 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1933,101 +1939,101 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2035,21 +2041,21 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -2066,10 +2072,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2086,7 +2092,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2103,7 +2109,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2120,7 +2126,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2205,7 +2211,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2222,7 +2228,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2307,7 +2313,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2341,7 +2347,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2358,10 +2364,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -2378,10 +2384,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2398,7 +2404,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2415,7 +2421,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2483,10 +2489,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2503,10 +2509,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2523,10 +2529,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2543,10 +2549,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2563,10 +2569,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2583,10 +2589,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2603,7 +2609,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2637,7 +2643,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2671,10 +2677,10 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2688,10 +2694,10 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2705,10 +2711,10 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2722,13 +2728,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2742,10 +2748,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2762,10 +2768,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2782,7 +2788,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -2799,7 +2805,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2816,7 +2822,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2833,7 +2839,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2865,12 +2871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -2887,10 +2893,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -2907,10 +2913,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -2927,10 +2933,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -2947,10 +2953,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -2967,10 +2973,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -2985,9 +2991,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3038,7 +3044,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3075,10 +3081,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3095,7 +3101,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3129,7 +3135,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3180,10 +3186,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3200,10 +3206,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3220,10 +3226,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3240,10 +3246,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3260,10 +3266,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3280,10 +3286,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3317,7 +3323,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3334,7 +3340,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3351,7 +3357,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3368,10 +3374,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -3388,10 +3394,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3399,10 +3405,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3410,10 +3416,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -3421,10 +3427,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -3432,10 +3438,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -3443,10 +3449,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3454,10 +3460,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3465,10 +3471,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3476,13 +3482,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3496,10 +3502,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>12</v>
@@ -3516,10 +3522,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -3536,13 +3542,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3552,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3654,7 +3660,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -3671,13 +3677,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3699,13 +3705,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3727,23 +3733,40 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3752,7 +3775,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -3850,9 +3873,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3869,18 +3892,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -3949,10 +3972,10 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3970,24 +3993,24 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -4005,10 +4028,10 @@
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -4026,22 +4049,22 @@
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -4059,10 +4082,10 @@
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -4080,10 +4103,10 @@
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -4101,10 +4124,10 @@
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -4122,10 +4145,10 @@
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -4143,10 +4166,10 @@
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -4164,10 +4187,10 @@
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -4185,10 +4208,10 @@
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -4206,10 +4229,10 @@
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -4227,36 +4250,36 @@
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -4274,10 +4297,10 @@
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -4295,10 +4318,10 @@
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -4316,10 +4339,10 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -4337,10 +4360,10 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -4358,10 +4381,10 @@
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -4379,13 +4402,13 @@
     </row>
     <row r="24" spans="1:8" ht="30">
       <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -4399,13 +4422,13 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -4419,13 +4442,13 @@
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -4439,13 +4462,13 @@
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -4459,13 +4482,13 @@
     </row>
     <row r="28" spans="1:8" ht="30">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -4479,10 +4502,10 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4500,7 +4523,7 @@
     </row>
     <row r="30" spans="1:8" ht="45">
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4518,7 +4541,7 @@
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4536,7 +4559,7 @@
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4554,7 +4577,7 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4572,7 +4595,7 @@
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4590,10 +4613,10 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -4611,7 +4634,7 @@
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -4629,7 +4652,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -4647,7 +4670,7 @@
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -4665,10 +4688,10 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -4686,7 +4709,7 @@
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -4704,7 +4727,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -4722,7 +4745,7 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -4740,7 +4763,7 @@
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -4758,7 +4781,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -4776,7 +4799,7 @@
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -4794,7 +4817,7 @@
     </row>
     <row r="46" spans="1:7" ht="15">
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -4812,10 +4835,10 @@
     </row>
     <row r="47" spans="1:7" ht="45">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4833,7 +4856,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -4851,7 +4874,7 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -4869,7 +4892,7 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -4887,7 +4910,7 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -4905,7 +4928,7 @@
     </row>
     <row r="52" spans="1:7" ht="15">
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -4923,10 +4946,10 @@
     </row>
     <row r="53" spans="1:7" ht="15">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -4944,22 +4967,22 @@
     </row>
     <row r="54" spans="1:7" ht="15">
       <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -4977,7 +5000,7 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -4995,10 +5018,10 @@
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -5016,7 +5039,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -5034,10 +5057,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -5055,7 +5078,7 @@
     </row>
     <row r="60" spans="1:7" ht="45">
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -5073,10 +5096,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -5094,7 +5117,7 @@
     </row>
     <row r="62" spans="1:7" ht="45">
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -5112,10 +5135,10 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -5133,7 +5156,7 @@
     </row>
     <row r="64" spans="1:7" ht="45">
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -5190,7 +5213,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5266,10 +5289,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -5333,15 +5356,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -5358,10 +5381,10 @@
     </row>
     <row r="3" spans="1:9" ht="45">
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -5375,10 +5398,10 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5392,10 +5415,10 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5409,10 +5432,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5426,10 +5449,10 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5443,10 +5466,10 @@
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5460,10 +5483,10 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5477,29 +5500,29 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -5516,10 +5539,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -5533,7 +5556,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5550,7 +5573,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -5567,10 +5590,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -5584,7 +5607,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -5601,40 +5624,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5651,10 +5674,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -5668,7 +5691,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5685,21 +5708,21 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5716,10 +5739,10 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -5733,7 +5756,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5750,10 +5773,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -5767,7 +5790,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -5784,21 +5807,21 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -5815,7 +5838,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5832,10 +5855,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5852,10 +5875,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5872,13 +5895,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5926,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5978,10 +6001,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -6003,7 +6026,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -6021,13 +6044,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6040,16 +6063,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -6108,10 +6131,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5">
@@ -6133,7 +6156,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="5">
@@ -6151,13 +6174,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6170,16 +6193,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -6238,10 +6261,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5">
@@ -6263,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -6281,13 +6304,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6300,16 +6323,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -6368,10 +6391,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="5">
@@ -6393,7 +6416,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -6411,13 +6434,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6430,16 +6453,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -6498,10 +6521,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="5">
@@ -6523,7 +6546,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -6541,13 +6564,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6560,16 +6583,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -6628,10 +6651,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="5">
@@ -6653,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -6671,13 +6694,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -6690,16 +6713,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -6711,7 +6734,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -6758,10 +6781,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="5">
@@ -6783,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -6801,13 +6824,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -6938,10 +6961,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -6975,13 +6998,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6995,13 +7018,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -7009,7 +7032,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -7026,7 +7049,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -7043,7 +7066,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7060,7 +7083,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7077,10 +7100,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7093,7 +7116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
@@ -7204,7 +7227,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -7222,7 +7245,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7240,18 +7263,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -7269,7 +7292,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -7287,13 +7310,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7301,10 +7324,10 @@
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7322,7 +7345,7 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7340,7 +7363,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -7358,7 +7381,7 @@
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -7376,7 +7399,7 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -7394,7 +7417,7 @@
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -7412,7 +7435,7 @@
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -7430,7 +7453,7 @@
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -7448,7 +7471,7 @@
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -7466,7 +7489,7 @@
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -7484,7 +7507,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -7502,10 +7525,10 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -7523,7 +7546,7 @@
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -7541,7 +7564,7 @@
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -7559,7 +7582,7 @@
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -7577,7 +7600,7 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -7595,7 +7618,7 @@
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -7613,7 +7636,7 @@
     </row>
     <row r="28" spans="1:7" ht="45">
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -7631,7 +7654,7 @@
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -7649,7 +7672,7 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -7667,7 +7690,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -7685,7 +7708,7 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -7703,10 +7726,10 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -7724,7 +7747,7 @@
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -7742,7 +7765,7 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -7760,7 +7783,7 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="B36" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -7778,7 +7801,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -7796,7 +7819,7 @@
     </row>
     <row r="38" spans="1:7" ht="60">
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -7814,7 +7837,7 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -7832,7 +7855,7 @@
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -7850,7 +7873,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -7868,10 +7891,10 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -7889,7 +7912,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="B43" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -7907,7 +7930,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -7925,7 +7948,7 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -7943,7 +7966,7 @@
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -7961,7 +7984,7 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="B47" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -7979,7 +8002,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -7997,10 +8020,10 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -8018,7 +8041,7 @@
     </row>
     <row r="50" spans="1:7" ht="60">
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -8036,10 +8059,10 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -8057,7 +8080,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -8075,10 +8098,10 @@
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -8096,7 +8119,7 @@
     </row>
     <row r="54" spans="1:7" ht="60">
       <c r="B54" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -8114,10 +8137,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -8135,7 +8158,7 @@
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -8153,10 +8176,10 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -8174,7 +8197,7 @@
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -8192,10 +8215,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -8213,7 +8236,7 @@
     </row>
     <row r="60" spans="1:7" ht="60">
       <c r="B60" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
@@ -8231,10 +8254,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -8252,7 +8275,7 @@
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="B62" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -8270,10 +8293,10 @@
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -8291,7 +8314,7 @@
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="B64" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -8309,10 +8332,10 @@
     </row>
     <row r="65" spans="1:7" ht="45">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -8330,7 +8353,7 @@
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="B66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -8348,10 +8371,10 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -8369,7 +8392,7 @@
     </row>
     <row r="68" spans="1:7" ht="60">
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -8387,10 +8410,10 @@
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -8408,7 +8431,7 @@
     </row>
     <row r="70" spans="1:7" ht="60">
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -8426,10 +8449,10 @@
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -8447,7 +8470,7 @@
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="B72" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -8465,10 +8488,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -8486,7 +8509,7 @@
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="B74" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -8504,10 +8527,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -8525,7 +8548,7 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -8543,10 +8566,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -8564,7 +8587,7 @@
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -8582,10 +8605,10 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -8603,7 +8626,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -8621,7 +8644,7 @@
     </row>
     <row r="81" spans="2:7" ht="45">
       <c r="B81" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -8639,7 +8662,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -8657,10 +8680,10 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[1]/div/button</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[2]/div/button</t>
   </si>
   <si>
@@ -109,12 +106,6 @@
     <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[3]/div/button</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
@@ -1024,9 +1015,6 @@
     <t>(//form[@name="notifyphysician"]//md-slider)[17]</t>
   </si>
   <si>
-    <t>//p[contains(text(),"Subject Order")]</t>
-  </si>
-  <si>
     <t>//md-fab-speed-dial[contains(@class,"md-is-open")]//button[@aria-label="Plan"]</t>
   </si>
   <si>
@@ -1037,6 +1025,12 @@
   </si>
   <si>
     <t>//button[@aria-label="2. Plan 2"]</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>//p[contains(text(),"Aide Care Plan")]</t>
   </si>
 </sst>
 </file>
@@ -1404,15 +1398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="22.28515625" style="5"/>
+    <col min="1" max="1" width="22.28515625" style="5"/>
+    <col min="2" max="2" width="76.5703125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="22.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1510,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1587,10 +1583,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -1611,7 +1607,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -1632,7 +1628,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1653,10 +1649,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -1672,72 +1668,6 @@
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1796,10 +1726,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1820,13 +1750,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>12312213</v>
@@ -1834,13 +1764,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>12312123</v>
@@ -1848,10 +1778,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1868,61 +1798,61 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1939,101 +1869,101 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2041,21 +1971,21 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -2072,10 +2002,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2092,7 +2022,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2109,7 +2039,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2126,7 +2056,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2143,7 +2073,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2160,7 +2090,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2177,7 +2107,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2194,7 +2124,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2211,7 +2141,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2228,7 +2158,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2245,7 +2175,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2262,7 +2192,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2279,7 +2209,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2296,7 +2226,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2313,7 +2243,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2330,7 +2260,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2347,7 +2277,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2364,10 +2294,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -2384,10 +2314,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2404,7 +2334,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2421,7 +2351,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2438,7 +2368,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2455,7 +2385,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2472,7 +2402,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2489,10 +2419,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2509,10 +2439,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2529,10 +2459,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2549,10 +2479,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2569,10 +2499,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2589,10 +2519,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2609,7 +2539,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2626,7 +2556,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2643,7 +2573,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2660,7 +2590,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2677,10 +2607,10 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2694,10 +2624,10 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2711,10 +2641,10 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2728,13 +2658,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2748,10 +2678,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2768,10 +2698,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2788,7 +2718,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -2805,7 +2735,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2822,7 +2752,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2839,7 +2769,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -2856,7 +2786,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2873,10 +2803,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -2893,10 +2823,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -2913,10 +2843,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -2933,10 +2863,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -2953,10 +2883,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -2973,10 +2903,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -2993,7 +2923,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3010,7 +2940,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3027,7 +2957,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3044,7 +2974,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3061,10 +2991,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3081,10 +3011,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3101,7 +3031,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3118,7 +3048,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3135,7 +3065,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3152,7 +3082,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3169,7 +3099,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3186,10 +3116,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3206,10 +3136,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3226,10 +3156,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3246,10 +3176,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3266,10 +3196,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3286,10 +3216,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3306,7 +3236,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3323,7 +3253,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3340,7 +3270,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3357,7 +3287,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3374,10 +3304,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -3394,10 +3324,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3405,10 +3335,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3416,10 +3346,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -3427,10 +3357,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -3438,10 +3368,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -3449,10 +3379,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3460,10 +3390,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3471,10 +3401,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3482,13 +3412,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3502,10 +3432,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>12</v>
@@ -3522,10 +3452,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -3542,13 +3472,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3491,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3615,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3632,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3640,10 +3570,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3655,12 +3585,12 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -3677,18 +3607,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -3705,18 +3635,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -3733,23 +3663,23 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -3854,10 +3784,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1">
@@ -3870,12 +3800,12 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3892,18 +3822,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -3972,10 +3902,10 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3993,24 +3923,24 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -4028,10 +3958,10 @@
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -4049,22 +3979,22 @@
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -4082,10 +4012,10 @@
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -4103,10 +4033,10 @@
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -4124,10 +4054,10 @@
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -4145,10 +4075,10 @@
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -4166,10 +4096,10 @@
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -4187,10 +4117,10 @@
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -4208,10 +4138,10 @@
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -4229,10 +4159,10 @@
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -4250,36 +4180,36 @@
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -4297,10 +4227,10 @@
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -4318,10 +4248,10 @@
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -4339,10 +4269,10 @@
     </row>
     <row r="21" spans="1:8" ht="45">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -4360,10 +4290,10 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -4381,10 +4311,10 @@
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -4402,13 +4332,13 @@
     </row>
     <row r="24" spans="1:8" ht="30">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -4422,13 +4352,13 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -4442,13 +4372,13 @@
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -4462,13 +4392,13 @@
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -4482,13 +4412,13 @@
     </row>
     <row r="28" spans="1:8" ht="30">
       <c r="A28" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -4502,10 +4432,10 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4523,7 +4453,7 @@
     </row>
     <row r="30" spans="1:8" ht="45">
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4541,7 +4471,7 @@
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4559,7 +4489,7 @@
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4577,7 +4507,7 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4595,7 +4525,7 @@
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4613,10 +4543,10 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -4634,7 +4564,7 @@
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -4652,7 +4582,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -4670,7 +4600,7 @@
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -4688,10 +4618,10 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -4709,7 +4639,7 @@
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -4727,7 +4657,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -4745,7 +4675,7 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -4763,7 +4693,7 @@
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -4781,7 +4711,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -4799,7 +4729,7 @@
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -4817,7 +4747,7 @@
     </row>
     <row r="46" spans="1:7" ht="15">
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -4835,10 +4765,10 @@
     </row>
     <row r="47" spans="1:7" ht="45">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4856,7 +4786,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -4874,7 +4804,7 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -4892,7 +4822,7 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -4910,7 +4840,7 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -4928,7 +4858,7 @@
     </row>
     <row r="52" spans="1:7" ht="15">
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -4946,10 +4876,10 @@
     </row>
     <row r="53" spans="1:7" ht="15">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -4967,22 +4897,22 @@
     </row>
     <row r="54" spans="1:7" ht="15">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -5000,7 +4930,7 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -5018,10 +4948,10 @@
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -5039,7 +4969,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -5057,10 +4987,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -5078,7 +5008,7 @@
     </row>
     <row r="60" spans="1:7" ht="45">
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -5096,10 +5026,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -5117,7 +5047,7 @@
     </row>
     <row r="62" spans="1:7" ht="45">
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -5135,10 +5065,10 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -5156,7 +5086,7 @@
     </row>
     <row r="64" spans="1:7" ht="45">
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -5213,7 +5143,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5283,16 +5213,16 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -5356,15 +5286,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -5381,10 +5311,10 @@
     </row>
     <row r="3" spans="1:9" ht="45">
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -5398,10 +5328,10 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5415,10 +5345,10 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5432,10 +5362,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5449,10 +5379,10 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5466,10 +5396,10 @@
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5483,10 +5413,10 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5500,29 +5430,29 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -5539,10 +5469,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -5556,7 +5486,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5573,7 +5503,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -5590,10 +5520,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -5607,7 +5537,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -5624,40 +5554,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5674,10 +5604,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -5691,7 +5621,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5708,21 +5638,21 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5739,10 +5669,10 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -5756,7 +5686,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5773,10 +5703,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -5790,7 +5720,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -5807,21 +5737,21 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -5838,7 +5768,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5855,10 +5785,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5875,10 +5805,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5895,13 +5825,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +5879,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6001,10 +5931,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -6026,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -6039,18 +5969,18 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6063,16 +5993,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -6131,10 +6061,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5">
@@ -6156,7 +6086,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="5">
@@ -6169,18 +6099,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6193,16 +6123,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -6261,10 +6191,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5">
@@ -6286,7 +6216,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -6299,18 +6229,18 @@
         <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6323,16 +6253,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -6391,10 +6321,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="5">
@@ -6416,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -6429,18 +6359,18 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6453,16 +6383,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -6521,10 +6451,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="5">
@@ -6546,7 +6476,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -6559,18 +6489,18 @@
         <v>3</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6583,16 +6513,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -6651,10 +6581,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="5">
@@ -6676,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -6689,18 +6619,18 @@
         <v>3</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -6713,16 +6643,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -6734,7 +6664,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -6781,10 +6711,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="5">
@@ -6806,7 +6736,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -6819,18 +6749,18 @@
         <v>3</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -6956,15 +6886,15 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -6998,13 +6928,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -7018,13 +6948,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -7032,7 +6962,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -7049,7 +6979,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -7066,7 +6996,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7083,7 +7013,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7100,10 +7030,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7116,8 +7046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -7222,12 +7152,12 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -7245,7 +7175,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7263,18 +7193,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -7292,7 +7222,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -7310,13 +7240,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7324,10 +7254,10 @@
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7345,7 +7275,7 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7363,7 +7293,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -7381,7 +7311,7 @@
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -7399,7 +7329,7 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -7417,7 +7347,7 @@
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -7435,7 +7365,7 @@
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -7453,7 +7383,7 @@
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -7471,7 +7401,7 @@
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -7489,7 +7419,7 @@
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -7507,7 +7437,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -7525,10 +7455,10 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -7546,7 +7476,7 @@
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -7564,7 +7494,7 @@
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -7582,7 +7512,7 @@
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -7600,7 +7530,7 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -7618,7 +7548,7 @@
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -7636,7 +7566,7 @@
     </row>
     <row r="28" spans="1:7" ht="45">
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -7654,7 +7584,7 @@
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -7672,7 +7602,7 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -7690,7 +7620,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="B31" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -7708,7 +7638,7 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -7726,10 +7656,10 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -7747,7 +7677,7 @@
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -7765,7 +7695,7 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -7783,7 +7713,7 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -7801,7 +7731,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -7819,7 +7749,7 @@
     </row>
     <row r="38" spans="1:7" ht="60">
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -7837,7 +7767,7 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -7855,7 +7785,7 @@
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -7873,7 +7803,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -7891,10 +7821,10 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -7912,7 +7842,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -7930,7 +7860,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -7948,7 +7878,7 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="B45" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -7966,7 +7896,7 @@
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -7984,7 +7914,7 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -8002,7 +7932,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -8020,10 +7950,10 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -8041,7 +7971,7 @@
     </row>
     <row r="50" spans="1:7" ht="60">
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -8059,10 +7989,10 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -8080,7 +8010,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="B52" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -8098,10 +8028,10 @@
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -8119,7 +8049,7 @@
     </row>
     <row r="54" spans="1:7" ht="60">
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -8137,10 +8067,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -8158,7 +8088,7 @@
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -8176,10 +8106,10 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -8197,7 +8127,7 @@
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="B58" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -8215,10 +8145,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -8236,7 +8166,7 @@
     </row>
     <row r="60" spans="1:7" ht="60">
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
@@ -8254,10 +8184,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -8275,7 +8205,7 @@
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -8293,10 +8223,10 @@
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -8314,7 +8244,7 @@
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -8332,10 +8262,10 @@
     </row>
     <row r="65" spans="1:7" ht="45">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -8353,7 +8283,7 @@
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="B66" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -8371,10 +8301,10 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -8392,7 +8322,7 @@
     </row>
     <row r="68" spans="1:7" ht="60">
       <c r="B68" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -8410,10 +8340,10 @@
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -8431,7 +8361,7 @@
     </row>
     <row r="70" spans="1:7" ht="60">
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -8449,10 +8379,10 @@
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -8470,7 +8400,7 @@
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -8488,10 +8418,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -8509,7 +8439,7 @@
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="B74" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -8527,10 +8457,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -8548,7 +8478,7 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -8566,10 +8496,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -8587,7 +8517,7 @@
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="B78" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -8605,10 +8535,10 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -8626,7 +8556,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -8644,7 +8574,7 @@
     </row>
     <row r="81" spans="2:7" ht="45">
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -8662,7 +8592,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -8675,15 +8605,15 @@
         <v>1</v>
       </c>
       <c r="G82" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -442,9 +442,6 @@
     <t>rd</t>
   </si>
   <si>
-    <t>st</t>
-  </si>
-  <si>
     <t>rn</t>
   </si>
   <si>
@@ -1031,6 +1028,15 @@
   </si>
   <si>
     <t>//p[contains(text(),"Aide Care Plan")]</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>error notice</t>
+  </si>
+  <si>
+    <t>Unable to view patient on clinician to do visit</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1729,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1750,10 +1756,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1764,10 +1770,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -1809,7 +1815,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -1869,10 +1875,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -1880,7 +1886,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -1896,7 +1902,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -1904,7 +1910,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -1952,7 +1958,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -1971,13 +1977,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2002,10 +2008,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2056,7 +2062,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2107,7 +2113,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2141,7 +2147,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2175,7 +2181,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2209,7 +2215,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2226,7 +2232,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2314,10 +2320,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2334,7 +2340,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2351,7 +2357,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2385,7 +2391,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2419,10 +2425,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2439,10 +2445,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2459,10 +2465,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2479,10 +2485,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2499,10 +2505,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2519,10 +2525,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2539,7 +2545,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2556,7 +2562,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2573,7 +2579,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -2658,13 +2664,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2678,10 +2684,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2698,10 +2704,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2752,7 +2758,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -2786,7 +2792,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2803,10 +2809,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -2823,10 +2829,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -2843,10 +2849,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -2883,10 +2889,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -2903,10 +2909,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -2923,7 +2929,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -2940,7 +2946,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -2957,7 +2963,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -2974,7 +2980,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -2991,10 +2997,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3011,10 +3017,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3031,7 +3037,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3065,7 +3071,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3099,7 +3105,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3116,10 +3122,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3136,10 +3142,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3156,10 +3162,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3176,10 +3182,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3196,10 +3202,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3216,10 +3222,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3253,7 +3259,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3287,7 +3293,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3324,7 +3330,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>77</v>
@@ -3335,7 +3341,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>77</v>
@@ -3346,7 +3352,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>77</v>
@@ -3357,7 +3363,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>77</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
@@ -3379,7 +3385,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>77</v>
@@ -3390,7 +3396,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>77</v>
@@ -3412,13 +3418,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3452,10 +3458,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -3472,10 +3478,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -3490,7 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -3663,7 +3669,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -3805,7 +3811,7 @@
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -5250,7 +5256,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD35"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15"/>
@@ -5436,7 +5442,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5447,7 +5453,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
@@ -5503,7 +5509,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -5554,40 +5560,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5638,13 +5644,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5669,7 +5675,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5737,13 +5743,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5768,7 +5774,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5805,10 +5811,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5825,10 +5831,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -5842,10 +5848,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -5853,7 +5859,7 @@
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5881,8 +5887,11 @@
       <c r="I1" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5913,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5926,7 +5935,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5957,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -5972,7 +5981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>132</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
         <v>130</v>
       </c>
@@ -6002,7 +6011,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -6012,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6034,7 +6043,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6056,7 +6065,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -6078,7 +6087,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>132</v>
       </c>
@@ -6121,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
         <v>130</v>
       </c>
@@ -6142,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +6173,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -6186,7 +6195,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -6554,7 +6563,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
@@ -6576,7 +6585,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
@@ -6598,7 +6607,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
         <v>132</v>
       </c>
@@ -6641,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="10" t="s">
         <v>130</v>
       </c>
@@ -6652,7 +6661,7 @@
         <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -6662,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
@@ -6684,7 +6693,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -6705,8 +6714,11 @@
         <v>2</v>
       </c>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
@@ -6727,8 +6739,11 @@
         <v>3</v>
       </c>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -6751,8 +6766,11 @@
       <c r="H41" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
         <v>132</v>
       </c>
@@ -6769,6 +6787,9 @@
       </c>
       <c r="G42" s="10">
         <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6891,10 +6912,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -6928,13 +6949,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6948,13 +6969,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -6962,7 +6983,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -6979,7 +7000,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -6996,7 +7017,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7013,7 +7034,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7030,7 +7051,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>52</v>
@@ -7157,7 +7178,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -7175,7 +7196,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7193,18 +7214,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -7222,7 +7243,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -7240,13 +7261,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7257,7 +7278,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7275,7 +7296,7 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7293,7 +7314,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -7311,7 +7332,7 @@
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -7329,7 +7350,7 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -7347,7 +7368,7 @@
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -7365,7 +7386,7 @@
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -7383,7 +7404,7 @@
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -7401,7 +7422,7 @@
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -7419,7 +7440,7 @@
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -7437,7 +7458,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -7455,10 +7476,10 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -7476,7 +7497,7 @@
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -7494,7 +7515,7 @@
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -7512,7 +7533,7 @@
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -7530,7 +7551,7 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -7548,7 +7569,7 @@
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -7566,7 +7587,7 @@
     </row>
     <row r="28" spans="1:7" ht="45">
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -7584,7 +7605,7 @@
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -7602,7 +7623,7 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -7620,7 +7641,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -7638,7 +7659,7 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -7656,10 +7677,10 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -7677,7 +7698,7 @@
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -7695,7 +7716,7 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -7713,7 +7734,7 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -7731,7 +7752,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -7749,7 +7770,7 @@
     </row>
     <row r="38" spans="1:7" ht="60">
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -7767,7 +7788,7 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -7785,7 +7806,7 @@
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -7803,7 +7824,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -7821,10 +7842,10 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -7842,7 +7863,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -7860,7 +7881,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -7878,7 +7899,7 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -7896,7 +7917,7 @@
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -7914,7 +7935,7 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -7932,7 +7953,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -7950,10 +7971,10 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -7971,7 +7992,7 @@
     </row>
     <row r="50" spans="1:7" ht="60">
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -7989,10 +8010,10 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -8010,7 +8031,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="B52" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -8028,10 +8049,10 @@
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -8049,7 +8070,7 @@
     </row>
     <row r="54" spans="1:7" ht="60">
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -8067,10 +8088,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -8088,7 +8109,7 @@
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -8106,10 +8127,10 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -8127,7 +8148,7 @@
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -8145,10 +8166,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -8166,7 +8187,7 @@
     </row>
     <row r="60" spans="1:7" ht="60">
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
@@ -8184,10 +8205,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -8205,7 +8226,7 @@
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -8223,10 +8244,10 @@
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -8244,7 +8265,7 @@
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="B64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -8262,10 +8283,10 @@
     </row>
     <row r="65" spans="1:7" ht="45">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -8283,7 +8304,7 @@
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="B66" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -8301,10 +8322,10 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -8322,7 +8343,7 @@
     </row>
     <row r="68" spans="1:7" ht="60">
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -8340,10 +8361,10 @@
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -8361,7 +8382,7 @@
     </row>
     <row r="70" spans="1:7" ht="60">
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -8379,10 +8400,10 @@
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -8400,7 +8421,7 @@
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="B72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -8418,10 +8439,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -8439,7 +8460,7 @@
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="B74" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -8457,10 +8478,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -8478,7 +8499,7 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -8496,10 +8517,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -8517,7 +8538,7 @@
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -8535,10 +8556,10 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -8556,7 +8577,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -8574,7 +8595,7 @@
     </row>
     <row r="81" spans="2:7" ht="45">
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -8592,7 +8613,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -8610,7 +8631,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>52</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Reason for RN</t>
   </si>
   <si>
-    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[1]</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option)[1]</t>
   </si>
   <si>
@@ -307,15 +304,9 @@
     <t>Reason for ST</t>
   </si>
   <si>
-    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[2]</t>
-  </si>
-  <si>
     <t>Reason for OT</t>
   </si>
   <si>
-    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[3]</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option)[5]</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>Reason for RD</t>
   </si>
   <si>
-    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[4]</t>
-  </si>
-  <si>
     <t>Blood Pressure</t>
   </si>
   <si>
@@ -1037,6 +1025,81 @@
   </si>
   <si>
     <t>Unable to view patient on clinician to do visit</t>
+  </si>
+  <si>
+    <t>(//md-select[@ng-model="vm.charts.frequency.servicePlans[clinician].reason"])[1]</t>
+  </si>
+  <si>
+    <t>(//md-select[@ng-model="vm.charts.frequency.servicePlans[clinician].reason"])[2]</t>
+  </si>
+  <si>
+    <t>(//md-select[@ng-model="vm.charts.frequency.servicePlans[clinician].reason"])[3]</t>
+  </si>
+  <si>
+    <t>(//md-select[@ng-model="vm.charts.frequency.servicePlans[clinician].reason"])[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Personelcare</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="aideCarePlan"]//md-tab-content[@class="_md ng-scope md-no-scroll md-active"]//md-select)[14]</t>
+  </si>
+  <si>
+    <t>//form[@name="aideCarePlan"]//md-pagination-wrapper/md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="aideCarePlan"]//md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="aideCarePlan"]//md-pagination-wrapper/md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="aideCarePlan"]//md-pagination-wrapper/md-tab-item[5]</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1652,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1735,7 +1798,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1756,10 +1819,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1770,10 +1833,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1804,10 +1867,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -1815,7 +1878,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -1823,7 +1886,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -1831,7 +1894,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -1839,7 +1902,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -1847,7 +1910,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -1875,10 +1938,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -1886,7 +1949,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -1894,7 +1957,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -1902,7 +1965,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -1910,7 +1973,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -1918,7 +1981,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -1926,7 +1989,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
@@ -1934,7 +1997,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -1942,7 +2005,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -1950,7 +2013,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -1958,7 +2021,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -1966,7 +2029,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -1977,13 +2040,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2008,10 +2071,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2028,7 +2091,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2045,7 +2108,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2062,7 +2125,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2079,7 +2142,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2096,7 +2159,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2113,7 +2176,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2130,7 +2193,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2147,7 +2210,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2164,7 +2227,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2181,7 +2244,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2198,7 +2261,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2215,7 +2278,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2232,7 +2295,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2249,7 +2312,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2266,7 +2329,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2283,7 +2346,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2320,10 +2383,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2340,7 +2403,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2357,7 +2420,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2374,7 +2437,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2391,7 +2454,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2408,7 +2471,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2425,10 +2488,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2445,10 +2508,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2465,10 +2528,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2485,10 +2548,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2505,10 +2568,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2525,10 +2588,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2545,7 +2608,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2562,7 +2625,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2579,7 +2642,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2596,7 +2659,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2613,7 +2676,7 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -2630,7 +2693,7 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -2647,7 +2710,7 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -2664,13 +2727,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2684,10 +2747,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2704,10 +2767,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2724,7 +2787,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -2741,7 +2804,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2758,7 +2821,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2775,7 +2838,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -2792,7 +2855,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2809,10 +2872,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -2829,10 +2892,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -2849,10 +2912,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -2869,10 +2932,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -2889,10 +2952,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -2909,10 +2972,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -2929,7 +2992,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -2946,7 +3009,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -2963,7 +3026,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -2980,7 +3043,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -2997,10 +3060,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3017,10 +3080,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3037,7 +3100,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3054,7 +3117,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3071,7 +3134,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3088,7 +3151,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3105,7 +3168,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3122,10 +3185,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3142,10 +3205,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3162,10 +3225,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3182,10 +3245,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3202,10 +3265,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3222,10 +3285,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3242,7 +3305,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3259,7 +3322,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3276,7 +3339,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3293,7 +3356,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3330,7 +3393,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>77</v>
@@ -3341,7 +3404,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>77</v>
@@ -3352,7 +3415,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>77</v>
@@ -3363,7 +3426,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>77</v>
@@ -3374,7 +3437,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
@@ -3385,7 +3448,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>77</v>
@@ -3396,7 +3459,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -3407,7 +3470,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>77</v>
@@ -3418,13 +3481,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3458,10 +3521,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -3478,10 +3541,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -3596,7 +3659,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -3669,7 +3732,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -3677,7 +3740,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -3811,7 +3874,7 @@
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3861,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -4195,6 +4258,9 @@
         <v>52</v>
       </c>
       <c r="D16" s="3"/>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2" t="s">
@@ -4436,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4459,7 +4525,7 @@
     </row>
     <row r="30" spans="1:8" ht="45">
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4477,7 +4543,7 @@
     </row>
     <row r="31" spans="1:8" ht="45">
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4495,7 +4561,7 @@
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4513,7 +4579,7 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4531,7 +4597,7 @@
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4549,10 +4615,10 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -4570,7 +4636,7 @@
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -4588,7 +4654,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -4606,7 +4672,7 @@
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -4624,10 +4690,10 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -4645,7 +4711,7 @@
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -4663,7 +4729,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -4681,7 +4747,7 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -4699,7 +4765,7 @@
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -4717,7 +4783,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -4735,7 +4801,7 @@
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -4753,7 +4819,7 @@
     </row>
     <row r="46" spans="1:7" ht="15">
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -4771,10 +4837,10 @@
     </row>
     <row r="47" spans="1:7" ht="45">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4792,7 +4858,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -4810,7 +4876,7 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -4828,7 +4894,7 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -4846,7 +4912,7 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -4864,7 +4930,7 @@
     </row>
     <row r="52" spans="1:7" ht="15">
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -4912,13 +4978,16 @@
         <v>52</v>
       </c>
       <c r="D54" s="3"/>
+      <c r="G54" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -4931,12 +5000,12 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -4949,15 +5018,15 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -4970,12 +5039,12 @@
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -4988,15 +5057,15 @@
         <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -5009,12 +5078,12 @@
         <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45">
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -5027,15 +5096,15 @@
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -5048,12 +5117,12 @@
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45">
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -5066,15 +5135,15 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -5087,12 +5156,12 @@
         <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45">
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -5105,11 +5174,1182 @@
         <v>1</v>
       </c>
       <c r="G64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B108" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B110" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B112" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B116" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A119" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B122" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="124" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5118,10 +6358,13 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="72" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
@@ -5149,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5225,10 +6468,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -5292,15 +6535,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -5317,7 +6560,7 @@
     </row>
     <row r="3" spans="1:9" ht="45">
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>77</v>
@@ -5334,7 +6577,7 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>77</v>
@@ -5351,7 +6594,7 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>77</v>
@@ -5368,7 +6611,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -5385,7 +6628,7 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -5402,7 +6645,7 @@
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -5419,7 +6662,7 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -5436,29 +6679,29 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -5475,10 +6718,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -5492,7 +6735,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5509,7 +6752,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -5526,10 +6769,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -5543,7 +6786,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -5560,40 +6803,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5610,10 +6853,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -5627,7 +6870,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5644,13 +6887,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5675,7 +6918,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -5692,7 +6935,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5709,10 +6952,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -5726,7 +6969,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -5743,13 +6986,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5774,7 +7017,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5811,10 +7054,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5831,10 +7074,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -5850,7 +7093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="J40" sqref="J40:J42"/>
     </sheetView>
   </sheetViews>
@@ -5885,10 +7128,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5940,7 +7183,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>52</v>
@@ -5983,13 +7226,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6002,16 +7245,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -6070,7 +7313,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>52</v>
@@ -6113,13 +7356,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6132,16 +7375,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -6200,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>52</v>
@@ -6243,13 +7486,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6262,16 +7505,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -6330,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>52</v>
@@ -6373,13 +7616,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6392,16 +7635,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -6460,7 +7703,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>52</v>
@@ -6503,13 +7746,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6522,16 +7765,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -6590,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>52</v>
@@ -6633,13 +7876,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -6652,16 +7895,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -6673,7 +7916,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -6715,7 +7958,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6723,7 +7966,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>52</v>
@@ -6740,7 +7983,7 @@
       </c>
       <c r="H40" s="5"/>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6767,18 +8010,18 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -6789,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6912,10 +8155,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -6949,13 +8192,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6969,13 +8212,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -6983,7 +8226,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -7000,7 +8243,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -7017,7 +8260,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7034,7 +8277,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7051,7 +8294,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>52</v>
@@ -7178,7 +8421,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -7196,7 +8439,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7214,18 +8457,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -7243,7 +8486,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -7261,13 +8504,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7275,10 +8518,10 @@
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -7296,7 +8539,7 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -7314,7 +8557,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -7332,7 +8575,7 @@
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -7350,7 +8593,7 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -7368,7 +8611,7 @@
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -7386,7 +8629,7 @@
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -7404,7 +8647,7 @@
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -7422,7 +8665,7 @@
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -7440,7 +8683,7 @@
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -7458,7 +8701,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -7476,10 +8719,10 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -7497,7 +8740,7 @@
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -7515,7 +8758,7 @@
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -7533,7 +8776,7 @@
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -7551,7 +8794,7 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -7569,7 +8812,7 @@
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -7587,7 +8830,7 @@
     </row>
     <row r="28" spans="1:7" ht="45">
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -7605,7 +8848,7 @@
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -7623,7 +8866,7 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -7641,7 +8884,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -7659,7 +8902,7 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -7677,10 +8920,10 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -7698,7 +8941,7 @@
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -7716,7 +8959,7 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -7734,7 +8977,7 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -7752,7 +8995,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -7770,7 +9013,7 @@
     </row>
     <row r="38" spans="1:7" ht="60">
       <c r="B38" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -7788,7 +9031,7 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -7806,7 +9049,7 @@
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="B40" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -7824,7 +9067,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -7842,10 +9085,10 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -7863,7 +9106,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -7881,7 +9124,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -7899,7 +9142,7 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -7917,7 +9160,7 @@
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="B46" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -7935,7 +9178,7 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -7953,7 +9196,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -7971,10 +9214,10 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -7992,7 +9235,7 @@
     </row>
     <row r="50" spans="1:7" ht="60">
       <c r="B50" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -8010,10 +9253,10 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -8031,7 +9274,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="B52" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -8049,10 +9292,10 @@
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -8070,7 +9313,7 @@
     </row>
     <row r="54" spans="1:7" ht="60">
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -8088,10 +9331,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -8109,7 +9352,7 @@
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -8127,10 +9370,10 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -8148,7 +9391,7 @@
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -8166,10 +9409,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -8187,7 +9430,7 @@
     </row>
     <row r="60" spans="1:7" ht="60">
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
@@ -8205,10 +9448,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -8226,7 +9469,7 @@
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="B62" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -8244,10 +9487,10 @@
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -8265,7 +9508,7 @@
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -8283,10 +9526,10 @@
     </row>
     <row r="65" spans="1:7" ht="45">
       <c r="A65" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -8304,7 +9547,7 @@
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="B66" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -8322,10 +9565,10 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -8343,7 +9586,7 @@
     </row>
     <row r="68" spans="1:7" ht="60">
       <c r="B68" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -8361,10 +9604,10 @@
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -8382,7 +9625,7 @@
     </row>
     <row r="70" spans="1:7" ht="60">
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -8400,10 +9643,10 @@
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -8421,7 +9664,7 @@
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -8439,10 +9682,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -8460,7 +9703,7 @@
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="B74" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -8478,10 +9721,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -8499,7 +9742,7 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -8517,10 +9760,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -8538,7 +9781,7 @@
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -8556,10 +9799,10 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -8577,7 +9820,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -8595,7 +9838,7 @@
     </row>
     <row r="81" spans="2:7" ht="45">
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -8613,7 +9856,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -8631,7 +9874,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>52</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Comm" sheetId="8" r:id="rId8"/>
     <sheet name="Order" sheetId="9" r:id="rId9"/>
     <sheet name="General" sheetId="10" r:id="rId10"/>
+    <sheet name="RiskPrognosis" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="445">
   <si>
     <t>Name</t>
   </si>
@@ -670,9 +671,6 @@
     <t>Back to OASIS</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,"3 / 3")]</t>
-  </si>
-  <si>
     <t>Verify saved</t>
   </si>
   <si>
@@ -940,9 +938,6 @@
     <t>comment homebound</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,"6 / 6")]</t>
-  </si>
-  <si>
     <t>//textarea[@ng-model="vm.charts.m0150.detail"]</t>
   </si>
   <si>
@@ -1100,6 +1095,270 @@
   </si>
   <si>
     <t>//form[@name="aideCarePlan"]//md-pagination-wrapper/md-tab-item[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatmentPlanPT"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.treatmentPlanPT.assistiveDevice.detail"]</t>
+  </si>
+  <si>
+    <t>specify assistive device training</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.treatmentPlanPT.painControl.detail"]</t>
+  </si>
+  <si>
+    <t>specify modalities for pain control</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.treatmentPlanPT.cpm.detail"]</t>
+  </si>
+  <si>
+    <t>specify cpm</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.treatmentPlanPT.other"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input </t>
+  </si>
+  <si>
+    <t>other specify</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.treatmentPlanPT.comments"]</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-change="vm.goalTemplate(vm.charts.goals)"]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"General")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"Planofcare")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"3 / 3") and contains(@aria-label,"Administrative")]</t>
+  </si>
+  <si>
+    <t>M1033</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[8]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[9]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1033"]//md-checkbox[10]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Risk")]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1033.comments"]</t>
+  </si>
+  <si>
+    <t>comment test</t>
+  </si>
+  <si>
+    <t>//form[@name="m1034"]//md-radio-button[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1034"]//textarea</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1036"]//textarea</t>
+  </si>
+  <si>
+    <t>m1036</t>
+  </si>
+  <si>
+    <t>m1034</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[4]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[5]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="immunizations"]//md-radio-group)[6]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="immunizations"]//textarea</t>
+  </si>
+  <si>
+    <t>immunizations</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="healthScreening"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="prog"]//md-radio-button)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="functionalLimitation"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"Risk")]</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1911,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1750,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:E107"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15"/>
@@ -1798,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1819,10 +2078,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1833,10 +2092,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1867,10 +2126,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -1878,7 +2137,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -1886,7 +2145,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -1894,7 +2153,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -1902,7 +2161,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -1910,7 +2169,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -1938,10 +2197,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -1949,7 +2208,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -1957,7 +2216,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -1965,7 +2224,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -1973,7 +2232,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -1981,7 +2240,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -1989,7 +2248,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
@@ -1997,7 +2256,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -2005,7 +2264,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -2013,7 +2272,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -2021,7 +2280,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -2029,7 +2288,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -2040,13 +2299,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2071,10 +2330,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2091,7 +2350,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2108,7 +2367,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2125,7 +2384,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2142,7 +2401,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2159,7 +2418,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2176,7 +2435,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2193,7 +2452,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2210,7 +2469,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2227,7 +2486,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2244,7 +2503,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2261,7 +2520,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2278,7 +2537,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2295,7 +2554,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2312,7 +2571,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2329,7 +2588,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2346,7 +2605,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2383,10 +2642,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2403,7 +2662,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2420,7 +2679,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2437,7 +2696,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2454,7 +2713,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2471,7 +2730,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2488,10 +2747,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2508,7 +2767,7 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>155</v>
@@ -2528,10 +2787,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2548,7 +2807,7 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>155</v>
@@ -2568,10 +2827,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2588,7 +2847,7 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>155</v>
@@ -2608,7 +2867,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2625,7 +2884,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2642,7 +2901,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2659,7 +2918,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2676,7 +2935,7 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -2693,7 +2952,7 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -2710,7 +2969,7 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -2727,13 +2986,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2747,10 +3006,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -2767,10 +3026,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -2787,7 +3046,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -2804,7 +3063,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2821,7 +3080,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2838,7 +3097,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -2855,7 +3114,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2872,10 +3131,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -2892,7 +3151,7 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>155</v>
@@ -2912,10 +3171,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -2932,7 +3191,7 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>155</v>
@@ -2952,10 +3211,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -2972,7 +3231,7 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>155</v>
@@ -2992,7 +3251,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3009,7 +3268,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3026,7 +3285,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3043,7 +3302,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3060,10 +3319,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3080,10 +3339,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3100,7 +3359,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3117,7 +3376,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3134,7 +3393,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3151,7 +3410,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3168,7 +3427,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3185,10 +3444,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3205,7 +3464,7 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>155</v>
@@ -3225,10 +3484,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3245,7 +3504,7 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>155</v>
@@ -3265,10 +3524,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3285,7 +3544,7 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>155</v>
@@ -3305,7 +3564,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3322,7 +3581,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3339,7 +3598,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3356,7 +3615,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3393,7 +3652,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>77</v>
@@ -3404,7 +3663,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>77</v>
@@ -3415,7 +3674,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>77</v>
@@ -3426,7 +3685,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>77</v>
@@ -3437,7 +3696,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
@@ -3448,7 +3707,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>77</v>
@@ -3459,7 +3718,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -3470,7 +3729,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>77</v>
@@ -3481,13 +3740,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3541,14 +3800,920 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="B29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="B30" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="B31" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="B32" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="B33" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="B34" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="B50" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="B51" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="B52" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="B53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="B54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="B55" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="B56" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30">
+      <c r="B57" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="B58" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30">
+      <c r="B59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30">
+      <c r="B60" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30">
+      <c r="A64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3659,7 +4824,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -3732,7 +4897,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -3740,7 +4905,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -3874,7 +5039,7 @@
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3924,10 +5089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -4502,12 +5667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="45">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4618,7 +5783,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -4693,7 +5858,7 @@
         <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -4840,7 +6005,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -5182,7 +6347,7 @@
         <v>161</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -5200,10 +6365,10 @@
     </row>
     <row r="66" spans="1:7" ht="26.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -5239,10 +6404,10 @@
     </row>
     <row r="68" spans="1:7" ht="26.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -5278,10 +6443,10 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" customHeight="1">
       <c r="A70" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -5317,10 +6482,10 @@
     </row>
     <row r="72" spans="1:7" ht="26.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -5356,10 +6521,10 @@
     </row>
     <row r="74" spans="1:7" ht="26.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -5395,10 +6560,10 @@
     </row>
     <row r="76" spans="1:7" ht="26.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -5437,7 +6602,7 @@
         <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -5455,10 +6620,10 @@
     </row>
     <row r="79" spans="1:7" ht="26.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -5494,10 +6659,10 @@
     </row>
     <row r="81" spans="1:7" ht="26.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -5533,10 +6698,10 @@
     </row>
     <row r="83" spans="1:7" ht="26.25" customHeight="1">
       <c r="A83" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -5572,10 +6737,10 @@
     </row>
     <row r="85" spans="1:7" ht="26.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -5611,10 +6776,10 @@
     </row>
     <row r="87" spans="1:7" ht="26.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -5632,10 +6797,10 @@
     </row>
     <row r="88" spans="1:7" ht="26.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -5671,10 +6836,10 @@
     </row>
     <row r="90" spans="1:7" ht="26.25" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -5710,10 +6875,10 @@
     </row>
     <row r="92" spans="1:7" ht="26.25" customHeight="1">
       <c r="A92" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -5749,10 +6914,10 @@
     </row>
     <row r="94" spans="1:7" ht="26.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -5770,10 +6935,10 @@
     </row>
     <row r="95" spans="1:7" ht="26.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -5809,10 +6974,10 @@
     </row>
     <row r="97" spans="1:7" ht="26.25" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -5848,10 +7013,10 @@
     </row>
     <row r="99" spans="1:7" ht="26.25" customHeight="1">
       <c r="A99" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -5887,10 +7052,10 @@
     </row>
     <row r="101" spans="1:7" ht="26.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -5926,10 +7091,10 @@
     </row>
     <row r="103" spans="1:7" ht="26.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -5965,10 +7130,10 @@
     </row>
     <row r="105" spans="1:7" ht="26.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -6004,10 +7169,10 @@
     </row>
     <row r="107" spans="1:7" ht="26.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -6043,10 +7208,10 @@
     </row>
     <row r="109" spans="1:7" ht="26.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -6082,10 +7247,10 @@
     </row>
     <row r="111" spans="1:7" ht="26.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -6121,10 +7286,10 @@
     </row>
     <row r="113" spans="1:7" ht="26.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -6160,10 +7325,10 @@
     </row>
     <row r="115" spans="1:7" ht="26.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -6199,10 +7364,10 @@
     </row>
     <row r="117" spans="1:7" ht="26.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -6238,10 +7403,10 @@
     </row>
     <row r="119" spans="1:7" ht="26.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -6277,10 +7442,10 @@
     </row>
     <row r="121" spans="1:7" ht="26.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -6346,6 +7511,531 @@
         <v>52</v>
       </c>
       <c r="D124" s="3"/>
+      <c r="G124" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B125" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B126" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B127" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B128" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B129" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B130" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B131" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B132" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B133" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B134" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B135" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B136" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B137" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B138" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B139" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B140" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B141" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B142" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B143" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B144" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B145" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B146" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B147" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B148" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B149" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="G151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B152" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0</v>
+      </c>
+      <c r="G153" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6498,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15"/>
@@ -6918,7 +8608,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -7072,12 +8762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -7131,7 +8821,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7904,7 +9594,7 @@
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -7958,7 +9648,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -7983,7 +9673,7 @@
       </c>
       <c r="H40" s="5"/>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -8010,7 +9700,7 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -8032,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -9874,7 +11564,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>52</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="445">
   <si>
     <t>Name</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,'Test')]</t>
-  </si>
-  <si>
     <t xml:space="preserve">              </t>
   </si>
   <si>
@@ -1359,6 +1356,9 @@
   </si>
   <si>
     <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"Risk")]</t>
+  </si>
+  <si>
+    <t>firstname</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2057,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2330,10 +2330,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -2986,13 +2986,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3339,10 +3339,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>77</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>77</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>77</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>77</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>77</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>77</v>
@@ -3740,13 +3740,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3780,30 +3780,30 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30">
+      <c r="A111" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="B111" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -3818,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
@@ -4010,10 +4010,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4076,10 +4076,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4194,7 +4194,7 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="B29" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="B30" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="B31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="B33" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="B34" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4351,7 +4351,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="50" spans="1:7" ht="30">
       <c r="B50" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C50" t="s">
         <v>77</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="B51" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="B52" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="B53" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="54" spans="1:7" ht="30">
       <c r="B54" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C54" t="s">
         <v>77</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="B55" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="B56" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="B57" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C57" t="s">
         <v>77</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="B58" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="B59" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="B60" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C60" t="s">
         <v>77</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -5672,7 +5672,7 @@
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -5783,7 +5783,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -5858,7 +5858,7 @@
         <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -6005,7 +6005,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="65" spans="1:7" ht="26.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -6365,10 +6365,10 @@
     </row>
     <row r="66" spans="1:7" ht="26.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -6404,10 +6404,10 @@
     </row>
     <row r="68" spans="1:7" ht="26.25" customHeight="1">
       <c r="A68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -6443,10 +6443,10 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="72" spans="1:7" ht="26.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="74" spans="1:7" ht="26.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -6560,10 +6560,10 @@
     </row>
     <row r="76" spans="1:7" ht="26.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -6599,10 +6599,10 @@
     </row>
     <row r="78" spans="1:7" ht="26.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="79" spans="1:7" ht="26.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -6659,10 +6659,10 @@
     </row>
     <row r="81" spans="1:7" ht="26.25" customHeight="1">
       <c r="A81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -6698,10 +6698,10 @@
     </row>
     <row r="83" spans="1:7" ht="26.25" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="85" spans="1:7" ht="26.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="87" spans="1:7" ht="26.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="88" spans="1:7" ht="26.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="90" spans="1:7" ht="26.25" customHeight="1">
       <c r="A90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="92" spans="1:7" ht="26.25" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="94" spans="1:7" ht="26.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -6935,10 +6935,10 @@
     </row>
     <row r="95" spans="1:7" ht="26.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -6974,10 +6974,10 @@
     </row>
     <row r="97" spans="1:7" ht="26.25" customHeight="1">
       <c r="A97" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -7013,10 +7013,10 @@
     </row>
     <row r="99" spans="1:7" ht="26.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -7052,10 +7052,10 @@
     </row>
     <row r="101" spans="1:7" ht="26.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="103" spans="1:7" ht="26.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="105" spans="1:7" ht="26.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -7169,10 +7169,10 @@
     </row>
     <row r="107" spans="1:7" ht="26.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="109" spans="1:7" ht="26.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="111" spans="1:7" ht="26.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -7286,10 +7286,10 @@
     </row>
     <row r="113" spans="1:7" ht="26.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="115" spans="1:7" ht="26.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -7364,10 +7364,10 @@
     </row>
     <row r="117" spans="1:7" ht="26.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="119" spans="1:7" ht="26.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="121" spans="1:7" ht="26.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="125" spans="1:7" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>77</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="126" spans="1:7" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>77</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="127" spans="1:7" ht="26.25" customHeight="1">
       <c r="B127" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>77</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="128" spans="1:7" ht="26.25" customHeight="1">
       <c r="B128" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>77</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="129" spans="2:7" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>77</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="130" spans="2:7" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>77</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="131" spans="2:7" ht="26.25" customHeight="1">
       <c r="B131" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>77</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="132" spans="2:7" ht="26.25" customHeight="1">
       <c r="B132" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>77</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="133" spans="2:7" ht="26.25" customHeight="1">
       <c r="B133" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>77</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="134" spans="2:7" ht="26.25" customHeight="1">
       <c r="B134" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>77</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="135" spans="2:7" ht="26.25" customHeight="1">
       <c r="B135" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>77</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="136" spans="2:7" ht="26.25" customHeight="1">
       <c r="B136" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>77</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="137" spans="2:7" ht="26.25" customHeight="1">
       <c r="B137" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>77</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="138" spans="2:7" ht="26.25" customHeight="1">
       <c r="B138" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>77</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="139" spans="2:7" ht="26.25" customHeight="1">
       <c r="B139" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>77</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="140" spans="2:7" ht="26.25" customHeight="1">
       <c r="B140" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>77</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="141" spans="2:7" ht="26.25" customHeight="1">
       <c r="B141" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>77</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="142" spans="2:7" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>77</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="143" spans="2:7" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>77</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="144" spans="2:7" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>77</v>
@@ -7857,57 +7857,57 @@
     </row>
     <row r="145" spans="1:7" ht="26.25" customHeight="1">
       <c r="B145" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="26.25" customHeight="1">
       <c r="B146" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="26.25" customHeight="1">
       <c r="B147" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="26.25" customHeight="1">
       <c r="B148" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="26.25" customHeight="1">
       <c r="B149" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="26.25" customHeight="1">
@@ -7948,7 +7948,7 @@
     </row>
     <row r="152" spans="1:7" ht="26.25" customHeight="1">
       <c r="B152" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="153" spans="1:7" ht="26.25" customHeight="1">
       <c r="B153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="155" spans="1:7" ht="26.25" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
@@ -8024,10 +8024,10 @@
     </row>
     <row r="156" spans="1:7" ht="26.25" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>52</v>
@@ -8375,7 +8375,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8386,7 +8386,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
@@ -8442,7 +8442,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -8493,40 +8493,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -8577,13 +8577,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8608,7 +8608,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -8676,13 +8676,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8707,7 +8707,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -8744,10 +8744,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -8783,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40:J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -8821,7 +8821,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8873,7 +8873,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>52</v>
@@ -8888,7 +8888,9 @@
       <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -8944,7 +8946,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -9003,7 +9005,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>52</v>
@@ -9018,7 +9020,9 @@
       <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
@@ -9074,7 +9078,7 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -9133,7 +9137,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>52</v>
@@ -9148,7 +9152,9 @@
       <c r="G16" s="5">
         <v>3</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -9204,7 +9210,7 @@
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -9263,7 +9269,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>52</v>
@@ -9278,7 +9284,9 @@
       <c r="G22" s="5">
         <v>3</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
@@ -9334,7 +9342,7 @@
         <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -9393,7 +9401,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>52</v>
@@ -9408,7 +9416,9 @@
       <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
@@ -9464,7 +9474,7 @@
         <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -9523,7 +9533,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>52</v>
@@ -9538,7 +9548,9 @@
       <c r="G34" s="5">
         <v>3</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
@@ -9594,7 +9606,7 @@
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -9606,7 +9618,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -9648,7 +9660,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -9656,7 +9668,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>52</v>
@@ -9671,9 +9683,11 @@
       <c r="G40" s="5">
         <v>3</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -9700,7 +9714,7 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -9722,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -9845,10 +9859,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -9882,13 +9896,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -9902,13 +9916,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -9916,7 +9930,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -9933,7 +9947,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -9950,7 +9964,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -9967,7 +9981,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -9984,7 +9998,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>52</v>
@@ -10111,7 +10125,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -10129,7 +10143,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -10147,18 +10161,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -10176,7 +10190,7 @@
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -10194,13 +10208,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -10211,7 +10225,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -10229,7 +10243,7 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -10247,7 +10261,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -10265,7 +10279,7 @@
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -10283,7 +10297,7 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -10301,7 +10315,7 @@
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -10319,7 +10333,7 @@
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -10337,7 +10351,7 @@
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -10355,7 +10369,7 @@
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -10373,7 +10387,7 @@
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -10391,7 +10405,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -10409,10 +10423,10 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -10430,7 +10444,7 @@
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -10448,7 +10462,7 @@
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -10466,7 +10480,7 @@
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -10484,7 +10498,7 @@
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -10502,7 +10516,7 @@
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -10520,7 +10534,7 @@
     </row>
     <row r="28" spans="1:7" ht="45">
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -10538,7 +10552,7 @@
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="B29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -10556,7 +10570,7 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -10574,7 +10588,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -10592,7 +10606,7 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -10610,10 +10624,10 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -10631,7 +10645,7 @@
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="B34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -10649,7 +10663,7 @@
     </row>
     <row r="35" spans="1:7" ht="45">
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -10667,7 +10681,7 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -10685,7 +10699,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -10703,7 +10717,7 @@
     </row>
     <row r="38" spans="1:7" ht="60">
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -10721,7 +10735,7 @@
     </row>
     <row r="39" spans="1:7" ht="45">
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -10739,7 +10753,7 @@
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -10757,7 +10771,7 @@
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="B41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -10775,10 +10789,10 @@
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -10796,7 +10810,7 @@
     </row>
     <row r="43" spans="1:7" ht="60">
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -10814,7 +10828,7 @@
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -10832,7 +10846,7 @@
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -10850,7 +10864,7 @@
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -10868,7 +10882,7 @@
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -10886,7 +10900,7 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -10904,10 +10918,10 @@
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -10925,7 +10939,7 @@
     </row>
     <row r="50" spans="1:7" ht="60">
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -10943,10 +10957,10 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -10964,7 +10978,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -10982,10 +10996,10 @@
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -11003,7 +11017,7 @@
     </row>
     <row r="54" spans="1:7" ht="60">
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -11021,10 +11035,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -11042,7 +11056,7 @@
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="B56" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -11060,10 +11074,10 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -11081,7 +11095,7 @@
     </row>
     <row r="58" spans="1:7" ht="60">
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -11099,10 +11113,10 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -11120,7 +11134,7 @@
     </row>
     <row r="60" spans="1:7" ht="60">
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
@@ -11138,10 +11152,10 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -11159,7 +11173,7 @@
     </row>
     <row r="62" spans="1:7" ht="60">
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -11177,10 +11191,10 @@
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -11198,7 +11212,7 @@
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="B64" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -11216,10 +11230,10 @@
     </row>
     <row r="65" spans="1:7" ht="45">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -11237,7 +11251,7 @@
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -11255,10 +11269,10 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -11276,7 +11290,7 @@
     </row>
     <row r="68" spans="1:7" ht="60">
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -11294,10 +11308,10 @@
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -11315,7 +11329,7 @@
     </row>
     <row r="70" spans="1:7" ht="60">
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -11333,10 +11347,10 @@
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -11354,7 +11368,7 @@
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="B72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -11372,10 +11386,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -11393,7 +11407,7 @@
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -11411,10 +11425,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -11432,7 +11446,7 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="B76" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -11450,10 +11464,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -11471,7 +11485,7 @@
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="B78" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -11489,10 +11503,10 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -11510,7 +11524,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -11528,7 +11542,7 @@
     </row>
     <row r="81" spans="2:7" ht="45">
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -11546,7 +11560,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -11564,7 +11578,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>52</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -8783,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -8864,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -9128,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -9260,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Order" sheetId="9" r:id="rId9"/>
     <sheet name="General" sheetId="10" r:id="rId10"/>
     <sheet name="RiskPrognosis" sheetId="11" r:id="rId11"/>
+    <sheet name="HistoryDiagnoses" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="513">
   <si>
     <t>Name</t>
   </si>
@@ -485,132 +486,15 @@
     <t>//input[@aria-label="Physician Name"]</t>
   </si>
   <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[1]</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
   </si>
   <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[2]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[3]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[4]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[1]//md-select)[5]</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
-  </si>
-  <si>
     <t>Elimination</t>
   </si>
   <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[1]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[2]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[3]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[5]</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[1]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[2]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[3]//md-select)[4]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[5]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[4]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[2]//md-select)[3]</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[1]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[2]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[4]//md-select)[3]</t>
-  </si>
-  <si>
-    <t>Personal Care</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[5]</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[1]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[2]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[3]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[4]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[6]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[7]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[8]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[9]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[10]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[11]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[12]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[13]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[14]</t>
-  </si>
-  <si>
-    <t>(//md-content[@ng-include="'app/curaesoft/operation/note/chart-questions/aideCarePlan.tmpl.html'"]//md-tab-content[5]//md-select)[15]</t>
-  </si>
-  <si>
     <t>//md-select[@ng-model="vm.value"]</t>
   </si>
   <si>
@@ -1007,9 +891,6 @@
     <t>Task 1</t>
   </si>
   <si>
-    <t>//p[contains(text(),"Aide Care Plan")]</t>
-  </si>
-  <si>
     <t>pt</t>
   </si>
   <si>
@@ -1355,10 +1236,334 @@
     <t>(//form[@name="functionalLimitation"]//md-checkbox)[11]</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"Risk")]</t>
-  </si>
-  <si>
     <t>firstname</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Diagnoses")]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1005.details"]</t>
+  </si>
+  <si>
+    <t>details input</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1018"]//textarea</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[23]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[21]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//md-checkbox)[22]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history1"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//textarea)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1028"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1028"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1030"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1030"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1030"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"8 / 8") and contains(@aria-label,"Diagnoses")]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[21]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[22]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[23]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[24]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[25]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history2"]//md-checkbox)[26]</t>
+  </si>
+  <si>
+    <t>//form[@name="m1000"]//textarea[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="history3"]//textarea)[7]</t>
+  </si>
+  <si>
+    <t>//p[contains(text(),"Transfer Order")]</t>
+  </si>
+  <si>
+    <t>//form[@name="history1"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"7 / 7") and contains(@aria-label,"Risk")]</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +2116,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2057,7 +2262,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2078,10 +2283,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2092,10 +2297,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2126,10 +2331,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -2137,7 +2342,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
@@ -2145,7 +2350,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -2153,7 +2358,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -2161,7 +2366,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -2169,7 +2374,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -2197,10 +2402,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -2208,7 +2413,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -2216,7 +2421,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -2224,7 +2429,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -2232,7 +2437,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -2240,7 +2445,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -2248,7 +2453,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
@@ -2256,7 +2461,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -2264,7 +2469,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -2272,7 +2477,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -2280,7 +2485,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -2288,7 +2493,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -2299,13 +2504,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2330,10 +2535,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2350,7 +2555,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2367,7 +2572,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2384,7 +2589,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2401,7 +2606,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2418,7 +2623,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2435,7 +2640,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2452,7 +2657,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2469,7 +2674,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2486,7 +2691,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2503,7 +2708,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2520,7 +2725,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -2537,7 +2742,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2554,7 +2759,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2571,7 +2776,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2588,7 +2793,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2605,7 +2810,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -2642,10 +2847,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2662,7 +2867,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2679,7 +2884,7 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="B47" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2696,7 +2901,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2713,7 +2918,7 @@
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="B49" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -2730,7 +2935,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2747,10 +2952,10 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -2767,10 +2972,10 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -2787,10 +2992,10 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2807,10 +3012,10 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2827,10 +3032,10 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2847,10 +3052,10 @@
     </row>
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2867,7 +3072,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="B57" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2884,7 +3089,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="B58" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2901,7 +3106,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2918,7 +3123,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2935,7 +3140,7 @@
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="B61" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -2952,7 +3157,7 @@
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="B62" s="1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -2969,7 +3174,7 @@
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="B63" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -2986,13 +3191,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="B64" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3006,10 +3211,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -3026,10 +3231,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -3046,7 +3251,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -3063,7 +3268,7 @@
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="B68" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -3080,7 +3285,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -3097,7 +3302,7 @@
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3114,7 +3319,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -3131,10 +3336,10 @@
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3151,10 +3356,10 @@
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3171,10 +3376,10 @@
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3191,10 +3396,10 @@
     </row>
     <row r="75" spans="1:7" ht="45">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3211,10 +3416,10 @@
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -3231,10 +3436,10 @@
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3251,7 +3456,7 @@
     </row>
     <row r="78" spans="1:7" ht="45">
       <c r="B78" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3268,7 +3473,7 @@
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="B79" s="1" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3285,7 +3490,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3302,7 +3507,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3319,10 +3524,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3339,10 +3544,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3359,7 +3564,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3376,7 +3581,7 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="B85" s="1" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3393,7 +3598,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -3410,7 +3615,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3427,7 +3632,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3444,10 +3649,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3464,10 +3669,10 @@
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3484,10 +3689,10 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3504,10 +3709,10 @@
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3524,10 +3729,10 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3544,10 +3749,10 @@
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3564,7 +3769,7 @@
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="B95" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3581,7 +3786,7 @@
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="B96" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -3598,7 +3803,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -3615,7 +3820,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -3652,7 +3857,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>77</v>
@@ -3663,7 +3868,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>77</v>
@@ -3674,7 +3879,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>77</v>
@@ -3685,7 +3890,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>77</v>
@@ -3696,7 +3901,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
@@ -3707,7 +3912,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>77</v>
@@ -3718,7 +3923,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -3729,7 +3934,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>77</v>
@@ -3740,13 +3945,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="B108" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3780,10 +3985,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -3800,10 +4005,10 @@
     </row>
     <row r="111" spans="1:7" ht="30">
       <c r="A111" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -3818,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
@@ -3861,7 +4066,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -3878,10 +4083,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -3889,7 +4094,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -3897,7 +4102,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -3905,7 +4110,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -3913,7 +4118,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -3921,7 +4126,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -3929,7 +4134,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -3937,7 +4142,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -3945,7 +4150,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -3953,7 +4158,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -3961,13 +4166,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
@@ -4010,10 +4215,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4027,13 +4232,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4076,10 +4281,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -4090,7 +4295,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -4101,7 +4306,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -4112,7 +4317,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -4123,7 +4328,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -4134,7 +4339,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -4145,13 +4350,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4194,7 +4399,7 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="B29" s="1" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4212,7 +4417,7 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="B30" s="1" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4230,7 +4435,7 @@
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="B31" s="1" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4248,7 +4453,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4266,7 +4471,7 @@
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="B33" s="1" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4284,7 +4489,7 @@
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="B34" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4302,13 +4507,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4351,7 +4556,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -4362,7 +4567,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -4373,7 +4578,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -4384,7 +4589,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -4395,7 +4600,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -4406,7 +4611,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -4417,7 +4622,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -4466,7 +4671,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="1" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4522,7 +4727,7 @@
     </row>
     <row r="50" spans="1:7" ht="30">
       <c r="B50" s="1" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="C50" t="s">
         <v>77</v>
@@ -4533,7 +4738,7 @@
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="B51" s="1" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -4544,7 +4749,7 @@
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="B52" s="1" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -4555,7 +4760,7 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="B53" s="1" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -4566,7 +4771,7 @@
     </row>
     <row r="54" spans="1:7" ht="30">
       <c r="B54" s="1" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="C54" t="s">
         <v>77</v>
@@ -4577,7 +4782,7 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="B55" s="1" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -4588,7 +4793,7 @@
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="B56" s="1" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -4599,7 +4804,7 @@
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="B57" s="1" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C57" t="s">
         <v>77</v>
@@ -4610,7 +4815,7 @@
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="B58" s="1" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -4621,7 +4826,7 @@
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="B59" s="1" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -4632,7 +4837,7 @@
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="B60" s="1" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="C60" t="s">
         <v>77</v>
@@ -4675,16 +4880,13 @@
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -4696,16 +4898,16 @@
       <c r="F63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="1">
-        <v>1</v>
+      <c r="G63" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
@@ -4714,6 +4916,1564 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B26" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B28" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B34" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B35" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B37" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B38" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B40" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B41" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B42" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B43" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B47" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B48" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B49" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B50" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B51" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B52" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B55" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B56" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B58" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B59" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B60" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B61" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B63" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B64" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B66" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B67" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B68" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B70" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B72" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B74" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B77" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B78" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B79" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="28.5" customHeight="1">
+      <c r="B80" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B81" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B82" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B83" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>413</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B87" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B88" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B89" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B90" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B92" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B93" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B94" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B95" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B96" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B97" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B98" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B99" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B100" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B101" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B102" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B103" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B104" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B106" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B107" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B108" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B109" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B110" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>413</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B113" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B114" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B117" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B118" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.5" customHeight="1">
+      <c r="B123" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,7 +6584,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4897,7 +6657,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -4905,7 +6665,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -5039,7 +6799,7 @@
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -5091,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:G124"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -5672,7 +7432,7 @@
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -5783,7 +7543,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -5858,7 +7618,7 @@
         <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -6005,7 +7765,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -6344,10 +8104,10 @@
     </row>
     <row r="65" spans="1:7" ht="26.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -6365,10 +8125,10 @@
     </row>
     <row r="66" spans="1:7" ht="26.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -6404,10 +8164,10 @@
     </row>
     <row r="68" spans="1:7" ht="26.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -6443,10 +8203,10 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -6482,10 +8242,10 @@
     </row>
     <row r="72" spans="1:7" ht="26.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -6521,10 +8281,10 @@
     </row>
     <row r="74" spans="1:7" ht="26.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -6560,10 +8320,10 @@
     </row>
     <row r="76" spans="1:7" ht="26.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -6599,10 +8359,10 @@
     </row>
     <row r="78" spans="1:7" ht="26.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -6620,10 +8380,10 @@
     </row>
     <row r="79" spans="1:7" ht="26.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -6659,10 +8419,10 @@
     </row>
     <row r="81" spans="1:7" ht="26.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -6698,10 +8458,10 @@
     </row>
     <row r="83" spans="1:7" ht="26.25" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -6737,10 +8497,10 @@
     </row>
     <row r="85" spans="1:7" ht="26.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -6776,10 +8536,10 @@
     </row>
     <row r="87" spans="1:7" ht="26.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -6797,10 +8557,10 @@
     </row>
     <row r="88" spans="1:7" ht="26.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -6836,10 +8596,10 @@
     </row>
     <row r="90" spans="1:7" ht="26.25" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -6875,10 +8635,10 @@
     </row>
     <row r="92" spans="1:7" ht="26.25" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -6914,10 +8674,10 @@
     </row>
     <row r="94" spans="1:7" ht="26.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -6935,10 +8695,10 @@
     </row>
     <row r="95" spans="1:7" ht="26.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -6974,10 +8734,10 @@
     </row>
     <row r="97" spans="1:7" ht="26.25" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -7013,10 +8773,10 @@
     </row>
     <row r="99" spans="1:7" ht="26.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -7052,10 +8812,10 @@
     </row>
     <row r="101" spans="1:7" ht="26.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -7091,10 +8851,10 @@
     </row>
     <row r="103" spans="1:7" ht="26.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -7130,10 +8890,10 @@
     </row>
     <row r="105" spans="1:7" ht="26.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -7169,10 +8929,10 @@
     </row>
     <row r="107" spans="1:7" ht="26.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -7208,10 +8968,10 @@
     </row>
     <row r="109" spans="1:7" ht="26.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -7247,10 +9007,10 @@
     </row>
     <row r="111" spans="1:7" ht="26.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -7286,10 +9046,10 @@
     </row>
     <row r="113" spans="1:7" ht="26.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -7325,10 +9085,10 @@
     </row>
     <row r="115" spans="1:7" ht="26.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -7364,10 +9124,10 @@
     </row>
     <row r="117" spans="1:7" ht="26.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -7403,10 +9163,10 @@
     </row>
     <row r="119" spans="1:7" ht="26.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -7442,10 +9202,10 @@
     </row>
     <row r="121" spans="1:7" ht="26.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -7517,7 +9277,7 @@
     </row>
     <row r="125" spans="1:7" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>77</v>
@@ -7534,7 +9294,7 @@
     </row>
     <row r="126" spans="1:7" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>77</v>
@@ -7551,7 +9311,7 @@
     </row>
     <row r="127" spans="1:7" ht="26.25" customHeight="1">
       <c r="B127" s="2" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>77</v>
@@ -7568,7 +9328,7 @@
     </row>
     <row r="128" spans="1:7" ht="26.25" customHeight="1">
       <c r="B128" s="2" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>77</v>
@@ -7585,7 +9345,7 @@
     </row>
     <row r="129" spans="2:7" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>77</v>
@@ -7602,7 +9362,7 @@
     </row>
     <row r="130" spans="2:7" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>77</v>
@@ -7619,7 +9379,7 @@
     </row>
     <row r="131" spans="2:7" ht="26.25" customHeight="1">
       <c r="B131" s="2" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>77</v>
@@ -7636,7 +9396,7 @@
     </row>
     <row r="132" spans="2:7" ht="26.25" customHeight="1">
       <c r="B132" s="2" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>77</v>
@@ -7653,7 +9413,7 @@
     </row>
     <row r="133" spans="2:7" ht="26.25" customHeight="1">
       <c r="B133" s="2" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>77</v>
@@ -7670,7 +9430,7 @@
     </row>
     <row r="134" spans="2:7" ht="26.25" customHeight="1">
       <c r="B134" s="2" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>77</v>
@@ -7687,7 +9447,7 @@
     </row>
     <row r="135" spans="2:7" ht="26.25" customHeight="1">
       <c r="B135" s="2" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>77</v>
@@ -7704,7 +9464,7 @@
     </row>
     <row r="136" spans="2:7" ht="26.25" customHeight="1">
       <c r="B136" s="2" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>77</v>
@@ -7721,7 +9481,7 @@
     </row>
     <row r="137" spans="2:7" ht="26.25" customHeight="1">
       <c r="B137" s="2" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>77</v>
@@ -7738,7 +9498,7 @@
     </row>
     <row r="138" spans="2:7" ht="26.25" customHeight="1">
       <c r="B138" s="2" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>77</v>
@@ -7755,7 +9515,7 @@
     </row>
     <row r="139" spans="2:7" ht="26.25" customHeight="1">
       <c r="B139" s="2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>77</v>
@@ -7772,7 +9532,7 @@
     </row>
     <row r="140" spans="2:7" ht="26.25" customHeight="1">
       <c r="B140" s="2" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>77</v>
@@ -7789,7 +9549,7 @@
     </row>
     <row r="141" spans="2:7" ht="26.25" customHeight="1">
       <c r="B141" s="2" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>77</v>
@@ -7806,7 +9566,7 @@
     </row>
     <row r="142" spans="2:7" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>77</v>
@@ -7823,7 +9583,7 @@
     </row>
     <row r="143" spans="2:7" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>77</v>
@@ -7840,7 +9600,7 @@
     </row>
     <row r="144" spans="2:7" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>77</v>
@@ -7857,57 +9617,57 @@
     </row>
     <row r="145" spans="1:7" ht="26.25" customHeight="1">
       <c r="B145" s="2" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="26.25" customHeight="1">
       <c r="B146" s="2" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="26.25" customHeight="1">
       <c r="B147" s="2" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="26.25" customHeight="1">
       <c r="B148" s="2" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="26.25" customHeight="1">
       <c r="B149" s="2" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="26.25" customHeight="1">
@@ -7948,7 +9708,7 @@
     </row>
     <row r="152" spans="1:7" ht="26.25" customHeight="1">
       <c r="B152" s="2" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -7965,7 +9725,7 @@
     </row>
     <row r="153" spans="1:7" ht="26.25" customHeight="1">
       <c r="B153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -8003,10 +9763,10 @@
     </row>
     <row r="155" spans="1:7" ht="26.25" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
@@ -8024,10 +9784,10 @@
     </row>
     <row r="156" spans="1:7" ht="26.25" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>52</v>
@@ -8375,7 +10135,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8386,7 +10146,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
@@ -8442,7 +10202,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -8493,40 +10253,40 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -8577,13 +10337,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8608,7 +10368,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
@@ -8625,7 +10385,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -8676,13 +10436,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8707,7 +10467,7 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -8744,10 +10504,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -8764,10 +10524,10 @@
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -8783,8 +10543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -8821,7 +10581,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8889,7 +10649,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9021,7 +10781,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9153,7 +10913,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9285,7 +11045,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9417,7 +11177,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9549,7 +11309,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -9606,7 +11366,7 @@
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -9660,7 +11420,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -9684,10 +11444,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -9714,7 +11474,7 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -9736,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -10012,10 +11772,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -10221,9 +11981,6 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>141</v>
       </c>
@@ -10241,9 +11998,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="B12" s="1" t="s">
-        <v>153</v>
+    <row r="12" spans="1:10">
+      <c r="B12" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -10261,7 +12018,7 @@
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -10277,9 +12034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -10292,1295 +12049,14 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60">
-      <c r="B16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
-      <c r="B17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60">
-      <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45">
-      <c r="B19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60">
-      <c r="B20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45">
-      <c r="B21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45">
-      <c r="A22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="B23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="B24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60">
-      <c r="B25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="B26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60">
-      <c r="B27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45">
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60">
-      <c r="B29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45">
-      <c r="B30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60">
-      <c r="B31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45">
-      <c r="B32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45">
-      <c r="A33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60">
-      <c r="B34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45">
-      <c r="B35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60">
-      <c r="B36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45">
-      <c r="B37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60">
-      <c r="B38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45">
-      <c r="B39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="60">
-      <c r="B40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45">
-      <c r="B41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45">
-      <c r="A42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60">
-      <c r="B43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
-      <c r="B44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="60">
-      <c r="B45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45">
-      <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60">
-      <c r="B47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="B48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45">
-      <c r="A49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60">
-      <c r="B50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45">
-      <c r="A51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60">
-      <c r="B52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45">
-      <c r="A53" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="60">
-      <c r="B54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60">
-      <c r="B56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45">
-      <c r="A57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60">
-      <c r="B58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="45">
-      <c r="A59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="60">
-      <c r="B60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45">
-      <c r="A61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="60">
-      <c r="B62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45">
-      <c r="A63" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="60">
-      <c r="B64" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45">
-      <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="60">
-      <c r="B66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="45">
-      <c r="A67" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60">
-      <c r="B68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45">
-      <c r="A69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60">
-      <c r="B70" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45">
-      <c r="A71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="60">
-      <c r="B72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="45">
-      <c r="A73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="60">
-      <c r="B74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="45">
-      <c r="A75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="60">
-      <c r="B76" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="45">
-      <c r="A77" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="60">
-      <c r="B78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="45">
-      <c r="A79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="B80" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="45">
-      <c r="B81" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="554">
   <si>
     <t>Name</t>
   </si>
@@ -897,9 +897,6 @@
     <t>error notice</t>
   </si>
   <si>
-    <t>Unable to view patient on clinician to do visit</t>
-  </si>
-  <si>
     <t>(//md-select[@ng-model="vm.charts.frequency.servicePlans[clinician].reason"])[1]</t>
   </si>
   <si>
@@ -1074,9 +1071,6 @@
     <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"General")]</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,"6 / 6") and contains(@aria-label,"Planofcare")]</t>
-  </si>
-  <si>
     <t>//button[contains(@aria-label,"3 / 3") and contains(@aria-label,"Administrative")]</t>
   </si>
   <si>
@@ -1564,6 +1558,135 @@
   </si>
   <si>
     <t>//button[contains(@aria-label,"7 / 7") and contains(@aria-label,"Risk")]</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Unable to access clinician portal</t>
+  </si>
+  <si>
+    <t>unable to access to-do visit</t>
+  </si>
+  <si>
+    <t>Unable to find patient</t>
+  </si>
+  <si>
+    <t>Unable to click new notes button</t>
+  </si>
+  <si>
+    <t>Unable to find notes</t>
+  </si>
+  <si>
+    <t>Unable to sign in clinician</t>
+  </si>
+  <si>
+    <t>Unable to add tast</t>
+  </si>
+  <si>
+    <t>Unable to close notes</t>
+  </si>
+  <si>
+    <t>Unable to click My Plan Button</t>
+  </si>
+  <si>
+    <t>Unable to find input field for my plan</t>
+  </si>
+  <si>
+    <t>Unable to click add on my plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail to create my plan </t>
+  </si>
+  <si>
+    <t>Unable to locate close button my plan</t>
+  </si>
+  <si>
+    <t>Unable to click office note button</t>
+  </si>
+  <si>
+    <t>Notes not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Unable to access Plan of care notes</t>
+  </si>
+  <si>
+    <t>Unable to complete plan of care notes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to verify plan of care </t>
+  </si>
+  <si>
+    <t>unable to access todo visit</t>
+  </si>
+  <si>
+    <t>Unable to view patient</t>
+  </si>
+  <si>
+    <t>Unable to access notes</t>
+  </si>
+  <si>
+    <t>Unable to access Administrative</t>
+  </si>
+  <si>
+    <t>Unable to complete Administrative notes</t>
+  </si>
+  <si>
+    <t>Administrative notes was not saved.</t>
+  </si>
+  <si>
+    <t>Unable to access todo visit</t>
+  </si>
+  <si>
+    <t>Patient does not exist on clinician account</t>
+  </si>
+  <si>
+    <t>Unable to logout</t>
+  </si>
+  <si>
+    <t>Unable to login</t>
+  </si>
+  <si>
+    <t>Clinician Comm tab unaccessable</t>
+  </si>
+  <si>
+    <t>Fail to add Comm data</t>
+  </si>
+  <si>
+    <t>Comm not created</t>
+  </si>
+  <si>
+    <t>Unable to add order data</t>
+  </si>
+  <si>
+    <t>Fail to verify if order is created</t>
+  </si>
+  <si>
+    <t>Unable to access General Notes</t>
+  </si>
+  <si>
+    <t>Unable to add General Notes information</t>
+  </si>
+  <si>
+    <t>Unable to access Risk &amp; Prognosis</t>
+  </si>
+  <si>
+    <t>Unable to complete Risk &amp; Prognosis Data</t>
+  </si>
+  <si>
+    <t>Fail to verify if Risk &amp; Prognosis has save the data.</t>
+  </si>
+  <si>
+    <t>Unable to access History &amp; Diagnoses</t>
+  </si>
+  <si>
+    <t>Unable to complete History &amp; Diagnoses data</t>
+  </si>
+  <si>
+    <t>Fail to verify History &amp; Diagnoses data</t>
   </si>
 </sst>
 </file>
@@ -1934,14 +2057,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="5"/>
     <col min="2" max="2" width="76.5703125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="22.28515625" style="5"/>
+    <col min="3" max="3" width="22.28515625" style="5"/>
+    <col min="4" max="10" width="11.85546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="22.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1973,7 +2098,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1996,6 +2121,9 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
@@ -2017,6 +2145,9 @@
       <c r="G3" s="5">
         <v>2</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
@@ -2041,6 +2172,9 @@
       <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -2065,6 +2199,9 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
@@ -2089,6 +2226,9 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
@@ -2113,6 +2253,9 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -2137,6 +2280,9 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
@@ -2158,6 +2304,9 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
@@ -2179,6 +2328,9 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
+      <c r="J10" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
@@ -2202,6 +2354,9 @@
       </c>
       <c r="I11" s="5">
         <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -2214,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:G111"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15"/>
@@ -2257,7 +2412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2279,9 +2434,11 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
         <v>181</v>
       </c>
@@ -2294,8 +2451,11 @@
       <c r="D3" s="1">
         <v>12312213</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -2308,8 +2468,11 @@
       <c r="D4" s="1">
         <v>12312123</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -2328,8 +2491,11 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
@@ -2339,48 +2505,66 @@
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2399,8 +2583,11 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -2410,88 +2597,121 @@
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="B17" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="B18" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="B19" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="B20" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30">
       <c r="B21" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
       <c r="B22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="B23" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="B24" s="1" t="s">
         <v>199</v>
       </c>
@@ -2501,8 +2721,11 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30">
       <c r="B25" s="1" t="s">
         <v>264</v>
       </c>
@@ -2512,8 +2735,11 @@
       <c r="D25" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2532,8 +2758,11 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="1" t="s">
         <v>202</v>
       </c>
@@ -2552,8 +2781,11 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="B28" s="1" t="s">
         <v>267</v>
       </c>
@@ -2569,8 +2801,11 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
         <v>268</v>
       </c>
@@ -2586,8 +2821,11 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
         <v>269</v>
       </c>
@@ -2603,8 +2841,11 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
         <v>270</v>
       </c>
@@ -2620,8 +2861,11 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
         <v>271</v>
       </c>
@@ -2637,8 +2881,11 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
         <v>272</v>
       </c>
@@ -2654,8 +2901,11 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30">
       <c r="B34" s="1" t="s">
         <v>273</v>
       </c>
@@ -2671,8 +2921,11 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30">
       <c r="B35" s="1" t="s">
         <v>274</v>
       </c>
@@ -2688,8 +2941,11 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30">
       <c r="B36" s="1" t="s">
         <v>275</v>
       </c>
@@ -2705,8 +2961,11 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30">
       <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
@@ -2722,8 +2981,11 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30">
       <c r="B38" s="1" t="s">
         <v>277</v>
       </c>
@@ -2739,8 +3001,11 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="J38" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30">
       <c r="B39" s="1" t="s">
         <v>278</v>
       </c>
@@ -2756,8 +3021,11 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="J39" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30">
       <c r="B40" s="1" t="s">
         <v>279</v>
       </c>
@@ -2773,8 +3041,11 @@
       <c r="G40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="J40" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30">
       <c r="B41" s="1" t="s">
         <v>280</v>
       </c>
@@ -2790,8 +3061,11 @@
       <c r="G41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30">
       <c r="B42" s="1" t="s">
         <v>281</v>
       </c>
@@ -2807,8 +3081,11 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30">
       <c r="B43" s="1" t="s">
         <v>282</v>
       </c>
@@ -2824,8 +3101,11 @@
       <c r="G43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="J43" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -2844,8 +3124,11 @@
       <c r="G44" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30">
       <c r="A45" s="1" t="s">
         <v>203</v>
       </c>
@@ -2864,8 +3147,11 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30">
       <c r="B46" s="1" t="s">
         <v>204</v>
       </c>
@@ -2881,8 +3167,11 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
+      <c r="J46" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30">
       <c r="B47" s="1" t="s">
         <v>206</v>
       </c>
@@ -2898,8 +3187,11 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30">
       <c r="B48" s="1" t="s">
         <v>208</v>
       </c>
@@ -2915,8 +3207,11 @@
       <c r="G48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="30">
+      <c r="J48" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30">
       <c r="B49" s="1" t="s">
         <v>207</v>
       </c>
@@ -2932,8 +3227,11 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="J49" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30">
       <c r="B50" s="1" t="s">
         <v>209</v>
       </c>
@@ -2949,8 +3247,11 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
+      <c r="J50" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -2969,8 +3270,11 @@
       <c r="G51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="45">
+      <c r="J51" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45">
       <c r="A52" s="1" t="s">
         <v>212</v>
       </c>
@@ -2989,8 +3293,11 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
+      <c r="J52" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
       <c r="A53" s="1" t="s">
         <v>213</v>
       </c>
@@ -3009,8 +3316,11 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="45">
+      <c r="J53" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45">
       <c r="A54" s="1" t="s">
         <v>212</v>
       </c>
@@ -3029,8 +3339,11 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
+      <c r="J54" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30">
       <c r="A55" s="1" t="s">
         <v>213</v>
       </c>
@@ -3049,8 +3362,11 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="45">
+      <c r="J55" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45">
       <c r="A56" s="1" t="s">
         <v>212</v>
       </c>
@@ -3069,8 +3385,11 @@
       <c r="G56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="45">
+      <c r="J56" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45">
       <c r="B57" s="1" t="s">
         <v>215</v>
       </c>
@@ -3086,8 +3405,11 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="45">
+      <c r="J57" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45">
       <c r="B58" s="1" t="s">
         <v>216</v>
       </c>
@@ -3103,8 +3425,11 @@
       <c r="G58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="J58" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30">
       <c r="B59" s="1" t="s">
         <v>219</v>
       </c>
@@ -3120,8 +3445,11 @@
       <c r="G59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="J59" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
       <c r="B60" s="1" t="s">
         <v>220</v>
       </c>
@@ -3137,8 +3465,11 @@
       <c r="G60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="30">
+      <c r="J60" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30">
       <c r="B61" s="1" t="s">
         <v>221</v>
       </c>
@@ -3154,8 +3485,11 @@
       <c r="G61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="30">
+      <c r="J61" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30">
       <c r="B62" s="1" t="s">
         <v>222</v>
       </c>
@@ -3171,8 +3505,11 @@
       <c r="G62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30">
+      <c r="J62" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30">
       <c r="B63" s="1" t="s">
         <v>223</v>
       </c>
@@ -3188,8 +3525,11 @@
       <c r="G63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30">
+      <c r="J63" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30">
       <c r="B64" s="1" t="s">
         <v>224</v>
       </c>
@@ -3208,8 +3548,11 @@
       <c r="G64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="J64" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30">
       <c r="A65" s="1" t="s">
         <v>218</v>
       </c>
@@ -3228,8 +3571,11 @@
       <c r="G65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="J65" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -3248,8 +3594,11 @@
       <c r="G66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="J66" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -3265,8 +3614,11 @@
       <c r="G67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="30">
+      <c r="J67" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30">
       <c r="B68" s="1" t="s">
         <v>228</v>
       </c>
@@ -3282,8 +3634,11 @@
       <c r="G68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="J68" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30">
       <c r="B69" s="1" t="s">
         <v>229</v>
       </c>
@@ -3299,8 +3654,11 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="30">
+      <c r="J69" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30">
       <c r="B70" s="1" t="s">
         <v>230</v>
       </c>
@@ -3316,8 +3674,11 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="J70" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30">
       <c r="B71" s="1" t="s">
         <v>231</v>
       </c>
@@ -3333,8 +3694,11 @@
       <c r="G71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="30">
+      <c r="J71" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30">
       <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
@@ -3353,8 +3717,11 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="45">
+      <c r="J72" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -3373,8 +3740,11 @@
       <c r="G73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="30">
+      <c r="J73" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30">
       <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
@@ -3393,8 +3763,11 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="45">
+      <c r="J74" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45">
       <c r="A75" s="1" t="s">
         <v>212</v>
       </c>
@@ -3413,8 +3786,11 @@
       <c r="G75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30">
+      <c r="J75" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30">
       <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
@@ -3433,8 +3809,11 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="45">
+      <c r="J76" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45">
       <c r="A77" s="1" t="s">
         <v>212</v>
       </c>
@@ -3453,8 +3832,11 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="45">
+      <c r="J77" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45">
       <c r="B78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3470,8 +3852,11 @@
       <c r="G78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="45">
+      <c r="J78" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45">
       <c r="B79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3487,8 +3872,11 @@
       <c r="G79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="J79" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30">
       <c r="B80" s="1" t="s">
         <v>237</v>
       </c>
@@ -3504,8 +3892,11 @@
       <c r="G80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="J80" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30">
       <c r="B81" s="1" t="s">
         <v>238</v>
       </c>
@@ -3521,8 +3912,11 @@
       <c r="G81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="J81" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30">
       <c r="A82" s="1" t="s">
         <v>240</v>
       </c>
@@ -3541,8 +3935,11 @@
       <c r="G82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="J82" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30">
       <c r="A83" s="1" t="s">
         <v>203</v>
       </c>
@@ -3561,8 +3958,11 @@
       <c r="G83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="J83" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30">
       <c r="B84" s="1" t="s">
         <v>242</v>
       </c>
@@ -3578,8 +3978,11 @@
       <c r="G84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="30">
+      <c r="J84" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30">
       <c r="B85" s="1" t="s">
         <v>243</v>
       </c>
@@ -3595,8 +3998,11 @@
       <c r="G85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="J85" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30">
       <c r="B86" s="1" t="s">
         <v>244</v>
       </c>
@@ -3612,8 +4018,11 @@
       <c r="G86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="30">
+      <c r="J86" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30">
       <c r="B87" s="1" t="s">
         <v>245</v>
       </c>
@@ -3629,8 +4038,11 @@
       <c r="G87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="J87" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30">
       <c r="B88" s="1" t="s">
         <v>246</v>
       </c>
@@ -3646,8 +4058,11 @@
       <c r="G88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="30">
+      <c r="J88" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
@@ -3666,8 +4081,11 @@
       <c r="G89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="45">
+      <c r="J89" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="45">
       <c r="A90" s="1" t="s">
         <v>212</v>
       </c>
@@ -3686,8 +4104,11 @@
       <c r="G90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="30">
+      <c r="J90" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -3706,8 +4127,11 @@
       <c r="G91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="45">
+      <c r="J91" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="45">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -3726,8 +4150,11 @@
       <c r="G92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="30">
+      <c r="J92" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30">
       <c r="A93" s="1" t="s">
         <v>213</v>
       </c>
@@ -3746,8 +4173,11 @@
       <c r="G93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="45">
+      <c r="J93" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45">
       <c r="A94" s="1" t="s">
         <v>212</v>
       </c>
@@ -3766,8 +4196,11 @@
       <c r="G94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="45">
+      <c r="J94" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45">
       <c r="B95" s="1" t="s">
         <v>250</v>
       </c>
@@ -3783,8 +4216,11 @@
       <c r="G95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="45">
+      <c r="J95" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45">
       <c r="B96" s="1" t="s">
         <v>251</v>
       </c>
@@ -3800,8 +4236,11 @@
       <c r="G96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="J96" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="30">
       <c r="B97" s="1" t="s">
         <v>252</v>
       </c>
@@ -3817,8 +4256,11 @@
       <c r="G97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="J97" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30">
       <c r="B98" s="1" t="s">
         <v>253</v>
       </c>
@@ -3834,8 +4276,11 @@
       <c r="G98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="J98" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30">
       <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
@@ -3854,8 +4299,11 @@
       <c r="G99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="J99" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="30">
       <c r="B100" s="1" t="s">
         <v>254</v>
       </c>
@@ -3865,8 +4313,11 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="J100" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="30">
       <c r="B101" s="1" t="s">
         <v>255</v>
       </c>
@@ -3876,8 +4327,11 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="J101" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="30">
       <c r="B102" s="1" t="s">
         <v>256</v>
       </c>
@@ -3887,8 +4341,11 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="J102" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="30">
       <c r="B103" s="1" t="s">
         <v>257</v>
       </c>
@@ -3898,8 +4355,11 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="J103" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="30">
       <c r="B104" s="1" t="s">
         <v>258</v>
       </c>
@@ -3909,8 +4369,11 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="J104" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30">
       <c r="B105" s="1" t="s">
         <v>259</v>
       </c>
@@ -3920,8 +4383,11 @@
       <c r="E105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="J105" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="30">
       <c r="B106" s="1" t="s">
         <v>260</v>
       </c>
@@ -3931,8 +4397,11 @@
       <c r="E106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="J106" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30">
       <c r="B107" s="1" t="s">
         <v>261</v>
       </c>
@@ -3942,8 +4411,11 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="30">
+      <c r="J107" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="30">
       <c r="B108" s="1" t="s">
         <v>262</v>
       </c>
@@ -3962,8 +4434,11 @@
       <c r="G108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="J108" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="30">
       <c r="A109" s="1" t="s">
         <v>48</v>
       </c>
@@ -3982,8 +4457,11 @@
       <c r="G109" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="J109" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="30">
       <c r="A110" s="1" t="s">
         <v>174</v>
       </c>
@@ -4002,13 +4480,16 @@
       <c r="G110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="30">
+      <c r="J110" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="30">
       <c r="A111" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -4023,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
@@ -4066,7 +4547,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -4080,99 +4561,135 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="J2" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="J13" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
@@ -4194,6 +4711,9 @@
       </c>
       <c r="G14" s="2">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4212,13 +4732,16 @@
       <c r="G15" s="2">
         <v>3</v>
       </c>
+      <c r="J15" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4229,19 +4752,25 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>362</v>
+      </c>
+      <c r="J17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -4261,8 +4790,11 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -4278,88 +4810,112 @@
       <c r="G19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="1" t="s">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="1" t="s">
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="1" t="s">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="1" t="s">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>372</v>
+      </c>
+      <c r="J26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -4379,8 +4935,11 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -4396,10 +4955,13 @@
       <c r="G28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+      <c r="J28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4414,10 +4976,13 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+      <c r="J29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4432,10 +4997,13 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30">
+      <c r="J30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -4450,10 +5018,13 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
+      <c r="J31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -4468,10 +5039,13 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+      <c r="J32" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -4486,10 +5060,13 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30">
+      <c r="J33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30">
       <c r="B34" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -4504,19 +5081,25 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>381</v>
+      </c>
+      <c r="J35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -4536,8 +5119,11 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -4553,85 +5139,109 @@
       <c r="G37" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1" t="s">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1" t="s">
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="1" t="s">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C44" t="s">
         <v>77</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -4651,8 +5261,11 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -4668,10 +5281,13 @@
       <c r="G46" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -4686,8 +5302,11 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -4707,8 +5326,11 @@
       <c r="G48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="J48" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -4724,129 +5346,165 @@
       <c r="G49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="30">
+      <c r="J49" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30">
       <c r="B50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30">
+      <c r="B51" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30">
+      <c r="B52" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
+      <c r="B53" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="B51" s="1" t="s">
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30">
+      <c r="B54" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="B52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="B53" s="1" t="s">
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30">
+      <c r="B55" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="B54" s="1" t="s">
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="B56" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="B55" s="1" t="s">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="B57" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="B56" s="1" t="s">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30">
+      <c r="B58" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="B57" s="1" t="s">
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30">
+      <c r="B59" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="B58" s="1" t="s">
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
+      <c r="B60" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30">
-      <c r="B59" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="B60" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C60" t="s">
         <v>77</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="J60" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -4866,8 +5524,11 @@
       <c r="G61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="J61" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
@@ -4880,8 +5541,11 @@
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="J62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
@@ -4901,13 +5565,16 @@
       <c r="G63" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30">
+      <c r="J63" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30">
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
@@ -4916,6 +5583,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
+      <c r="J64" t="s">
+        <v>550</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4926,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122:J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="28.5" customHeight="1"/>
@@ -4973,7 +5643,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -4987,93 +5657,120 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="J2" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G10">
         <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
@@ -5095,6 +5792,9 @@
       </c>
       <c r="G11" s="2">
         <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
@@ -5113,19 +5813,25 @@
       <c r="G12" s="2">
         <v>3</v>
       </c>
+      <c r="J12" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G13">
         <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1">
@@ -5147,6 +5853,9 @@
       </c>
       <c r="G14" s="2">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1">
@@ -5165,99 +5874,126 @@
       <c r="G15" s="2">
         <v>3</v>
       </c>
+      <c r="J15" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B18" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B19" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B18" s="1" t="s">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B19" s="1" t="s">
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B21" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B22" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B21" s="1" t="s">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B23" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B22" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B23" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -5277,8 +6013,11 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -5294,308 +6033,392 @@
       <c r="G25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.5" customHeight="1">
       <c r="B26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B28" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B27" s="1" t="s">
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B29" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B30" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B30" s="1" t="s">
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B32" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B31" s="1" t="s">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B33" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B34" s="1" t="s">
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B36" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B35" s="1" t="s">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B37" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B36" s="1" t="s">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B38" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B37" s="1" t="s">
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B39" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B38" s="1" t="s">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B40" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B40" s="1" t="s">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B42" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B41" s="1" t="s">
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B43" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B42" s="1" t="s">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B44" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B43" s="1" t="s">
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B45" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B44" s="1" t="s">
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B46" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B45" s="1" t="s">
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B47" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B46" s="1" t="s">
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B48" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B49" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B50" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B47" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B48" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B49" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B50" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.5" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.5" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -5615,8 +6438,11 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J53" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.5" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -5632,341 +6458,434 @@
       <c r="G54" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J54" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.5" customHeight="1">
       <c r="B55" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B56" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B57" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B56" s="1" t="s">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B58" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B57" s="1" t="s">
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B59" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B58" s="1" t="s">
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B60" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B59" s="1" t="s">
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B61" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B60" s="1" t="s">
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B62" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B61" s="1" t="s">
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B63" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B62" s="1" t="s">
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B64" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B63" s="1" t="s">
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B65" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B64" s="1" t="s">
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B65" s="1" t="s">
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B67" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B66" s="1" t="s">
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B68" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B67" s="1" t="s">
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B69" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B68" s="1" t="s">
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B69" s="1" t="s">
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B71" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B70" s="1" t="s">
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B72" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B71" s="1" t="s">
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C71" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B72" s="1" t="s">
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B74" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C72" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B73" s="1" t="s">
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B75" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C73" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B74" s="1" t="s">
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B76" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B75" s="1" t="s">
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B77" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B76" s="1" t="s">
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B78" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B77" s="1" t="s">
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B79" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B78" s="1" t="s">
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B80" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B79" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B80" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="C80" t="s">
         <v>77</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J80" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="28.5" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J81" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28.5" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="28.5" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J83" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28.5" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C84" t="s">
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28.5" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>48</v>
       </c>
@@ -5986,8 +6905,11 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J85" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="28.5" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>50</v>
       </c>
@@ -6003,230 +6925,293 @@
       <c r="G86" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J86" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="28.5" customHeight="1">
       <c r="B87" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B88" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B89" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C87" t="s">
-        <v>77</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B88" s="1" t="s">
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B90" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C88" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B89" s="1" t="s">
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B91" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B90" s="1" t="s">
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B92" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C90" t="s">
-        <v>77</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B91" s="1" t="s">
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B93" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C91" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B92" s="1" t="s">
+      <c r="C93" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B94" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B93" s="1" t="s">
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B95" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C93" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B94" s="1" t="s">
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B96" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B95" s="1" t="s">
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B97" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B96" s="1" t="s">
+      <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B98" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C96" t="s">
-        <v>77</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B97" s="1" t="s">
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B99" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C97" t="s">
-        <v>77</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B98" s="1" t="s">
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B100" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B99" s="1" t="s">
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B101" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C99" t="s">
-        <v>77</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B100" s="1" t="s">
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B102" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C100" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B101" s="1" t="s">
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B103" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C101" t="s">
-        <v>77</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B102" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C102" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B103" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="C103" t="s">
         <v>77</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J103" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="28.5" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J104" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="28.5" customHeight="1">
       <c r="B105" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J105" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28.5" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="28.5" customHeight="1">
+        <v>467</v>
+      </c>
+      <c r="J106" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="28.5" customHeight="1">
       <c r="B107" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C107" t="s">
         <v>33</v>
@@ -6234,10 +7219,13 @@
       <c r="D107">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J107" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="28.5" customHeight="1">
       <c r="B108" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C108" t="s">
         <v>33</v>
@@ -6245,33 +7233,42 @@
       <c r="D108">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J108" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28.5" customHeight="1">
       <c r="B109" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.5" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="J109" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="28.5" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J110" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="28.5" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
@@ -6291,8 +7288,11 @@
       <c r="G111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J111" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28.5" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -6308,10 +7308,13 @@
       <c r="G112" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J112" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="28.5" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C113" t="s">
         <v>77</v>
@@ -6319,10 +7322,13 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="28.5" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
         <v>77</v>
@@ -6333,8 +7339,11 @@
       <c r="G114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J114" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="28.5" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>48</v>
       </c>
@@ -6354,8 +7363,11 @@
       <c r="G115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J115" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="28.5" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>50</v>
       </c>
@@ -6371,32 +7383,41 @@
       <c r="G116" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J116" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28.5" customHeight="1">
       <c r="B117" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B119" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C117" t="s">
-        <v>77</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B118" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C118" t="s">
-        <v>77</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B119" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="C119" t="s">
         <v>77</v>
@@ -6407,8 +7428,11 @@
       <c r="G119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J119" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="28.5" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>48</v>
       </c>
@@ -6428,8 +7452,11 @@
       <c r="G120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J120" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="28.5" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>50</v>
       </c>
@@ -6445,8 +7472,11 @@
       <c r="G121" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J121" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="28.5" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>174</v>
       </c>
@@ -6466,13 +7496,19 @@
       <c r="G122" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="28.5" customHeight="1">
+      <c r="J122" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="28.5" customHeight="1">
       <c r="B123" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="J123" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6485,12 +7521,14 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6541,6 +7579,9 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
@@ -6558,6 +7599,9 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -6581,6 +7625,9 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
@@ -6598,6 +7645,9 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
@@ -6609,6 +7659,9 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
@@ -6626,6 +7679,9 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
@@ -6637,6 +7693,9 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
@@ -6654,6 +7713,9 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
@@ -6662,6 +7724,9 @@
       <c r="C10" t="s">
         <v>52</v>
       </c>
+      <c r="J10" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
@@ -6670,6 +7735,9 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
@@ -6686,6 +7754,9 @@
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -6698,13 +7769,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="28.7109375" style="1"/>
+    <col min="1" max="8" width="28.7109375" style="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="28.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6755,6 +7828,9 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="B3" s="1" t="s">
@@ -6772,6 +7848,9 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
@@ -6796,6 +7875,9 @@
       <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
@@ -6813,6 +7895,9 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
@@ -6824,6 +7909,9 @@
       <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
@@ -6840,6 +7928,9 @@
       </c>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6851,8 +7942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -6914,6 +8005,9 @@
       <c r="G2" s="2">
         <v>3</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -6928,6 +8022,9 @@
       <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -6949,6 +8046,9 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -6970,6 +8070,9 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -6982,6 +8085,9 @@
         <v>52</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="J6" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -7003,6 +8109,9 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -7024,6 +8133,9 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -7045,6 +8157,9 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -7066,6 +8181,9 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -7087,6 +8205,9 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -7108,6 +8229,9 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -7129,6 +8253,9 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -7150,6 +8277,9 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -7171,6 +8301,9 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -7186,8 +8319,11 @@
       <c r="G16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
+      <c r="J16" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -7200,8 +8336,11 @@
       <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="45">
+      <c r="J17" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -7221,8 +8360,11 @@
       <c r="G18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15">
+      <c r="J18" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -7242,8 +8384,11 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15">
+      <c r="J19" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -7263,8 +8408,11 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+      <c r="J20" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -7284,8 +8432,11 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15">
+      <c r="J21" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -7305,8 +8456,11 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15">
+      <c r="J22" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -7326,8 +8480,11 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
+      <c r="J23" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -7346,8 +8503,11 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+      <c r="J24" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -7366,8 +8526,11 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+      <c r="J25" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -7386,8 +8549,11 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
+      <c r="J26" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -7406,8 +8572,11 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30">
+      <c r="J27" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -7426,13 +8595,16 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="45">
+      <c r="J28" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -7447,8 +8619,11 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="45">
+      <c r="J29" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
       <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
@@ -7465,8 +8640,11 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="45">
+      <c r="J30" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45">
       <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
@@ -7483,8 +8661,11 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="45">
+      <c r="J31" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45">
       <c r="B32" s="2" t="s">
         <v>89</v>
       </c>
@@ -7501,8 +8682,11 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="45">
+      <c r="J32" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45">
       <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
@@ -7519,8 +8703,11 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
+      <c r="J33" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30">
       <c r="B34" s="2" t="s">
         <v>91</v>
       </c>
@@ -7537,13 +8724,16 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="45">
+      <c r="J34" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -7558,8 +8748,11 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="45">
+      <c r="J35" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45">
       <c r="B36" s="2" t="s">
         <v>87</v>
       </c>
@@ -7576,8 +8769,11 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="45">
+      <c r="J36" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45">
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
@@ -7594,8 +8790,11 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15">
+      <c r="J37" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30">
       <c r="B38" s="2" t="s">
         <v>91</v>
       </c>
@@ -7612,13 +8811,16 @@
       <c r="G38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="45">
+      <c r="J38" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -7633,8 +8835,11 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="45">
+      <c r="J39" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45">
       <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
@@ -7651,8 +8856,11 @@
       <c r="G40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="45">
+      <c r="J40" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45">
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
@@ -7669,8 +8877,11 @@
       <c r="G41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="45">
+      <c r="J41" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45">
       <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
@@ -7687,8 +8898,11 @@
       <c r="G42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="45">
+      <c r="J42" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45">
       <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
@@ -7705,8 +8919,11 @@
       <c r="G43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+      <c r="J43" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45">
       <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
@@ -7723,8 +8940,11 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="45">
+      <c r="J44" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45">
       <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
@@ -7741,8 +8961,11 @@
       <c r="G45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
+      <c r="J45" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30">
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -7759,13 +8982,16 @@
       <c r="G46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="45">
+      <c r="J46" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -7780,8 +9006,11 @@
       <c r="G47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
+      <c r="J47" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45">
       <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
@@ -7798,8 +9027,11 @@
       <c r="G48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="45">
+      <c r="J48" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45">
       <c r="B49" s="2" t="s">
         <v>88</v>
       </c>
@@ -7816,8 +9048,11 @@
       <c r="G49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="45">
+      <c r="J49" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45">
       <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
@@ -7834,8 +9069,11 @@
       <c r="G50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="45">
+      <c r="J50" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45">
       <c r="B51" s="2" t="s">
         <v>90</v>
       </c>
@@ -7852,8 +9090,11 @@
       <c r="G51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
+      <c r="J51" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30">
       <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
@@ -7870,8 +9111,11 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
+      <c r="J52" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -7891,8 +9135,11 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15">
+      <c r="J53" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -7906,8 +9153,11 @@
       <c r="G54" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="45">
+      <c r="J54" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -7927,8 +9177,11 @@
       <c r="G55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="45">
+      <c r="J55" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45">
       <c r="B56" s="2" t="s">
         <v>87</v>
       </c>
@@ -7945,8 +9198,11 @@
       <c r="G56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
+      <c r="J56" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
@@ -7966,8 +9222,11 @@
       <c r="G57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="45">
+      <c r="J57" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45">
       <c r="B58" s="2" t="s">
         <v>87</v>
       </c>
@@ -7984,8 +9243,11 @@
       <c r="G58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="45">
+      <c r="J58" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45">
       <c r="A59" s="2" t="s">
         <v>101</v>
       </c>
@@ -8005,8 +9267,11 @@
       <c r="G59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="45">
+      <c r="J59" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45">
       <c r="B60" s="2" t="s">
         <v>87</v>
       </c>
@@ -8023,8 +9288,11 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="45">
+      <c r="J60" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45">
       <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
@@ -8044,8 +9312,11 @@
       <c r="G61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="45">
+      <c r="J61" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45">
       <c r="B62" s="2" t="s">
         <v>87</v>
       </c>
@@ -8062,8 +9333,11 @@
       <c r="G62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30">
+      <c r="J62" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
@@ -8083,8 +9357,11 @@
       <c r="G63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="45">
+      <c r="J63" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45">
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -8101,13 +9378,16 @@
       <c r="G64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J64" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="26.25" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -8122,13 +9402,16 @@
       <c r="G65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J65" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="26.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -8143,8 +9426,11 @@
       <c r="G66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J66" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="26.25" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
@@ -8161,13 +9447,16 @@
       <c r="G67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J67" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="26.25" customHeight="1">
       <c r="A68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -8182,8 +9471,11 @@
       <c r="G68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J68" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="26.25" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
@@ -8200,13 +9492,16 @@
       <c r="G69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J69" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="26.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -8221,8 +9516,11 @@
       <c r="G70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J70" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="26.25" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>87</v>
       </c>
@@ -8239,13 +9537,16 @@
       <c r="G71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J71" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="26.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -8260,8 +9561,11 @@
       <c r="G72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J72" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="26.25" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -8278,13 +9582,16 @@
       <c r="G73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J73" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="26.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -8299,8 +9606,11 @@
       <c r="G74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J74" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="26.25" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>87</v>
       </c>
@@ -8317,13 +9627,16 @@
       <c r="G75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J75" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="26.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -8338,8 +9651,11 @@
       <c r="G76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J76" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="26.25" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>87</v>
       </c>
@@ -8356,13 +9672,16 @@
       <c r="G77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J77" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="26.25" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -8377,13 +9696,16 @@
       <c r="G78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J78" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="26.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -8398,8 +9720,11 @@
       <c r="G79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J79" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="26.25" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>87</v>
       </c>
@@ -8416,13 +9741,16 @@
       <c r="G80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J80" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="26.25" customHeight="1">
       <c r="A81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -8437,8 +9765,11 @@
       <c r="G81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J81" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="26.25" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>87</v>
       </c>
@@ -8455,13 +9786,16 @@
       <c r="G82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J82" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="26.25" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -8476,8 +9810,11 @@
       <c r="G83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J83" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="26.25" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>87</v>
       </c>
@@ -8494,13 +9831,16 @@
       <c r="G84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J84" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="26.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -8515,8 +9855,11 @@
       <c r="G85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J85" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="26.25" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
@@ -8533,13 +9876,16 @@
       <c r="G86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J86" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="26.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -8554,13 +9900,16 @@
       <c r="G87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J87" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -8575,8 +9924,11 @@
       <c r="G88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J88" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="26.25" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>87</v>
       </c>
@@ -8593,13 +9945,16 @@
       <c r="G89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J89" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="26.25" customHeight="1">
       <c r="A90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -8614,8 +9969,11 @@
       <c r="G90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J90" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="26.25" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
@@ -8632,13 +9990,16 @@
       <c r="G91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J91" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="26.25" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -8653,8 +10014,11 @@
       <c r="G92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J92" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="26.25" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>87</v>
       </c>
@@ -8671,13 +10035,16 @@
       <c r="G93" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J93" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="26.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -8692,13 +10059,16 @@
       <c r="G94" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J94" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="26.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -8713,8 +10083,11 @@
       <c r="G95" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J95" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="26.25" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>87</v>
       </c>
@@ -8731,13 +10104,16 @@
       <c r="G96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J96" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="26.25" customHeight="1">
       <c r="A97" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -8752,8 +10128,11 @@
       <c r="G97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J97" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="26.25" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
@@ -8770,13 +10149,16 @@
       <c r="G98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J98" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="26.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -8791,8 +10173,11 @@
       <c r="G99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J99" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="26.25" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>87</v>
       </c>
@@ -8809,13 +10194,16 @@
       <c r="G100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J100" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="26.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -8830,8 +10218,11 @@
       <c r="G101" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J101" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="26.25" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>87</v>
       </c>
@@ -8848,13 +10239,16 @@
       <c r="G102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J102" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="26.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -8869,8 +10263,11 @@
       <c r="G103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J103" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="26.25" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>87</v>
       </c>
@@ -8887,13 +10284,16 @@
       <c r="G104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J104" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="26.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -8908,8 +10308,11 @@
       <c r="G105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J105" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="26.25" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>87</v>
       </c>
@@ -8926,13 +10329,16 @@
       <c r="G106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J106" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="26.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -8947,8 +10353,11 @@
       <c r="G107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J107" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="26.25" customHeight="1">
       <c r="B108" s="2" t="s">
         <v>87</v>
       </c>
@@ -8965,13 +10374,16 @@
       <c r="G108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J108" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="26.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -8986,8 +10398,11 @@
       <c r="G109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J109" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="26.25" customHeight="1">
       <c r="B110" s="2" t="s">
         <v>87</v>
       </c>
@@ -9004,13 +10419,16 @@
       <c r="G110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J110" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="26.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -9025,8 +10443,11 @@
       <c r="G111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J111" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="26.25" customHeight="1">
       <c r="B112" s="2" t="s">
         <v>87</v>
       </c>
@@ -9043,13 +10464,16 @@
       <c r="G112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J112" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="26.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -9064,8 +10488,11 @@
       <c r="G113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J113" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="26.25" customHeight="1">
       <c r="B114" s="2" t="s">
         <v>87</v>
       </c>
@@ -9082,13 +10509,16 @@
       <c r="G114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J114" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="26.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -9103,8 +10533,11 @@
       <c r="G115" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J115" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="26.25" customHeight="1">
       <c r="B116" s="2" t="s">
         <v>87</v>
       </c>
@@ -9121,13 +10554,16 @@
       <c r="G116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J116" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="26.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -9142,8 +10578,11 @@
       <c r="G117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J117" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="26.25" customHeight="1">
       <c r="B118" s="2" t="s">
         <v>87</v>
       </c>
@@ -9160,13 +10599,16 @@
       <c r="G118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J118" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="26.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -9181,8 +10623,11 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J119" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="26.25" customHeight="1">
       <c r="B120" s="2" t="s">
         <v>87</v>
       </c>
@@ -9199,13 +10644,16 @@
       <c r="G120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J120" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="26.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -9220,8 +10668,11 @@
       <c r="G121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J121" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="26.25" customHeight="1">
       <c r="B122" s="2" t="s">
         <v>87</v>
       </c>
@@ -9238,8 +10689,11 @@
       <c r="G122" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J122" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="26.25" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>48</v>
       </c>
@@ -9259,8 +10713,11 @@
       <c r="G123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J123" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="26.25" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>50</v>
       </c>
@@ -9274,10 +10731,13 @@
       <c r="G124" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J124" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>77</v>
@@ -9291,10 +10751,13 @@
       <c r="G125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J125" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>77</v>
@@ -9308,10 +10771,13 @@
       <c r="G126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J126" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="26.25" customHeight="1">
       <c r="B127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>77</v>
@@ -9325,10 +10791,13 @@
       <c r="G127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J127" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="26.25" customHeight="1">
       <c r="B128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>77</v>
@@ -9342,10 +10811,13 @@
       <c r="G128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J128" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>77</v>
@@ -9359,10 +10831,13 @@
       <c r="G129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J129" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>77</v>
@@ -9376,10 +10851,13 @@
       <c r="G130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J130" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="26.25" customHeight="1">
       <c r="B131" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>77</v>
@@ -9393,10 +10871,13 @@
       <c r="G131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J131" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" ht="26.25" customHeight="1">
       <c r="B132" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>77</v>
@@ -9410,10 +10891,13 @@
       <c r="G132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J132" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="26.25" customHeight="1">
       <c r="B133" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>77</v>
@@ -9427,10 +10911,13 @@
       <c r="G133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J133" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="26.25" customHeight="1">
       <c r="B134" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>77</v>
@@ -9444,10 +10931,13 @@
       <c r="G134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J134" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="26.25" customHeight="1">
       <c r="B135" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>77</v>
@@ -9461,10 +10951,13 @@
       <c r="G135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J135" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="26.25" customHeight="1">
       <c r="B136" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>77</v>
@@ -9478,10 +10971,13 @@
       <c r="G136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J136" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="26.25" customHeight="1">
       <c r="B137" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>77</v>
@@ -9495,10 +10991,13 @@
       <c r="G137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J137" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="26.25" customHeight="1">
       <c r="B138" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>77</v>
@@ -9512,10 +11011,13 @@
       <c r="G138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J138" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="26.25" customHeight="1">
       <c r="B139" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>77</v>
@@ -9529,10 +11031,13 @@
       <c r="G139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J139" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="26.25" customHeight="1">
       <c r="B140" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>77</v>
@@ -9546,10 +11051,13 @@
       <c r="G140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J140" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="26.25" customHeight="1">
       <c r="B141" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>77</v>
@@ -9563,10 +11071,13 @@
       <c r="G141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J141" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>77</v>
@@ -9580,10 +11091,13 @@
       <c r="G142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J142" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>77</v>
@@ -9597,10 +11111,13 @@
       <c r="G143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" ht="26.25" customHeight="1">
+      <c r="J143" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>77</v>
@@ -9614,63 +11131,81 @@
       <c r="G144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J144" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="26.25" customHeight="1">
       <c r="B145" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B146" s="2" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="26.25" customHeight="1">
-      <c r="B146" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B147" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="26.25" customHeight="1">
-      <c r="B147" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B148" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="26.25" customHeight="1">
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="J148" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B149" s="2" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="26.25" customHeight="1">
-      <c r="B149" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="26.25" customHeight="1">
+        <v>345</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="26.25" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>48</v>
       </c>
@@ -9690,8 +11225,11 @@
       <c r="G150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J150" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="26.25" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>50</v>
       </c>
@@ -9705,10 +11243,13 @@
       <c r="G151" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J151" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="26.25" customHeight="1">
       <c r="B152" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -9722,8 +11263,11 @@
       <c r="G152" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J152" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="26.25" customHeight="1">
       <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
@@ -9739,8 +11283,11 @@
       <c r="G153" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J153" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="26.25" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>48</v>
       </c>
@@ -9760,8 +11307,11 @@
       <c r="G154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J154" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="26.25" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>174</v>
       </c>
@@ -9781,13 +11331,16 @@
       <c r="G155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="26.25" customHeight="1">
+      <c r="J155" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="26.25" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>349</v>
+        <v>527</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>52</v>
@@ -9808,7 +11361,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -9866,7 +11419,9 @@
         <v>2</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
@@ -9889,7 +11444,9 @@
         <v>2</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -9914,7 +11471,9 @@
       <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
@@ -9937,7 +11496,9 @@
         <v>1</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9946,10 +11507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15"/>
@@ -9959,7 +11520,7 @@
     <col min="3" max="16384" width="23.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9987,8 +11548,11 @@
       <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -10007,8 +11571,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="45">
+      <c r="J2" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
       <c r="B3" s="1" t="s">
         <v>112</v>
       </c>
@@ -10024,8 +11591,11 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+      <c r="J3" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="B4" s="1" t="s">
         <v>113</v>
       </c>
@@ -10041,8 +11611,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
+      <c r="J4" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
@@ -10058,8 +11631,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
@@ -10075,8 +11651,11 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+      <c r="J6" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
         <v>115</v>
       </c>
@@ -10092,8 +11671,11 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+      <c r="J7" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
@@ -10109,8 +11691,11 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="J8" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
         <v>117</v>
       </c>
@@ -10126,8 +11711,11 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
@@ -10137,8 +11725,11 @@
       <c r="D10" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
@@ -10148,8 +11739,11 @@
       <c r="D11" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="J11" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="1" t="s">
         <v>120</v>
       </c>
@@ -10165,8 +11759,11 @@
       <c r="G12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="1" t="s">
         <v>121</v>
       </c>
@@ -10182,8 +11779,11 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
@@ -10199,8 +11799,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
         <v>159</v>
       </c>
@@ -10216,8 +11819,11 @@
       <c r="G15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
         <v>121</v>
       </c>
@@ -10233,8 +11839,11 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="B17" s="1" t="s">
         <v>123</v>
       </c>
@@ -10250,8 +11859,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30">
+      <c r="J17" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
@@ -10261,8 +11873,11 @@
       <c r="D18" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30">
+      <c r="J18" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="B19" s="1" t="s">
         <v>161</v>
       </c>
@@ -10272,8 +11887,11 @@
       <c r="D19" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30">
+      <c r="J19" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="B20" s="1" t="s">
         <v>162</v>
       </c>
@@ -10283,8 +11901,11 @@
       <c r="D20" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="30">
+      <c r="J20" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30">
       <c r="B21" s="1" t="s">
         <v>166</v>
       </c>
@@ -10300,8 +11921,11 @@
       <c r="G21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
       <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
@@ -10317,8 +11941,11 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="B23" s="1" t="s">
         <v>123</v>
       </c>
@@ -10334,8 +11961,11 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="B24" s="1" t="s">
         <v>167</v>
       </c>
@@ -10345,8 +11975,11 @@
       <c r="D24" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -10365,8 +11998,11 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30">
+      <c r="J25" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="B26" s="1" t="s">
         <v>176</v>
       </c>
@@ -10382,8 +12018,11 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30">
+      <c r="J26" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="B27" s="1" t="s">
         <v>169</v>
       </c>
@@ -10399,8 +12038,11 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="B28" s="1" t="s">
         <v>121</v>
       </c>
@@ -10416,8 +12058,11 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
         <v>123</v>
       </c>
@@ -10433,8 +12078,11 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
         <v>170</v>
       </c>
@@ -10444,8 +12092,11 @@
       <c r="D30" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -10464,8 +12115,11 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
+      <c r="J31" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
         <v>172</v>
       </c>
@@ -10481,8 +12135,11 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -10501,8 +12158,11 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="1" t="s">
         <v>174</v>
       </c>
@@ -10521,16 +12181,22 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
+      <c r="J34" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10543,8 +12209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -10605,6 +12271,9 @@
         <v>2</v>
       </c>
       <c r="H2" s="5"/>
+      <c r="J2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
@@ -10627,6 +12296,9 @@
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
+      <c r="J3" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
@@ -10649,7 +12321,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="J4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10675,6 +12350,9 @@
       <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
@@ -10694,6 +12372,9 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -10715,6 +12396,9 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -10737,6 +12421,9 @@
         <v>2</v>
       </c>
       <c r="H8" s="5"/>
+      <c r="J8" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
@@ -10759,6 +12446,9 @@
         <v>3</v>
       </c>
       <c r="H9" s="5"/>
+      <c r="J9" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
@@ -10781,7 +12471,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="J10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10807,6 +12500,9 @@
       <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J11" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
@@ -10826,6 +12522,9 @@
       <c r="G12" s="10">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
@@ -10847,6 +12546,9 @@
       <c r="G13" s="10">
         <v>1</v>
       </c>
+      <c r="J13" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
@@ -10869,6 +12571,9 @@
         <v>2</v>
       </c>
       <c r="H14" s="5"/>
+      <c r="J14" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -10891,6 +12596,9 @@
         <v>3</v>
       </c>
       <c r="H15" s="5"/>
+      <c r="J15" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
@@ -10913,10 +12621,13 @@
         <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>401</v>
+      </c>
+      <c r="J16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -10939,8 +12650,11 @@
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>128</v>
       </c>
@@ -10958,8 +12672,11 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
         <v>126</v>
       </c>
@@ -10979,8 +12696,11 @@
       <c r="G19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -11001,8 +12721,11 @@
         <v>2</v>
       </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
@@ -11023,8 +12746,11 @@
         <v>3</v>
       </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -11045,10 +12771,13 @@
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>401</v>
+      </c>
+      <c r="J22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -11071,8 +12800,11 @@
       <c r="H23" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="10" t="s">
         <v>128</v>
       </c>
@@ -11090,8 +12822,11 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
         <v>126</v>
       </c>
@@ -11111,8 +12846,11 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -11133,8 +12871,11 @@
         <v>2</v>
       </c>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -11155,8 +12896,11 @@
         <v>3</v>
       </c>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -11177,10 +12921,13 @@
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>401</v>
+      </c>
+      <c r="J28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
@@ -11203,8 +12950,11 @@
       <c r="H29" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="10" t="s">
         <v>128</v>
       </c>
@@ -11222,8 +12972,11 @@
       <c r="G30" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="10" t="s">
         <v>126</v>
       </c>
@@ -11243,8 +12996,11 @@
       <c r="G31" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
@@ -11265,6 +13021,9 @@
         <v>2</v>
       </c>
       <c r="H32" s="5"/>
+      <c r="J32" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
@@ -11287,6 +13046,9 @@
         <v>3</v>
       </c>
       <c r="H33" s="5"/>
+      <c r="J33" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
@@ -11309,7 +13071,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="J34" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -11335,6 +13100,9 @@
       <c r="H35" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J35" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
@@ -11354,6 +13122,9 @@
       <c r="G36" s="10">
         <v>1</v>
       </c>
+      <c r="J36" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="10" t="s">
@@ -11375,6 +13146,9 @@
       <c r="G37" s="10">
         <v>1</v>
       </c>
+      <c r="J37" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
@@ -11397,6 +13171,9 @@
         <v>2</v>
       </c>
       <c r="H38" s="5"/>
+      <c r="J38" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
@@ -11420,7 +13197,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -11444,10 +13221,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -11474,7 +13251,7 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -11496,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -11509,7 +13286,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11571,6 +13348,9 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
+      <c r="J2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -11592,6 +13372,9 @@
       <c r="G3" s="5">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
@@ -11616,6 +13399,9 @@
       <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J4" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
@@ -11636,6 +13422,9 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
@@ -11653,6 +13442,9 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
@@ -11673,6 +13465,9 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
@@ -11687,6 +13482,9 @@
       <c r="G8" s="5">
         <v>3</v>
       </c>
+      <c r="J8" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
@@ -11704,6 +13502,9 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
@@ -11721,6 +13522,9 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
@@ -11738,6 +13542,9 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
+      <c r="J11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
@@ -11755,6 +13562,9 @@
       <c r="G12" s="5">
         <v>3</v>
       </c>
+      <c r="J12" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
@@ -11762,6 +13572,9 @@
       </c>
       <c r="C13" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -11775,7 +13588,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -11837,6 +13650,9 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
+      <c r="J2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -11858,6 +13674,9 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -11882,6 +13701,9 @@
       <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J4" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
@@ -11900,8 +13722,11 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
         <v>147</v>
       </c>
@@ -11918,8 +13743,11 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
         <v>148</v>
       </c>
@@ -11928,6 +13756,9 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -11947,6 +13778,9 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
@@ -11965,8 +13799,11 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
         <v>152</v>
       </c>
@@ -11978,6 +13815,9 @@
       </c>
       <c r="G10" s="1">
         <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -11997,8 +13837,11 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="12" t="s">
         <v>156</v>
       </c>
@@ -12014,6 +13857,9 @@
       </c>
       <c r="G12" s="5">
         <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
@@ -12033,8 +13879,11 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
         <v>144</v>
       </c>
@@ -12051,13 +13900,19 @@
       <c r="G14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="552">
   <si>
     <t>Name</t>
   </si>
@@ -138,15 +138,6 @@
     <t>//button[@ng-click="vm.cancel()"]</t>
   </si>
   <si>
-    <t>//span[@class="ng-binding"]</t>
-  </si>
-  <si>
-    <t>match_text</t>
-  </si>
-  <si>
-    <t>send to clinician</t>
-  </si>
-  <si>
     <t>(//button[@ng-click="vm.cancel()"])[1]</t>
   </si>
   <si>
@@ -1687,6 +1678,9 @@
   </si>
   <si>
     <t>Fail to verify History &amp; Diagnoses data</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"send to clinician")]</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2122,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2146,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2173,7 +2167,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2200,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2227,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2254,12 +2248,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2281,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2305,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2329,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2356,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2408,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2435,15 +2429,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2452,15 +2446,15 @@
         <v>12312213</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2469,15 +2463,15 @@
         <v>12312123</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2492,84 +2486,84 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -2584,167 +2578,167 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
       <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -2759,15 +2753,15 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2782,12 +2776,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="B28" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -2802,12 +2796,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2822,12 +2816,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2842,12 +2836,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2862,12 +2856,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2882,12 +2876,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -2902,12 +2896,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
       <c r="B34" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -2922,12 +2916,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="B35" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -2942,12 +2936,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30">
       <c r="B36" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -2962,12 +2956,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30">
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2982,12 +2976,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -3002,12 +2996,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30">
       <c r="B39" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -3022,12 +3016,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30">
       <c r="B40" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -3042,12 +3036,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
       <c r="B41" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -3062,12 +3056,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30">
       <c r="B42" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -3082,12 +3076,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30">
       <c r="B43" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -3102,15 +3096,15 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -3125,15 +3119,15 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30">
       <c r="A45" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -3148,12 +3142,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30">
       <c r="B46" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -3168,12 +3162,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="B47" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -3188,12 +3182,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
       <c r="B48" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -3208,12 +3202,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30">
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -3228,12 +3222,12 @@
         <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -3248,15 +3242,15 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -3271,15 +3265,15 @@
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="45">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -3294,15 +3288,15 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -3317,15 +3311,15 @@
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="45">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -3340,15 +3334,15 @@
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -3363,15 +3357,15 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -3386,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="45">
       <c r="B57" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -3406,12 +3400,12 @@
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="45">
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -3426,12 +3420,12 @@
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -3446,12 +3440,12 @@
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -3466,15 +3460,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="B61" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -3486,15 +3480,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
       <c r="B62" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3506,15 +3500,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="B63" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3526,18 +3520,18 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30">
       <c r="B64" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3549,15 +3543,15 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30">
       <c r="A65" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -3572,15 +3566,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -3595,12 +3589,12 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30">
       <c r="B67" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -3615,12 +3609,12 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
       <c r="B68" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -3635,12 +3629,12 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="B69" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -3655,12 +3649,12 @@
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30">
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3675,12 +3669,12 @@
         <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30">
       <c r="B71" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -3695,15 +3689,15 @@
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30">
       <c r="A72" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3718,15 +3712,15 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45">
       <c r="A73" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3741,15 +3735,15 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3764,15 +3758,15 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3787,15 +3781,15 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -3810,15 +3804,15 @@
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45">
       <c r="A77" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3833,12 +3827,12 @@
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="45">
       <c r="B78" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -3853,12 +3847,12 @@
         <v>1</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="45">
       <c r="B79" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3873,12 +3867,12 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30">
       <c r="B80" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -3893,12 +3887,12 @@
         <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30">
       <c r="B81" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -3913,15 +3907,15 @@
         <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
@@ -3936,15 +3930,15 @@
         <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3959,12 +3953,12 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30">
       <c r="B84" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3979,12 +3973,12 @@
         <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30">
       <c r="B85" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3999,12 +3993,12 @@
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30">
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
@@ -4019,12 +4013,12 @@
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30">
       <c r="B87" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -4039,12 +4033,12 @@
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30">
       <c r="B88" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -4059,15 +4053,15 @@
         <v>1</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30">
       <c r="A89" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -4082,15 +4076,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="45">
       <c r="A90" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -4105,15 +4099,15 @@
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -4128,15 +4122,15 @@
         <v>1</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="45">
       <c r="A92" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -4151,15 +4145,15 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="A93" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -4174,15 +4168,15 @@
         <v>1</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="45">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -4197,12 +4191,12 @@
         <v>1</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="45">
       <c r="B95" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -4217,12 +4211,12 @@
         <v>1</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45">
       <c r="B96" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -4237,12 +4231,12 @@
         <v>1</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30">
       <c r="B97" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4257,12 +4251,12 @@
         <v>1</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30">
       <c r="B98" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -4277,15 +4271,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="30">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -4300,130 +4294,130 @@
         <v>1</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="30">
       <c r="B100" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="30">
       <c r="B101" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="30">
       <c r="B102" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30">
       <c r="B103" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="30">
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="30">
       <c r="B105" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="30">
       <c r="B106" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="30">
       <c r="B107" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="30">
       <c r="B108" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -4435,15 +4429,15 @@
         <v>1</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="30">
       <c r="A109" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>12</v>
@@ -4458,15 +4452,15 @@
         <v>2</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="30">
       <c r="A110" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
@@ -4481,18 +4475,18 @@
         <v>1</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="30">
       <c r="A111" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4547,7 +4541,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -4562,142 +4556,142 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -4713,18 +4707,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -4733,15 +4727,15 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4753,29 +4747,29 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -4791,18 +4785,18 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -4811,116 +4805,116 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -4936,18 +4930,18 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
@@ -4956,12 +4950,12 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4977,12 +4971,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -4998,12 +4992,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -5019,12 +5013,12 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -5040,12 +5034,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -5061,12 +5055,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
       <c r="B34" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -5082,29 +5076,29 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J35" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -5120,18 +5114,18 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
@@ -5140,113 +5134,113 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -5262,18 +5256,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
@@ -5282,12 +5276,12 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -5303,15 +5297,15 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -5327,18 +5321,18 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
@@ -5347,169 +5341,169 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
       <c r="B50" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="B51" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="B52" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="B53" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="B54" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="B55" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
       <c r="B56" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="B58" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="B59" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="B60" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -5525,32 +5519,32 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="J62" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -5566,25 +5560,25 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30">
       <c r="A64" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="J64" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5596,7 +5590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="J122" sqref="J122:J123"/>
     </sheetView>
   </sheetViews>
@@ -5643,7 +5637,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -5658,127 +5652,127 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -5794,18 +5788,18 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -5814,32 +5808,32 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -5855,18 +5849,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -5875,130 +5869,130 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.5" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.5" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -6014,18 +6008,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -6034,396 +6028,396 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.5" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.5" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.5" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.5" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.5" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.5" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.5" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="28.5" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="28.5" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="28.5" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="28.5" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="28.5" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="28.5" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="28.5" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="28.5" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="28.5" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="28.5" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="28.5" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="28.5" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="28.5" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="28.5" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="28.5" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="28.5" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.5" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.5" customHeight="1">
       <c r="B50" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J50" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.5" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.5" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -6439,18 +6433,18 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.5" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
@@ -6459,438 +6453,438 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="28.5" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="28.5" customHeight="1">
       <c r="B56" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="28.5" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.5" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="28.5" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="28.5" customHeight="1">
       <c r="B60" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="28.5" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="28.5" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.5" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="28.5" customHeight="1">
       <c r="B65" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="28.5" customHeight="1">
       <c r="B66" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="28.5" customHeight="1">
       <c r="B67" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="28.5" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="28.5" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="28.5" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="28.5" customHeight="1">
       <c r="B71" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="28.5" customHeight="1">
       <c r="B72" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="28.5" customHeight="1">
       <c r="B73" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="28.5" customHeight="1">
       <c r="B74" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="28.5" customHeight="1">
       <c r="B75" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="28.5" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="28.5" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="28.5" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="28.5" customHeight="1">
       <c r="B79" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="28.5" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="28.5" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J81" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="28.5" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J82" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="28.5" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J83" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="28.5" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C84" t="s">
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="28.5" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -6906,18 +6900,18 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.5" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
@@ -6926,292 +6920,292 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="28.5" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="28.5" customHeight="1">
       <c r="B88" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="28.5" customHeight="1">
       <c r="B89" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="28.5" customHeight="1">
       <c r="B90" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="28.5" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="28.5" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="28.5" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="28.5" customHeight="1">
       <c r="B94" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="28.5" customHeight="1">
       <c r="B95" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.5" customHeight="1">
       <c r="B96" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="28.5" customHeight="1">
       <c r="B97" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28.5" customHeight="1">
       <c r="B98" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="28.5" customHeight="1">
       <c r="B99" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28.5" customHeight="1">
       <c r="B100" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="28.5" customHeight="1">
       <c r="B101" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="28.5" customHeight="1">
       <c r="B102" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.5" customHeight="1">
       <c r="B103" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="28.5" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J104" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="28.5" customHeight="1">
       <c r="B105" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J105" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="28.5" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J106" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="28.5" customHeight="1">
       <c r="B107" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s">
         <v>33</v>
@@ -7220,12 +7214,12 @@
         <v>15</v>
       </c>
       <c r="J107" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="28.5" customHeight="1">
       <c r="B108" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C108" t="s">
         <v>33</v>
@@ -7234,46 +7228,46 @@
         <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="28.5" customHeight="1">
       <c r="B109" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J109" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="28.5" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="28.5" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -7289,18 +7283,18 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="28.5" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
@@ -7309,29 +7303,29 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="28.5" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="28.5" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C114" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -7340,15 +7334,15 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="28.5" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -7364,18 +7358,18 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="28.5" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
@@ -7384,43 +7378,43 @@
         <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="28.5" customHeight="1">
       <c r="B117" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="28.5" customHeight="1">
       <c r="B118" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="28.5" customHeight="1">
       <c r="B119" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C119" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -7429,15 +7423,15 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.5" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -7453,18 +7447,18 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="28.5" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
@@ -7473,15 +7467,15 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="28.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>12</v>
@@ -7497,18 +7491,18 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="28.5" customHeight="1">
       <c r="B123" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J123" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7580,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7600,7 +7594,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7626,12 +7620,12 @@
         <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -7646,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7660,7 +7654,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7680,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7694,7 +7688,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7714,29 +7708,29 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7756,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7769,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -7829,7 +7823,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -7849,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -7876,12 +7870,12 @@
         <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -7896,26 +7890,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="J6" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -7930,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7979,10 @@
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -8006,32 +7998,32 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -8047,15 +8039,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -8071,30 +8063,30 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -8110,15 +8102,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -8134,15 +8126,15 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -8158,15 +8150,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -8182,15 +8174,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -8206,15 +8198,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -8230,15 +8222,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -8254,15 +8246,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -8278,15 +8270,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -8302,50 +8294,50 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -8361,15 +8353,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -8385,15 +8377,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -8409,15 +8401,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="45">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -8433,15 +8425,15 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -8457,15 +8449,15 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -8481,18 +8473,18 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -8504,18 +8496,18 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -8527,18 +8519,18 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -8550,18 +8542,18 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -8573,18 +8565,18 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -8596,15 +8588,15 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -8620,12 +8612,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -8641,12 +8633,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45">
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -8662,12 +8654,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45">
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -8683,12 +8675,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45">
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -8704,12 +8696,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -8725,15 +8717,15 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -8749,12 +8741,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45">
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -8770,12 +8762,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -8791,12 +8783,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -8812,15 +8804,15 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -8836,12 +8828,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45">
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -8857,12 +8849,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45">
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -8878,12 +8870,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45">
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -8899,12 +8891,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45">
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -8920,12 +8912,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45">
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -8941,12 +8933,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45">
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -8962,12 +8954,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30">
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -8983,15 +8975,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="45">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -9007,12 +8999,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45">
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -9028,12 +9020,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="45">
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -9049,12 +9041,12 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45">
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -9070,12 +9062,12 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45">
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -9091,12 +9083,12 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -9112,15 +9104,15 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -9136,33 +9128,33 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="3"/>
       <c r="G54" s="2">
         <v>3</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="45">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -9178,12 +9170,12 @@
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -9199,15 +9191,15 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -9223,12 +9215,12 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="45">
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -9244,15 +9236,15 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="45">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -9268,12 +9260,12 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45">
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -9289,15 +9281,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -9313,12 +9305,12 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45">
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -9334,15 +9326,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -9358,12 +9350,12 @@
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45">
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -9379,15 +9371,15 @@
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="26.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -9403,15 +9395,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="26.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -9427,12 +9419,12 @@
         <v>1</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="26.25" customHeight="1">
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -9448,15 +9440,15 @@
         <v>1</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="26.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -9472,12 +9464,12 @@
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="26.25" customHeight="1">
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -9493,15 +9485,15 @@
         <v>1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="26.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -9517,12 +9509,12 @@
         <v>1</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="26.25" customHeight="1">
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -9538,15 +9530,15 @@
         <v>1</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="26.25" customHeight="1">
       <c r="A72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -9562,12 +9554,12 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="26.25" customHeight="1">
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -9583,15 +9575,15 @@
         <v>1</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="26.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -9607,12 +9599,12 @@
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="26.25" customHeight="1">
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -9628,15 +9620,15 @@
         <v>1</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="26.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -9652,12 +9644,12 @@
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="26.25" customHeight="1">
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -9673,15 +9665,15 @@
         <v>1</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="26.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -9697,15 +9689,15 @@
         <v>1</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="26.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -9721,12 +9713,12 @@
         <v>1</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.25" customHeight="1">
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -9742,15 +9734,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="26.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -9766,12 +9758,12 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="26.25" customHeight="1">
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -9787,15 +9779,15 @@
         <v>1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="26.25" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -9811,12 +9803,12 @@
         <v>1</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="26.25" customHeight="1">
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -9832,15 +9824,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="26.25" customHeight="1">
       <c r="A85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -9856,12 +9848,12 @@
         <v>1</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="26.25" customHeight="1">
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -9877,15 +9869,15 @@
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="26.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -9901,15 +9893,15 @@
         <v>1</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="26.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -9925,12 +9917,12 @@
         <v>1</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="26.25" customHeight="1">
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -9946,15 +9938,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="26.25" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -9970,12 +9962,12 @@
         <v>1</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="26.25" customHeight="1">
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -9991,15 +9983,15 @@
         <v>1</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="26.25" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -10015,12 +10007,12 @@
         <v>1</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="26.25" customHeight="1">
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -10036,15 +10028,15 @@
         <v>1</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="26.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -10060,15 +10052,15 @@
         <v>1</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="26.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -10084,12 +10076,12 @@
         <v>1</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="26.25" customHeight="1">
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -10105,15 +10097,15 @@
         <v>1</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="26.25" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -10129,12 +10121,12 @@
         <v>1</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="26.25" customHeight="1">
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -10150,15 +10142,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="26.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -10174,12 +10166,12 @@
         <v>1</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="26.25" customHeight="1">
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
@@ -10195,15 +10187,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="26.25" customHeight="1">
       <c r="A101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -10219,12 +10211,12 @@
         <v>1</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="26.25" customHeight="1">
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
@@ -10240,15 +10232,15 @@
         <v>1</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="26.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -10264,12 +10256,12 @@
         <v>1</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="26.25" customHeight="1">
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -10285,15 +10277,15 @@
         <v>1</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="26.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -10309,12 +10301,12 @@
         <v>1</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="26.25" customHeight="1">
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -10330,15 +10322,15 @@
         <v>1</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="26.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -10354,12 +10346,12 @@
         <v>1</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="26.25" customHeight="1">
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -10375,15 +10367,15 @@
         <v>1</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="26.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -10399,12 +10391,12 @@
         <v>1</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="26.25" customHeight="1">
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -10420,15 +10412,15 @@
         <v>1</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="26.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -10444,12 +10436,12 @@
         <v>1</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="26.25" customHeight="1">
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
@@ -10465,15 +10457,15 @@
         <v>1</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="26.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
@@ -10489,12 +10481,12 @@
         <v>1</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="26.25" customHeight="1">
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
@@ -10510,15 +10502,15 @@
         <v>1</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="26.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
@@ -10534,12 +10526,12 @@
         <v>1</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="26.25" customHeight="1">
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
@@ -10555,15 +10547,15 @@
         <v>1</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="26.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
@@ -10579,12 +10571,12 @@
         <v>1</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="26.25" customHeight="1">
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
@@ -10600,15 +10592,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="26.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -10624,12 +10616,12 @@
         <v>1</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="26.25" customHeight="1">
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -10645,15 +10637,15 @@
         <v>1</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="26.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -10669,12 +10661,12 @@
         <v>1</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="26.25" customHeight="1">
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -10690,15 +10682,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="26.25" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -10714,33 +10706,33 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="26.25" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D124" s="3"/>
       <c r="G124" s="2">
         <v>3</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -10752,15 +10744,15 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -10772,15 +10764,15 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="26.25" customHeight="1">
       <c r="B127" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -10792,15 +10784,15 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26.25" customHeight="1">
       <c r="B128" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -10812,15 +10804,15 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -10832,15 +10824,15 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="2:10" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -10852,15 +10844,15 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="2:10" ht="26.25" customHeight="1">
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -10872,15 +10864,15 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="2:10" ht="26.25" customHeight="1">
       <c r="B132" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -10892,15 +10884,15 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="2:10" ht="26.25" customHeight="1">
       <c r="B133" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -10912,15 +10904,15 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="26.25" customHeight="1">
       <c r="B134" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
@@ -10932,15 +10924,15 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="2:10" ht="26.25" customHeight="1">
       <c r="B135" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -10952,15 +10944,15 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="26.25" customHeight="1">
       <c r="B136" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -10972,15 +10964,15 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="26.25" customHeight="1">
       <c r="B137" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -10992,15 +10984,15 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="2:10" ht="26.25" customHeight="1">
       <c r="B138" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
@@ -11012,15 +11004,15 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="2:10" ht="26.25" customHeight="1">
       <c r="B139" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -11032,15 +11024,15 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="26.25" customHeight="1">
       <c r="B140" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -11052,15 +11044,15 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="26.25" customHeight="1">
       <c r="B141" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E141" s="2">
         <v>1</v>
@@ -11072,15 +11064,15 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
@@ -11092,15 +11084,15 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -11112,15 +11104,15 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -11132,85 +11124,85 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="26.25" customHeight="1">
       <c r="B145" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="26.25" customHeight="1">
       <c r="B146" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="26.25" customHeight="1">
       <c r="B147" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="26.25" customHeight="1">
       <c r="B148" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="26.25" customHeight="1">
       <c r="B149" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="26.25" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -11226,30 +11218,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="26.25" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D151" s="3"/>
       <c r="G151" s="2">
         <v>3</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="26.25" customHeight="1">
       <c r="B152" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -11264,12 +11256,12 @@
         <v>2</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="26.25" customHeight="1">
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -11284,15 +11276,15 @@
         <v>2</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="26.25" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -11308,15 +11300,15 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="26.25" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
@@ -11332,18 +11324,18 @@
         <v>1</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="26.25" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -11395,7 +11387,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11420,7 +11412,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11445,7 +11437,7 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11472,15 +11464,15 @@
         <v>31</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -11497,7 +11489,7 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -11546,18 +11538,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -11572,15 +11564,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -11592,15 +11584,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -11612,15 +11604,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -11632,15 +11624,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -11652,15 +11644,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -11672,15 +11664,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -11692,15 +11684,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -11712,40 +11704,40 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -11760,15 +11752,15 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -11780,12 +11772,12 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11800,12 +11792,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -11820,15 +11812,15 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -11840,12 +11832,12 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -11860,54 +11852,54 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -11922,15 +11914,15 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -11942,12 +11934,12 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -11962,29 +11954,29 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -11999,15 +11991,15 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -12019,12 +12011,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -12039,15 +12031,15 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -12059,12 +12051,12 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -12079,29 +12071,29 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -12116,12 +12108,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -12136,15 +12128,15 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -12159,15 +12151,15 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -12182,21 +12174,21 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -12244,10 +12236,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12272,7 +12264,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12297,7 +12289,7 @@
       </c>
       <c r="H3" s="5"/>
       <c r="J3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12308,7 +12300,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -12321,10 +12313,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12335,7 +12327,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -12351,18 +12343,18 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -12373,21 +12365,21 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -12397,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12422,7 +12414,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="J8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12447,7 +12439,7 @@
       </c>
       <c r="H9" s="5"/>
       <c r="J9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12458,7 +12450,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5">
@@ -12471,10 +12463,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12485,7 +12477,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="5">
@@ -12501,18 +12493,18 @@
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -12523,21 +12515,21 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -12547,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12572,7 +12564,7 @@
       </c>
       <c r="H14" s="5"/>
       <c r="J14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12597,7 +12589,7 @@
       </c>
       <c r="H15" s="5"/>
       <c r="J15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12608,7 +12600,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5">
@@ -12621,10 +12613,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J16" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12635,7 +12627,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -12651,18 +12643,18 @@
         <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -12673,21 +12665,21 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -12697,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -12722,7 +12714,7 @@
       </c>
       <c r="H20" s="5"/>
       <c r="J20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -12747,7 +12739,7 @@
       </c>
       <c r="H21" s="5"/>
       <c r="J21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -12758,7 +12750,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="5">
@@ -12771,10 +12763,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -12785,7 +12777,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -12801,18 +12793,18 @@
         <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -12823,21 +12815,21 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -12847,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -12872,7 +12864,7 @@
       </c>
       <c r="H26" s="5"/>
       <c r="J26" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -12897,7 +12889,7 @@
       </c>
       <c r="H27" s="5"/>
       <c r="J27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12908,7 +12900,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="5">
@@ -12921,10 +12913,10 @@
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J28" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -12935,7 +12927,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5">
@@ -12951,18 +12943,18 @@
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -12973,21 +12965,21 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -12997,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -13022,7 +13014,7 @@
       </c>
       <c r="H32" s="5"/>
       <c r="J32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -13047,7 +13039,7 @@
       </c>
       <c r="H33" s="5"/>
       <c r="J33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -13058,7 +13050,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="5">
@@ -13071,10 +13063,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -13085,7 +13077,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="5">
@@ -13101,18 +13093,18 @@
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -13123,21 +13115,21 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -13147,12 +13139,12 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -13172,7 +13164,7 @@
       </c>
       <c r="H38" s="5"/>
       <c r="J38" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -13197,7 +13189,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -13208,7 +13200,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="5">
@@ -13221,10 +13213,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -13235,7 +13227,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="5">
@@ -13251,18 +13243,18 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -13273,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -13349,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1">
@@ -13373,7 +13365,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1">
@@ -13400,15 +13392,15 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -13423,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13443,18 +13435,18 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -13466,29 +13458,29 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -13503,12 +13495,12 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -13523,12 +13515,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -13543,12 +13535,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -13563,18 +13555,18 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -13651,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13675,7 +13667,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13702,12 +13694,12 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -13723,12 +13715,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -13744,26 +13736,26 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -13779,12 +13771,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -13800,29 +13792,29 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -13838,12 +13830,12 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -13859,12 +13851,12 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -13880,12 +13872,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -13901,18 +13893,18 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="General" sheetId="10" r:id="rId10"/>
     <sheet name="RiskPrognosis" sheetId="11" r:id="rId11"/>
     <sheet name="HistoryDiagnoses" sheetId="12" r:id="rId12"/>
+    <sheet name="Neurological" sheetId="13" r:id="rId13"/>
+    <sheet name="Cardiac" sheetId="14" r:id="rId14"/>
+    <sheet name="Sensory" sheetId="15" r:id="rId15"/>
+    <sheet name="Respiratory" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="769">
   <si>
     <t>Name</t>
   </si>
@@ -1681,13 +1685,664 @@
   </si>
   <si>
     <t>//span[contains(text(),"send to clinician")]</t>
+  </si>
+  <si>
+    <t>Neurological Tab</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Neurological')]</t>
+  </si>
+  <si>
+    <t>Oriented</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Oriented"]</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Person"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Place"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Time"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Situation"]</t>
+  </si>
+  <si>
+    <t>Comatose</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Comatose"]</t>
+  </si>
+  <si>
+    <t>Disoriented</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Disoriented"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Forgetful"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Lethargic"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="PERRL"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Seizures"]</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.neuro.seriures.symptoms"]</t>
+  </si>
+  <si>
+    <t>Grand Mal</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>//*[@id="tab-content-554"]/div/md-content/form/div[2]/div/md-slider/div/div/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.neuro.detail"]</t>
+  </si>
+  <si>
+    <t>Order Ko Unli Rice</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Poor Coping Skills"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Poor Home Environment"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Agitated"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Depressed Mood"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Impaired Decision Making"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Inappropriate Behavior"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Irritability"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.psycho.comments"]</t>
+  </si>
+  <si>
+    <t>No Comment</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>PHQ</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.phq2.a"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.phq2.b"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1700.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1710.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1720.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1730.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="1 - Memory deficit: failure to recognize familiar persons/places, inability to recall events of past 24 hours, significant memory loss so that supervision is required"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="2 - Impaired decision-making: failure to perform usual ADLs or IADLs, inability to appropriately stop activities, jeopardizes safety through actions"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="3 - Verbal disruption: yelling, threatening, excessive profanity, sexual references, etc"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="4 - Physical aggression: aggressive or combative to self and others (for example), hits self, throws objects, punches, dangerous maneuvers with wheelchair or other objects"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="5 - Disruptive, infantile, or socially inappropriate behavior (excludes verbal actions)"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="6 - Delusional, hallucinatory, or paranoid behavior"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="7 - None of the above behaviors demonstrated"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1745.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1750.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Cardiac</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Cardiac')]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.cardio.chestPain.value"]</t>
+  </si>
+  <si>
+    <t>Locations:</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Right"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Center"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Left"]</t>
+  </si>
+  <si>
+    <t>Radiating</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Radiating"]</t>
+  </si>
+  <si>
+    <t>Describe :</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Jaw"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Shoulder"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Neck"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Back"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Right Arm"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Left Arm"]</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.cardio.chestPain.character"]</t>
+  </si>
+  <si>
+    <t>Heart Sounds :</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Murmur"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Gallop"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Click"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Irregular"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.cardio.peripheralPulses.value"]</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.cardio.peripheralPulses.detail"]</t>
+  </si>
+  <si>
+    <t>Cap Refill</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.cardio.capRefill"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Dizziness"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="With activity"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="At rest"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Edema"]</t>
+  </si>
+  <si>
+    <t>Sensory</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Sensory')]</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Glasses"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Contacts Left"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Contacts Right"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Blurred"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Glaucoma"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Cataracts"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Redness"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.vision.drainage"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Itching"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Watering"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Macular Degeneration"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.vision.other"]</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.sens.vision.details"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Eyes are Better than Cyclopes </t>
+  </si>
+  <si>
+    <t>Ears</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Hearing Impaired"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Deaf"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.hearing.drainage"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Pain"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Hearing Aids"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.hearing.aids.left"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.hearing.aids.right"]</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Congestion"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Loss of Smell"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Nose Bleeds"]</t>
+  </si>
+  <si>
+    <t>How Often</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.sens.nose.noseBleed.often"]</t>
+  </si>
+  <si>
+    <t>two Times a week</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.sens.nose.other"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.sens.nose.details"]</t>
+  </si>
+  <si>
+    <t>I don’t know The Details</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>m1200</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1200.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>m1210</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1210.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>m1220</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1220.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>m1230</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1230.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>Onset Date</t>
+  </si>
+  <si>
+    <t>//input[@class="md-datepicker-input"]</t>
+  </si>
+  <si>
+    <t>Location of Pain</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.painChart.painDetail[painIndex].location"]</t>
+  </si>
+  <si>
+    <t>In mY Heart it Hurts Aw!!</t>
+  </si>
+  <si>
+    <t>//area[@ng-click="vm.click(6)"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.painDetail[painIndex].duration.value"]</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.painDetail[painIndex].quality.value"]</t>
+  </si>
+  <si>
+    <t>What Makes Pain Worst</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.painDetail[painIndex].makeWorse.value"]</t>
+  </si>
+  <si>
+    <t>What Makes Pain Better</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.painDetail[painIndex].makeBetter.value"]</t>
+  </si>
+  <si>
+    <t>Relief Rating of Pain</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.painChart.painDetail[painIndex].relief"]</t>
+  </si>
+  <si>
+    <t>Medication patient takes for pain</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.painChart.painDetail[painIndex].medication"]</t>
+  </si>
+  <si>
+    <t>Medication effectiveness</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.painDetail[painIndex].effectiveness.value"]</t>
+  </si>
+  <si>
+    <t>Medication Adverse Side Effect</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.painChart.painDetail[painIndex].medicationSideeffect"]</t>
+  </si>
+  <si>
+    <t>Patient's Pain Goal</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.painChart.painDetail[painIndex].goal"]</t>
+  </si>
+  <si>
+    <t>To Whom</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.education.understanding.target"]</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.painChart.education.understanding.detail"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>To whom</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.education.teachback.target"]</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.painChart.education.teachback.detail"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.painChart.education.furtherTraining.target"]</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.painChart.education.furtherTraining.detail"]/md-radio-button[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="tab-content-943"]/div/md-content/form/md-card/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>m1240</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1240.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>m1242</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1242.value"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Respiratory')]</t>
+  </si>
+  <si>
+    <t>Lung Sounds</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Lung Sounds"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.cta.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.cta.detail"]</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.rales.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.rales.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.rhonchi.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.rhonchi.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.wheezes.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.wheezes.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.crackles.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.crackles.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.diminished.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.diminished.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.absent.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.absent.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.lungSounds.stridor.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.lungSounds.stridor.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Sputum"]</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.sputum.amount"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.sputum.detail"]</t>
+  </si>
+  <si>
+    <t>I don’t know</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.nebulizer.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.resp.nebulizer.detail"]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.sob.value"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.resp.sob.detail"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.resp.cough.detail"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.cough.value"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.tracheostomy"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.resp.chestTube"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.resp.comments"]</t>
+  </si>
+  <si>
+    <t>Nothing on you</t>
+  </si>
+  <si>
+    <t>Tracheostomy Date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.tracheostomy.tracheostomyDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tracheostomy.tracheostomyType.value"]</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tracheostomy.brand"]</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tracheostomy.size"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tracheostomy.tracheostomyCareProtocol"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,6 +2355,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1722,7 +2385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1754,6 +2417,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7510,6 +8179,3989 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90">
+      <c r="A2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="75">
+      <c r="A3" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="90">
+      <c r="A8" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="90">
+      <c r="A9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="90">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="90">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="135">
+      <c r="A14" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="315">
+      <c r="A15" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="195">
+      <c r="A16" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="90">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="75">
+      <c r="A18" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="105">
+      <c r="A19" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="120">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="90">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="105">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="120">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="90">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="105">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="75">
+      <c r="A27" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="165">
+      <c r="A28" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="165">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="75">
+      <c r="A30" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="165">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="75">
+      <c r="A32" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="165">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="75">
+      <c r="A34" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="165">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="75">
+      <c r="A36" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="165">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="75">
+      <c r="A38" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="390">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="360">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="240">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="409.5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="240">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="165">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="165">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="75">
+      <c r="A46" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="165">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="75">
+      <c r="A48" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="165">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="75">
+      <c r="A50" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="105">
+      <c r="A51" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="120">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="90">
+      <c r="A7" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="75">
+      <c r="A8" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="90">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="90">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="90">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="135">
+      <c r="A14" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="315">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="75">
+      <c r="A16" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="135">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="135">
+      <c r="A21" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="315">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="180">
+      <c r="A23" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="90">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="75">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="75">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="75">
+      <c r="A3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="90">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="90">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="90">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="90">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="120">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="105">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="120">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="105">
+      <c r="A15" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="105">
+      <c r="A16" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="120">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="90">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="120">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="135">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="90">
+      <c r="A25" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="90">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="90">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="120">
+      <c r="A28" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="120">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="105">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="75">
+      <c r="A31" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="165">
+      <c r="A32" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="75">
+      <c r="A33" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="165">
+      <c r="A34" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="75">
+      <c r="A35" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="165">
+      <c r="A36" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="75">
+      <c r="A37" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="165">
+      <c r="A38" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="75">
+      <c r="A39" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="90">
+      <c r="A40" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="14">
+        <v>42892</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="135">
+      <c r="A41" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="75">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="165">
+      <c r="A43" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="315">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="165">
+      <c r="A45" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="315">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="180">
+      <c r="A47" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="315">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="180">
+      <c r="A49" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="315">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="150">
+      <c r="A51" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="150">
+      <c r="A52" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="180">
+      <c r="A53" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="165">
+      <c r="A54" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>3</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="150">
+      <c r="A55" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="165">
+      <c r="A56" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="315">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="225">
+      <c r="A58" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="150">
+      <c r="A59" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="315">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="210">
+      <c r="A61" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="165">
+      <c r="A62" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="315">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="225">
+      <c r="A64" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>3</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="285">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="75">
+      <c r="A66" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="165">
+      <c r="A67" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <v>3</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="75">
+      <c r="A68" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="165">
+      <c r="A69" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="75">
+      <c r="A70" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>3</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90">
+      <c r="A2" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="90">
+      <c r="A3" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="135">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="120">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="135">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="120">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="135">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="120">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="150">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="135">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="135">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="120">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="150">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="135">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="135">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="120">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="135">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="120">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="105">
+      <c r="A21" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="105">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="120">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="105">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="105">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="120">
+      <c r="A26" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="315">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="120">
+      <c r="A28" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="315">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="120">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="120">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="120">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="105">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="165">
+      <c r="A34" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="14">
+        <v>42893</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="150">
+      <c r="A35" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="315">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="120">
+      <c r="A37" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="315">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="120">
+      <c r="A39" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="315">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="150">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="75">
+      <c r="A42" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
@@ -7763,7 +12415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="919" firstSheet="3" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="1397">
   <si>
     <t>Name</t>
   </si>
@@ -3802,9 +3802,6 @@
     <t>Failed to Click IV</t>
   </si>
   <si>
-    <t>Test001</t>
-  </si>
-  <si>
     <t>Failed to input</t>
   </si>
   <si>
@@ -3823,18 +3820,12 @@
     <t>Internal Length</t>
   </si>
   <si>
-    <t>(//md-slider[@class="md-primary ng-untouched ng-valid ng-isolate-scope md-cs-content-theme-theme flex-90 ng-dirty ng-valid-parse"]//div[@class="_md-track-container"])[1]</t>
-  </si>
-  <si>
     <t>Failed to click</t>
   </si>
   <si>
     <t xml:space="preserve">External Length </t>
   </si>
   <si>
-    <t>(//md-slider[@class="md-primary ng-untouched ng-valid ng-isolate-scope md-cs-content-theme-theme flex-90 ng-dirty ng-valid-parse"]//div[@class="_md-track-container"])[2]</t>
-  </si>
-  <si>
     <t>Failed to check labals - IV ACCESS</t>
   </si>
   <si>
@@ -3892,12 +3883,6 @@
     <t>Test002</t>
   </si>
   <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed to Click </t>
-  </si>
-  <si>
     <t>M1300 Choices</t>
   </si>
   <si>
@@ -3907,102 +3892,51 @@
     <t>Failed to select choices</t>
   </si>
   <si>
-    <t>M1302</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[5]/span[2]</t>
-  </si>
-  <si>
     <t>M1302 Choice</t>
   </si>
   <si>
     <t>(//md-radio-button[@aria-label="0 - No"])[1]</t>
   </si>
   <si>
-    <t>M1306</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>M1306 Choices</t>
   </si>
   <si>
     <t>(//md-radio-button[@aria-label="0 - No"])[2]</t>
   </si>
   <si>
-    <t>M1322</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[6]/span[1]/span</t>
-  </si>
-  <si>
     <t>M1322 Choices</t>
   </si>
   <si>
     <t>//md-radio-button[@aria-label="0"]</t>
   </si>
   <si>
-    <t>M1324</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[7]</t>
-  </si>
-  <si>
     <t>M1324 Choices</t>
   </si>
   <si>
     <t>//md-radio-button[@aria-label="1 - Stage I"]</t>
   </si>
   <si>
-    <t>M1330</t>
-  </si>
-  <si>
     <t>M1330 Choices</t>
   </si>
   <si>
     <t>//md-radio-button[@aria-label="1 - Yes, patient has BOTH observable and unobservable stasis ulcers"]</t>
   </si>
   <si>
-    <t>M1332</t>
-  </si>
-  <si>
     <t>M1332 Choices</t>
   </si>
   <si>
     <t>//md-radio-button[@aria-label="1 - One"]</t>
   </si>
   <si>
-    <t>M1334</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[11]/span[2]</t>
-  </si>
-  <si>
     <t>M1334 Choice</t>
   </si>
   <si>
     <t>(//md-radio-button[@aria-label="1 - Fully granulating"])[1]</t>
   </si>
   <si>
-    <t>M1340</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[11]</t>
-  </si>
-  <si>
     <t>M1340 Choice</t>
   </si>
   <si>
-    <t>//md-radio-button[@aria-label="0 - No [At SOC/ROC, go to M1350 ; At FU/DC, go to M1400]"]</t>
-  </si>
-  <si>
-    <t>M1342</t>
-  </si>
-  <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[13]/span[2]</t>
-  </si>
-  <si>
     <t>M1342 Choice</t>
   </si>
   <si>
@@ -4012,9 +3946,6 @@
     <t>M1350</t>
   </si>
   <si>
-    <t>//*[@id="woundChart"]/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[14]/span[2]</t>
-  </si>
-  <si>
     <t>(//md-radio-button[@aria-label="0 - No"])[3]</t>
   </si>
   <si>
@@ -4286,6 +4217,15 @@
   </si>
   <si>
     <t>RFT</t>
+  </si>
+  <si>
+    <t>//form[@name="m1340"]//md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="ivAccess"]//md-slider)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="ivAccess"]//md-slider)[2]</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +4353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4711,7 +4651,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -7158,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
@@ -13850,8 +13790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:J94"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17992,7 +17932,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21345,15 +21285,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="5"/>
+    <col min="2" max="2" width="68" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="24.5703125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -21385,7 +21330,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1205</v>
       </c>
@@ -21405,158 +21350,156 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="150">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="21" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="150">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="21" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="150">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="21" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="150">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="150">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="21" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="150">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="21" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="21" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="20">
@@ -21568,409 +21511,415 @@
       <c r="G9" s="20">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="300">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" ht="21" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" ht="21" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" ht="21" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="285">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="5" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="285">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="105">
-      <c r="A23" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G23">
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="135">
-      <c r="A25" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="315">
-      <c r="A26" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
+      <c r="H26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="15">
@@ -21979,378 +21928,375 @@
       <c r="F27" s="15">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" ht="21" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="15">
-        <v>1</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="360">
-      <c r="A29" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="360">
-      <c r="A30" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="90">
-      <c r="A35" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
         <v>2</v>
       </c>
-      <c r="J35" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="135">
-      <c r="A36" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="J36" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="B37" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
         <v>2</v>
       </c>
-      <c r="J36" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="150">
-      <c r="A37" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="J38" s="5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20">
         <v>2</v>
       </c>
-      <c r="J37" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="J39" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B40" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20">
         <v>2</v>
       </c>
-      <c r="J39" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
+      <c r="J41" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
-      <c r="F40" s="20">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="300">
-      <c r="A41" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="165">
-      <c r="A42" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="20">
@@ -22362,130 +22308,133 @@
       <c r="G43" s="20">
         <v>2</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="300">
-      <c r="A44" t="s">
+    <row r="44" spans="1:10" ht="21" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
+      <c r="B48" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
         <v>2</v>
       </c>
-      <c r="J44" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
+      <c r="J48" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" customHeight="1">
+      <c r="A49" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="20">
-        <v>1</v>
-      </c>
-      <c r="F46" s="20">
-        <v>1</v>
-      </c>
-      <c r="G46" s="20">
-        <v>2</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="300">
-      <c r="A47" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="20">
@@ -22497,127 +22446,133 @@
       <c r="G49" s="20">
         <v>2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="315">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" ht="21" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>2</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
+      <c r="C54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
         <v>2</v>
       </c>
-      <c r="J50" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
+      <c r="J54" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21" customHeight="1">
+      <c r="A55" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="20">
-        <v>1</v>
-      </c>
-      <c r="F52" s="20">
-        <v>1</v>
-      </c>
-      <c r="G52" s="20">
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="285">
-      <c r="A53" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="20">
@@ -22629,62 +22584,65 @@
       <c r="G55" s="20">
         <v>2</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="285">
-      <c r="A56" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
+    <row r="56" spans="1:10" ht="21" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
         <v>2</v>
       </c>
-      <c r="J56" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="225">
-      <c r="A57" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="J56" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1</v>
+      </c>
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20">
         <v>2</v>
       </c>
-      <c r="J57" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
+      <c r="J57" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E58" s="20">
         <v>1</v>
@@ -22695,61 +22653,64 @@
       <c r="G58" s="20">
         <v>2</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="20">
+        <v>1</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20">
+        <v>2</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="285">
-      <c r="A59" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
+    <row r="60" spans="1:10" ht="21" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
         <v>2</v>
       </c>
-      <c r="J59" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
+      <c r="J60" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21" customHeight="1">
+      <c r="A61" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="20">
@@ -22761,284 +22722,34 @@
       <c r="G61" s="20">
         <v>2</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="300">
-      <c r="A62" t="s">
-        <v>1312</v>
+    <row r="62" spans="1:10" ht="21" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="J62" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="20">
-        <v>1</v>
-      </c>
-      <c r="F64" s="20">
-        <v>1</v>
-      </c>
-      <c r="G64" s="20">
-        <v>2</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="285">
-      <c r="A65" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="195">
-      <c r="A66" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="20">
-        <v>1</v>
-      </c>
-      <c r="F67" s="20">
-        <v>1</v>
-      </c>
-      <c r="G67" s="20">
-        <v>2</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="300">
-      <c r="A68" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="20">
-        <v>1</v>
-      </c>
-      <c r="F68" s="20">
-        <v>1</v>
-      </c>
-      <c r="G68" s="20">
-        <v>2</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="20">
-        <v>1</v>
-      </c>
-      <c r="F69" s="20">
-        <v>1</v>
-      </c>
-      <c r="G69" s="20">
-        <v>2</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="20">
-        <v>1</v>
-      </c>
-      <c r="F70" s="20">
-        <v>1</v>
-      </c>
-      <c r="G70" s="20">
-        <v>2</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="300">
-      <c r="A71" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="20">
-        <v>1</v>
-      </c>
-      <c r="F71" s="20">
-        <v>1</v>
-      </c>
-      <c r="G71" s="20">
-        <v>2</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="20">
-        <v>1</v>
-      </c>
-      <c r="F72" s="20">
-        <v>1</v>
-      </c>
-      <c r="G72" s="20">
-        <v>2</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="20">
-        <v>1</v>
-      </c>
-      <c r="F73" s="20">
-        <v>1</v>
-      </c>
-      <c r="G73" s="20">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1220</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -23050,7 +22761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -23100,10 +22811,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1327</v>
+        <v>1304</v>
       </c>
       <c r="B2" t="s">
-        <v>1328</v>
+        <v>1305</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -23118,15 +22829,15 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>1329</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>1330</v>
+        <v>1307</v>
       </c>
       <c r="B3" t="s">
-        <v>1331</v>
+        <v>1308</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -23141,15 +22852,15 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>1333</v>
+        <v>1310</v>
       </c>
       <c r="B4" t="s">
-        <v>1334</v>
+        <v>1311</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -23164,15 +22875,15 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>1335</v>
+        <v>1312</v>
       </c>
       <c r="B5" t="s">
-        <v>1336</v>
+        <v>1313</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -23187,15 +22898,15 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>1337</v>
+        <v>1314</v>
       </c>
       <c r="B6" t="s">
-        <v>1338</v>
+        <v>1315</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -23210,15 +22921,15 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>1339</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
-        <v>1340</v>
+        <v>1317</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -23233,15 +22944,15 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1341</v>
+        <v>1318</v>
       </c>
       <c r="B8" t="s">
-        <v>1342</v>
+        <v>1319</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -23256,15 +22967,15 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1343</v>
+        <v>1320</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1321</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -23279,15 +22990,15 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1345</v>
+        <v>1322</v>
       </c>
       <c r="B10" t="s">
-        <v>1346</v>
+        <v>1323</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -23302,15 +23013,15 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1347</v>
+        <v>1324</v>
       </c>
       <c r="B11" t="s">
-        <v>1348</v>
+        <v>1325</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -23325,15 +23036,15 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>1349</v>
+        <v>1326</v>
       </c>
       <c r="B12" t="s">
-        <v>1350</v>
+        <v>1327</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -23348,15 +23059,15 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>1351</v>
+        <v>1328</v>
       </c>
       <c r="B13" t="s">
-        <v>1352</v>
+        <v>1329</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -23371,7 +23082,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23379,7 +23090,7 @@
         <v>1187</v>
       </c>
       <c r="B14" t="s">
-        <v>1353</v>
+        <v>1330</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -23394,21 +23105,21 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" customHeight="1">
       <c r="A15" t="s">
-        <v>1354</v>
+        <v>1331</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1355</v>
+        <v>1332</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>1356</v>
+        <v>1333</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -23420,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>1357</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -23443,12 +23154,12 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1">
       <c r="A17" t="s">
-        <v>1359</v>
+        <v>1336</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1222</v>
@@ -23457,242 +23168,242 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>1360</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="B18" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="J18" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>1364</v>
+        <v>1341</v>
       </c>
       <c r="B19" t="s">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="J19" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>1366</v>
+        <v>1343</v>
       </c>
       <c r="B20" t="s">
-        <v>1367</v>
+        <v>1344</v>
       </c>
       <c r="J20" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1">
       <c r="A21" t="s">
-        <v>1368</v>
+        <v>1345</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>1370</v>
+        <v>1347</v>
       </c>
       <c r="J21" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="B22" t="s">
-        <v>1372</v>
+        <v>1349</v>
       </c>
       <c r="J22" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29.25" customHeight="1">
       <c r="A23" t="s">
-        <v>1373</v>
+        <v>1350</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>1375</v>
+        <v>1352</v>
       </c>
       <c r="J23" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>1376</v>
+        <v>1353</v>
       </c>
       <c r="B24" t="s">
-        <v>1377</v>
+        <v>1354</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>1378</v>
+        <v>1355</v>
       </c>
       <c r="B25" t="s">
-        <v>1379</v>
+        <v>1356</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>1380</v>
+        <v>1357</v>
       </c>
       <c r="B26" t="s">
-        <v>1381</v>
+        <v>1358</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="B27" t="s">
-        <v>1383</v>
+        <v>1360</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>1384</v>
+        <v>1361</v>
       </c>
       <c r="B28" t="s">
-        <v>1385</v>
+        <v>1362</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>1386</v>
+        <v>1363</v>
       </c>
       <c r="B29" t="s">
-        <v>1387</v>
+        <v>1364</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="32.25" customHeight="1">
       <c r="A30" t="s">
-        <v>1388</v>
+        <v>1365</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1389</v>
+        <v>1366</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>1390</v>
+        <v>1367</v>
       </c>
       <c r="J30" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>1391</v>
+        <v>1368</v>
       </c>
       <c r="B31" t="s">
-        <v>1392</v>
+        <v>1369</v>
       </c>
       <c r="J31" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27.75" customHeight="1">
       <c r="A32" t="s">
-        <v>1393</v>
+        <v>1370</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1394</v>
+        <v>1371</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>1390</v>
+        <v>1367</v>
       </c>
       <c r="J32" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>1395</v>
+        <v>1372</v>
       </c>
       <c r="B33" t="s">
-        <v>1396</v>
+        <v>1373</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>1397</v>
+        <v>1374</v>
       </c>
       <c r="B34" t="s">
-        <v>1398</v>
+        <v>1375</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1">
@@ -23700,49 +23411,49 @@
         <v>648</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1399</v>
+        <v>1376</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>1400</v>
+        <v>1377</v>
       </c>
       <c r="J35" t="s">
-        <v>1401</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>1402</v>
+        <v>1379</v>
       </c>
       <c r="B36" t="s">
-        <v>1403</v>
+        <v>1380</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>1404</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="32.25" customHeight="1">
       <c r="A37" t="s">
-        <v>1405</v>
+        <v>1382</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>1407</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="48.75" customHeight="1">
       <c r="A38" t="s">
-        <v>1408</v>
+        <v>1385</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>569</v>
@@ -23753,10 +23464,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>1409</v>
+        <v>1386</v>
       </c>
       <c r="B39" t="s">
-        <v>1410</v>
+        <v>1387</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -23764,10 +23475,10 @@
     </row>
     <row r="40" spans="1:10" ht="33" customHeight="1">
       <c r="A40" t="s">
-        <v>1411</v>
+        <v>1388</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1412</v>
+        <v>1389</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -23775,16 +23486,16 @@
     </row>
     <row r="41" spans="1:10" ht="33" customHeight="1">
       <c r="A41" t="s">
-        <v>1413</v>
+        <v>1390</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>1414</v>
+        <v>1391</v>
       </c>
       <c r="B42" t="s">
-        <v>1415</v>
+        <v>1392</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -23792,7 +23503,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>1416</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>
@@ -23805,7 +23516,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -27391,10 +27102,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -27402,7 +27113,7 @@
     <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -27430,8 +27141,11 @@
       <c r="I1" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -27452,11 +27166,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -27477,11 +27191,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -27504,11 +27218,11 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
@@ -27529,7 +27243,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>527</v>
       </c>
     </row>
@@ -28243,7 +27957,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="11" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="Integumentary" sheetId="21" r:id="rId21"/>
     <sheet name="Musculoskeletal" sheetId="22" r:id="rId22"/>
     <sheet name="NoteSubmit" sheetId="23" r:id="rId23"/>
+    <sheet name="Supportive" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1561">
   <si>
     <t>Name</t>
   </si>
@@ -4236,6 +4237,489 @@
   </si>
   <si>
     <t>//md-dialog-actions/button</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Supportive")]</t>
+  </si>
+  <si>
+    <t>Supportive</t>
+  </si>
+  <si>
+    <t>//form[@name="m1100"]//md-radio-group[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistance"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>assistamce</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea</t>
+  </si>
+  <si>
+    <t>//form[@name="supportiveAssistance"]//textarea</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[5]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[4]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="assistanceDetail"]//textarea</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[8]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyHazard"]//md-checkbox[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyHazard"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyHazard"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[4]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[5]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[6]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[7]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[8]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[9]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fireAssessment"]//md-radio-group)[10]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[2]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[2]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[3]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[4]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[5]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[6]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[7]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[8]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[9]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[10]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[3]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[4]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[5]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[6]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[7]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[8]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[9]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[10]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[11]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//div[11]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="fireAssessment"]//textarea</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[8]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[9]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[10]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[11]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[12]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[13]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[14]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[15]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[16]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[17]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[18]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[19]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[20]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[21]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[22]</t>
+  </si>
+  <si>
+    <t>//form[@name="safetyMeasure"]//md-checkbox[23]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-select)</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="cultural"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>//form[@name="dme"]//md-tab-item[@ng-click="$mdTabsCtrl.select(tab.getIndex())"][1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="dme"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[21]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[22]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//md-checkbox)[23]</t>
+  </si>
+  <si>
+    <t>(//form[@name="supplies"]//textarea)</t>
+  </si>
+  <si>
+    <t>Fail to complete Supportive notes</t>
+  </si>
+  <si>
+    <t>Fail to open Supportive Notes</t>
   </si>
 </sst>
 </file>
@@ -4661,7 +5145,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -12324,8 +12808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="19.5" customHeight="1"/>
@@ -13936,7 +14420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -22475,8 +22959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:J95"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23995,6 +24479,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24003,7 +24488,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24212,6 +24697,3491 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="66.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="B3" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>705</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="B29" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="B30" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45">
+      <c r="B31" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="B32" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="B33" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>705</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>631</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>705</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>705</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="30">
+      <c r="B54" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="30">
+      <c r="B55" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="30">
+      <c r="B56" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="30">
+      <c r="B57" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="30">
+      <c r="B58" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="30">
+      <c r="B59" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="30">
+      <c r="B60" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="30">
+      <c r="B61" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="30">
+      <c r="B62" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="30">
+      <c r="B63" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="30">
+      <c r="B64" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="B81" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="B82" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>705</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>631</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>705</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>705</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="30">
+      <c r="B113" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>631</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="B115" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="B116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="B117" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>705</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="B120" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" t="s">
+        <v>705</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="B121" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="B122" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="B123" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="B124" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C124" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>631</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="B126" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C126" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="B127" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C133" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C134" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C135" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C136" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C138" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="30">
+      <c r="B143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="30">
+      <c r="B145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>631</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="B147" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C147" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="B148" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="B149" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C149" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="B150" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C150" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="B151" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C151" t="s">
+        <v>72</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="B152" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C152" t="s">
+        <v>72</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="B153" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="B154" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="B155" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C155" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="B156" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C156" t="s">
+        <v>72</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="B158" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="B159" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C159" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C160" t="s">
+        <v>72</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="B161" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="B162" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="B163" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="B164" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="B165" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C165" t="s">
+        <v>72</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="B166" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="B167" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="B168" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C168" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="B169" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="B170" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C170" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" t="s">
+        <v>705</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>631</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27801,7 +31771,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15"/>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1560">
   <si>
     <t>Name</t>
   </si>
@@ -4317,19 +4317,7 @@
     <t>//form[@name="supportiveAssistance"]//textarea</t>
   </si>
   <si>
-    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[5]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[1]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[2]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[3]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="assistance"]//textarea(//form[@name="assistanceDetail"]//md-radio-group)[4]//md-radio-button[1]</t>
+    <t>(//form[@name="assistanceDetail"]//md-radio-group)[5]//md-radio-button[1]</t>
   </si>
   <si>
     <t>//form[@name="assistanceDetail"]//md-checkbox[7]</t>
@@ -4356,9 +4344,6 @@
     <t>//form[@name="assistanceDetail"]//textarea</t>
   </si>
   <si>
-    <t>//form[@name="safetyHazard"]//md-checkbox[1]</t>
-  </si>
-  <si>
     <t>//form[@name="safetyHazard"]//md-checkbox[2]</t>
   </si>
   <si>
@@ -4380,9 +4365,6 @@
     <t>//form[@name="safetyHazard"]//md-checkbox[8]</t>
   </si>
   <si>
-    <t>//form[@name="safetyHazard"]//md-checkbox[9]</t>
-  </si>
-  <si>
     <t>(//form[@name="safetyHazard"]//textarea)[1]</t>
   </si>
   <si>
@@ -4482,75 +4464,6 @@
     <t>//form[@name="fireAssessment"]//textarea</t>
   </si>
   <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[2]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[3]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[4]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[5]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[6]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[7]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[8]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[9]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[10]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[11]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[12]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[13]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[14]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[15]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[16]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[17]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[18]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[19]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[20]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[21]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[22]</t>
-  </si>
-  <si>
-    <t>//form[@name="safetyMeasure"]//md-checkbox[23]</t>
-  </si>
-  <si>
     <t>(//form[@name="safetyMeasure"]//textarea)[1]</t>
   </si>
   <si>
@@ -4720,6 +4633,90 @@
   </si>
   <si>
     <t>Fail to open Supportive Notes</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistanceDetail"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistanceDetail"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistanceDetail"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="assistanceDetail"]//md-radio-group)[4]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[23]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[21]</t>
+  </si>
+  <si>
+    <t>(//form[@name="safetyMeasure"]//md-checkbox)[22]</t>
+  </si>
+  <si>
+    <t>//md-backdrop</t>
   </si>
 </sst>
 </file>
@@ -24705,8 +24702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15"/>
@@ -24766,7 +24763,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1560</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -24786,7 +24783,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24809,7 +24806,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24832,7 +24829,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24852,7 +24849,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24872,7 +24869,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -24892,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24912,7 +24909,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -24932,7 +24929,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24952,7 +24949,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -24972,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -24992,7 +24989,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -25012,7 +25009,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -25032,7 +25029,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -25052,7 +25049,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -25072,7 +25069,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -25092,7 +25089,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -25112,7 +25109,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -25132,7 +25129,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -25152,7 +25149,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -25172,7 +25169,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -25192,7 +25189,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -25212,7 +25209,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -25232,7 +25229,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -25255,7 +25252,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -25275,7 +25272,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -25298,12 +25295,12 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>1427</v>
+        <v>1532</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -25318,12 +25315,12 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>1428</v>
+        <v>1533</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -25338,12 +25335,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
-        <v>1429</v>
+        <v>1534</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -25358,12 +25355,12 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>1430</v>
+        <v>1535</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -25378,10 +25375,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
         <v>1426</v>
       </c>
@@ -25398,12 +25395,12 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -25418,12 +25415,12 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -25438,12 +25435,12 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -25458,12 +25455,12 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -25478,12 +25475,12 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -25498,12 +25495,12 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -25518,12 +25515,12 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -25538,12 +25535,12 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -25558,7 +25555,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -25581,12 +25578,12 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
@@ -25601,12 +25598,12 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
@@ -25621,12 +25618,12 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C45" t="s">
         <v>72</v>
@@ -25641,12 +25638,12 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
@@ -25661,12 +25658,12 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -25681,333 +25678,336 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>705</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>705</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>631</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
+      <c r="B53" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="1" t="s">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30">
+      <c r="B54" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30">
+      <c r="B55" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="1" t="s">
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="B56" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="1" t="s">
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="B57" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="1" t="s">
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30">
+      <c r="B58" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" t="s">
-        <v>705</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="1" t="s">
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30">
+      <c r="B59" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" t="s">
-        <v>705</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="30">
-      <c r="B54" s="1" t="s">
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
+      <c r="B60" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="30">
-      <c r="B55" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="30">
-      <c r="B56" s="1" t="s">
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30">
+      <c r="B61" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="30">
-      <c r="B57" s="1" t="s">
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30">
+      <c r="B62" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="30">
-      <c r="B58" s="1" t="s">
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30">
+      <c r="B63" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="30">
-      <c r="B59" s="1" t="s">
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="30">
-      <c r="B60" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="30">
-      <c r="B61" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="30">
-      <c r="B62" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="30">
-      <c r="B63" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="30">
-      <c r="B64" s="1" t="s">
-        <v>1459</v>
-      </c>
       <c r="C64" t="s">
         <v>72</v>
       </c>
@@ -26021,12 +26021,12 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="1" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -26041,12 +26041,12 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="1" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -26061,12 +26061,12 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="1" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
@@ -26081,12 +26081,12 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="1" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -26101,12 +26101,12 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="1" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -26121,12 +26121,12 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="1" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -26141,12 +26141,12 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="1" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -26161,12 +26161,12 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="1" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -26181,12 +26181,12 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="1" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
@@ -26201,12 +26201,12 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="1" t="s">
-        <v>1478</v>
+        <v>1455</v>
       </c>
       <c r="C74" t="s">
         <v>72</v>
@@ -26221,12 +26221,12 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="1" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -26241,12 +26241,12 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="1" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
@@ -26261,12 +26261,12 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="1" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -26281,12 +26281,12 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="1" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -26301,12 +26301,12 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="1" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="C79" t="s">
         <v>72</v>
@@ -26321,12 +26321,12 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="1" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="C80" t="s">
         <v>72</v>
@@ -26341,12 +26341,12 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
@@ -26361,12 +26361,12 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="C82" t="s">
         <v>72</v>
@@ -26381,12 +26381,12 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C83" t="s">
         <v>72</v>
@@ -26401,18 +26401,18 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>705</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -26421,38 +26421,38 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>631</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>1480</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>705</v>
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>631</v>
-      </c>
       <c r="B86" s="1" t="s">
-        <v>44</v>
+        <v>1537</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -26461,15 +26461,15 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>1481</v>
+        <v>1538</v>
       </c>
       <c r="C87" t="s">
         <v>72</v>
@@ -26484,12 +26484,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="1" t="s">
-        <v>1482</v>
+        <v>1539</v>
       </c>
       <c r="C88" t="s">
         <v>72</v>
@@ -26504,12 +26504,12 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="B89" s="1" t="s">
-        <v>1483</v>
+        <v>1540</v>
       </c>
       <c r="C89" t="s">
         <v>72</v>
@@ -26524,12 +26524,12 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="1" t="s">
-        <v>1484</v>
+        <v>1541</v>
       </c>
       <c r="C90" t="s">
         <v>72</v>
@@ -26544,12 +26544,12 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" s="1" t="s">
-        <v>1485</v>
+        <v>1542</v>
       </c>
       <c r="C91" t="s">
         <v>72</v>
@@ -26564,12 +26564,12 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="1" t="s">
-        <v>1486</v>
+        <v>1543</v>
       </c>
       <c r="C92" t="s">
         <v>72</v>
@@ -26584,12 +26584,12 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="1" t="s">
-        <v>1487</v>
+        <v>1544</v>
       </c>
       <c r="C93" t="s">
         <v>72</v>
@@ -26604,12 +26604,12 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="1" t="s">
-        <v>1488</v>
+        <v>1545</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
@@ -26624,12 +26624,12 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="1" t="s">
-        <v>1489</v>
+        <v>1546</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -26644,12 +26644,12 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="1" t="s">
-        <v>1490</v>
+        <v>1547</v>
       </c>
       <c r="C96" t="s">
         <v>72</v>
@@ -26664,12 +26664,12 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="1" t="s">
-        <v>1491</v>
+        <v>1548</v>
       </c>
       <c r="C97" t="s">
         <v>72</v>
@@ -26684,12 +26684,12 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="1" t="s">
-        <v>1492</v>
+        <v>1549</v>
       </c>
       <c r="C98" t="s">
         <v>72</v>
@@ -26704,12 +26704,12 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="1" t="s">
-        <v>1493</v>
+        <v>1550</v>
       </c>
       <c r="C99" t="s">
         <v>72</v>
@@ -26724,12 +26724,12 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="1" t="s">
-        <v>1494</v>
+        <v>1551</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
@@ -26744,12 +26744,12 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="1" t="s">
-        <v>1495</v>
+        <v>1552</v>
       </c>
       <c r="C101" t="s">
         <v>72</v>
@@ -26764,12 +26764,12 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="1" t="s">
-        <v>1496</v>
+        <v>1553</v>
       </c>
       <c r="C102" t="s">
         <v>72</v>
@@ -26784,12 +26784,12 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="1" t="s">
-        <v>1497</v>
+        <v>1554</v>
       </c>
       <c r="C103" t="s">
         <v>72</v>
@@ -26804,12 +26804,12 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="1" t="s">
-        <v>1498</v>
+        <v>1555</v>
       </c>
       <c r="C104" t="s">
         <v>72</v>
@@ -26824,12 +26824,12 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="1" t="s">
-        <v>1499</v>
+        <v>1556</v>
       </c>
       <c r="C105" t="s">
         <v>72</v>
@@ -26844,12 +26844,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="1" t="s">
-        <v>1500</v>
+        <v>1557</v>
       </c>
       <c r="C106" t="s">
         <v>72</v>
@@ -26864,12 +26864,12 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="1" t="s">
-        <v>1501</v>
+        <v>1558</v>
       </c>
       <c r="C107" t="s">
         <v>72</v>
@@ -26884,12 +26884,12 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="1" t="s">
-        <v>1502</v>
+        <v>1536</v>
       </c>
       <c r="C108" t="s">
         <v>72</v>
@@ -26904,18 +26904,18 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="1" t="s">
-        <v>1503</v>
+        <v>1475</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>705</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -26924,12 +26924,12 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="1" t="s">
-        <v>1504</v>
+        <v>1476</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -26944,18 +26944,18 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="1" t="s">
-        <v>1505</v>
+        <v>1477</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" t="s">
-        <v>705</v>
+        <v>72</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -26964,12 +26964,12 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="30">
       <c r="B112" s="1" t="s">
-        <v>1506</v>
+        <v>1478</v>
       </c>
       <c r="C112" t="s">
         <v>72</v>
@@ -26984,15 +26984,18 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="30">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>631</v>
+      </c>
       <c r="B113" s="1" t="s">
-        <v>1507</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -27001,18 +27004,15 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" t="s">
-        <v>631</v>
-      </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>1479</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -27024,15 +27024,15 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
-        <v>1508</v>
+        <v>148</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -27047,12 +27047,12 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>148</v>
+        <v>1481</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -27067,12 +27067,12 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
-        <v>1510</v>
+        <v>1480</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -27087,18 +27087,18 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="1" t="s">
-        <v>1509</v>
+        <v>1482</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D118" t="s">
+        <v>705</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -27107,12 +27107,12 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="B119" s="1" t="s">
-        <v>1511</v>
+        <v>1483</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -27127,18 +27127,18 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="B120" s="1" t="s">
-        <v>1512</v>
+        <v>1484</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D120" t="s">
-        <v>705</v>
+        <v>72</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -27147,12 +27147,12 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>1513</v>
+        <v>1485</v>
       </c>
       <c r="C121" t="s">
         <v>72</v>
@@ -27167,12 +27167,12 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="1" t="s">
-        <v>1514</v>
+        <v>1486</v>
       </c>
       <c r="C122" t="s">
         <v>72</v>
@@ -27187,12 +27187,12 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="B123" s="1" t="s">
-        <v>1515</v>
+        <v>1487</v>
       </c>
       <c r="C123" t="s">
         <v>72</v>
@@ -27207,15 +27207,18 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>631</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>1516</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -27224,21 +27227,18 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>631</v>
-      </c>
       <c r="B125" s="1" t="s">
-        <v>44</v>
+        <v>1488</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -27247,15 +27247,15 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="1" t="s">
-        <v>1517</v>
+        <v>1489</v>
       </c>
       <c r="C126" t="s">
         <v>72</v>
@@ -27270,12 +27270,12 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="B127" s="1" t="s">
-        <v>1518</v>
+        <v>1490</v>
       </c>
       <c r="C127" t="s">
         <v>72</v>
@@ -27290,12 +27290,12 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="1" t="s">
-        <v>1519</v>
+        <v>1491</v>
       </c>
       <c r="C128" t="s">
         <v>72</v>
@@ -27310,12 +27310,12 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="1" t="s">
-        <v>1520</v>
+        <v>1492</v>
       </c>
       <c r="C129" t="s">
         <v>72</v>
@@ -27330,12 +27330,12 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="1" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="C130" t="s">
         <v>72</v>
@@ -27350,12 +27350,12 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="1" t="s">
-        <v>1522</v>
+        <v>1494</v>
       </c>
       <c r="C131" t="s">
         <v>72</v>
@@ -27370,12 +27370,12 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="1" t="s">
-        <v>1523</v>
+        <v>1495</v>
       </c>
       <c r="C132" t="s">
         <v>72</v>
@@ -27390,12 +27390,12 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="1" t="s">
-        <v>1524</v>
+        <v>1496</v>
       </c>
       <c r="C133" t="s">
         <v>72</v>
@@ -27410,12 +27410,12 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="1" t="s">
-        <v>1525</v>
+        <v>1497</v>
       </c>
       <c r="C134" t="s">
         <v>72</v>
@@ -27430,12 +27430,12 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="1" t="s">
-        <v>1526</v>
+        <v>1498</v>
       </c>
       <c r="C135" t="s">
         <v>72</v>
@@ -27450,12 +27450,12 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="1" t="s">
-        <v>1527</v>
+        <v>1499</v>
       </c>
       <c r="C136" t="s">
         <v>72</v>
@@ -27470,12 +27470,12 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="1" t="s">
-        <v>1528</v>
+        <v>1500</v>
       </c>
       <c r="C137" t="s">
         <v>72</v>
@@ -27490,12 +27490,12 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="1" t="s">
-        <v>1529</v>
+        <v>1501</v>
       </c>
       <c r="C138" t="s">
         <v>72</v>
@@ -27510,35 +27510,35 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
         <v>1530</v>
-      </c>
-      <c r="C139" t="s">
-        <v>72</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="1" t="s">
-        <v>1531</v>
+        <v>1503</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -27550,12 +27550,12 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="1" t="s">
-        <v>1532</v>
+        <v>1504</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -27570,73 +27570,73 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="30">
+      <c r="B142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="30">
+      <c r="B144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="B145" s="1" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" ht="30">
-      <c r="B143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10">
-      <c r="B144" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="30">
-      <c r="B145" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
@@ -27648,9 +27648,6 @@
       </c>
       <c r="G145">
         <v>1</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -27673,12 +27670,12 @@
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="B147" s="1" t="s">
-        <v>1535</v>
+        <v>1506</v>
       </c>
       <c r="C147" t="s">
         <v>72</v>
@@ -27693,12 +27690,12 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="B148" s="1" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="C148" t="s">
         <v>72</v>
@@ -27713,12 +27710,12 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="B149" s="1" t="s">
-        <v>1537</v>
+        <v>1508</v>
       </c>
       <c r="C149" t="s">
         <v>72</v>
@@ -27733,12 +27730,12 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="B150" s="1" t="s">
-        <v>1538</v>
+        <v>1509</v>
       </c>
       <c r="C150" t="s">
         <v>72</v>
@@ -27753,12 +27750,12 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="B151" s="1" t="s">
-        <v>1539</v>
+        <v>1510</v>
       </c>
       <c r="C151" t="s">
         <v>72</v>
@@ -27773,12 +27770,12 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="B152" s="1" t="s">
-        <v>1540</v>
+        <v>1511</v>
       </c>
       <c r="C152" t="s">
         <v>72</v>
@@ -27793,12 +27790,12 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="B153" s="1" t="s">
-        <v>1541</v>
+        <v>1512</v>
       </c>
       <c r="C153" t="s">
         <v>72</v>
@@ -27813,12 +27810,12 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="B154" s="1" t="s">
-        <v>1542</v>
+        <v>1513</v>
       </c>
       <c r="C154" t="s">
         <v>72</v>
@@ -27833,12 +27830,12 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="B155" s="1" t="s">
-        <v>1543</v>
+        <v>1514</v>
       </c>
       <c r="C155" t="s">
         <v>72</v>
@@ -27853,12 +27850,12 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="B156" s="1" t="s">
-        <v>1544</v>
+        <v>1515</v>
       </c>
       <c r="C156" t="s">
         <v>72</v>
@@ -27873,12 +27870,12 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="B157" s="1" t="s">
-        <v>1545</v>
+        <v>1516</v>
       </c>
       <c r="C157" t="s">
         <v>72</v>
@@ -27893,12 +27890,12 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="B158" s="1" t="s">
-        <v>1546</v>
+        <v>1517</v>
       </c>
       <c r="C158" t="s">
         <v>72</v>
@@ -27913,12 +27910,12 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
-        <v>1547</v>
+        <v>1518</v>
       </c>
       <c r="C159" t="s">
         <v>72</v>
@@ -27933,12 +27930,12 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>1548</v>
+        <v>1519</v>
       </c>
       <c r="C160" t="s">
         <v>72</v>
@@ -27953,12 +27950,12 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>1549</v>
+        <v>1520</v>
       </c>
       <c r="C161" t="s">
         <v>72</v>
@@ -27973,12 +27970,12 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>1550</v>
+        <v>1521</v>
       </c>
       <c r="C162" t="s">
         <v>72</v>
@@ -27993,12 +27990,12 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>1551</v>
+        <v>1522</v>
       </c>
       <c r="C163" t="s">
         <v>72</v>
@@ -28013,12 +28010,12 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
-        <v>1552</v>
+        <v>1523</v>
       </c>
       <c r="C164" t="s">
         <v>72</v>
@@ -28033,12 +28030,12 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="B165" s="1" t="s">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="C165" t="s">
         <v>72</v>
@@ -28053,12 +28050,12 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="B166" s="1" t="s">
-        <v>1554</v>
+        <v>1525</v>
       </c>
       <c r="C166" t="s">
         <v>72</v>
@@ -28073,12 +28070,12 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="B167" s="1" t="s">
-        <v>1555</v>
+        <v>1526</v>
       </c>
       <c r="C167" t="s">
         <v>72</v>
@@ -28093,12 +28090,12 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="B168" s="1" t="s">
-        <v>1556</v>
+        <v>1527</v>
       </c>
       <c r="C168" t="s">
         <v>72</v>
@@ -28113,12 +28110,12 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="B169" s="1" t="s">
-        <v>1557</v>
+        <v>1528</v>
       </c>
       <c r="C169" t="s">
         <v>72</v>
@@ -28133,12 +28130,12 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="B170" s="1" t="s">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="C170" t="s">
         <v>31</v>
@@ -28153,7 +28150,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -28176,7 +28173,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="11" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1536">
   <si>
     <t>Name</t>
   </si>
@@ -4146,81 +4146,6 @@
     <t>clickp10</t>
   </si>
   <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[1]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[2]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[3]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[4]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[5]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[6]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[7]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[8]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[9]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[10]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[11]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[12]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[13]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[14]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[15]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[16]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[1]//md-checkbox[17]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[2]//md-checkbox</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[3]//md-checkbox</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//div[4]//md-checkbox</t>
-  </si>
-  <si>
-    <t>(//form[@name="treatmentPlanPT"]//textarea)[1]</t>
-  </si>
-  <si>
-    <t>(//form[@name="treatmentPlanPT"]//textarea)[2]</t>
-  </si>
-  <si>
-    <t>(//form[@name="treatmentPlanPT"]//textarea)[3]</t>
-  </si>
-  <si>
-    <t>(//form[@name="treatmentPlanPT"]//textarea)[4]</t>
-  </si>
-  <si>
-    <t>(//form[@name="treatmentPlanPT"]//textarea)[5]</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-content/md-toolbar[2]/button</t>
   </si>
   <si>
@@ -4717,6 +4642,9 @@
   </si>
   <si>
     <t>//md-backdrop</t>
+  </si>
+  <si>
+    <t>//form[@name="interventions"]//md-select</t>
   </si>
 </sst>
 </file>
@@ -24599,7 +24527,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24624,7 +24552,7 @@
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>1396</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24632,7 +24560,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -24649,12 +24577,12 @@
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -24669,12 +24597,12 @@
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -24689,7 +24617,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -24702,7 +24630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="C145" sqref="C145:G145"/>
     </sheetView>
   </sheetViews>
@@ -24745,10 +24673,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -24763,12 +24691,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -24783,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24806,15 +24734,15 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -24829,12 +24757,12 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -24849,12 +24777,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -24869,12 +24797,12 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -24889,12 +24817,12 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -24909,12 +24837,12 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -24929,12 +24857,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -24949,12 +24877,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -24969,12 +24897,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -24989,12 +24917,12 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -25009,12 +24937,12 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -25029,12 +24957,12 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -25049,12 +24977,12 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -25069,12 +24997,12 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -25089,12 +25017,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="1" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -25109,12 +25037,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="1" t="s">
-        <v>1419</v>
+        <v>1394</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -25129,12 +25057,12 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="1" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -25149,12 +25077,12 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="1" t="s">
-        <v>1421</v>
+        <v>1396</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -25169,12 +25097,12 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -25189,12 +25117,12 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -25209,12 +25137,12 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -25229,7 +25157,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -25252,12 +25180,12 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -25272,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -25295,12 +25223,12 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="B29" s="1" t="s">
-        <v>1532</v>
+        <v>1507</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -25315,12 +25243,12 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="B30" s="1" t="s">
-        <v>1533</v>
+        <v>1508</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -25335,12 +25263,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="B31" s="1" t="s">
-        <v>1534</v>
+        <v>1509</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -25355,12 +25283,12 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="B32" s="1" t="s">
-        <v>1535</v>
+        <v>1510</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -25375,12 +25303,12 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
       <c r="B33" s="1" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -25395,12 +25323,12 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -25415,12 +25343,12 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -25435,12 +25363,12 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="1" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -25455,12 +25383,12 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
-        <v>1431</v>
+        <v>1406</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -25475,12 +25403,12 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -25495,12 +25423,12 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -25515,12 +25443,12 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -25535,12 +25463,12 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="1" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -25555,7 +25483,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -25578,12 +25506,12 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>1435</v>
+        <v>1410</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
@@ -25598,12 +25526,12 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
@@ -25618,12 +25546,12 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
       <c r="C45" t="s">
         <v>72</v>
@@ -25638,12 +25566,12 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
@@ -25658,12 +25586,12 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>1439</v>
+        <v>1414</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -25678,12 +25606,12 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="C48" t="s">
         <v>72</v>
@@ -25698,12 +25626,12 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
@@ -25718,12 +25646,12 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
-        <v>1442</v>
+        <v>1417</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
@@ -25738,12 +25666,12 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -25758,7 +25686,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -25781,12 +25709,12 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="B53" s="1" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
       <c r="C53" t="s">
         <v>72</v>
@@ -25801,12 +25729,12 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="B54" s="1" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -25821,12 +25749,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="B55" s="1" t="s">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
@@ -25841,12 +25769,12 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
       <c r="B56" s="1" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
@@ -25861,12 +25789,12 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="B57" s="1" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
@@ -25881,12 +25809,12 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="B58" s="1" t="s">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
@@ -25901,12 +25829,12 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="B59" s="1" t="s">
-        <v>1449</v>
+        <v>1424</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
@@ -25921,12 +25849,12 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="B60" s="1" t="s">
-        <v>1450</v>
+        <v>1425</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -25941,12 +25869,12 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="B61" s="1" t="s">
-        <v>1451</v>
+        <v>1426</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
@@ -25961,12 +25889,12 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
       <c r="B62" s="1" t="s">
-        <v>1452</v>
+        <v>1427</v>
       </c>
       <c r="C62" t="s">
         <v>72</v>
@@ -25981,12 +25909,12 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="B63" s="1" t="s">
-        <v>1453</v>
+        <v>1428</v>
       </c>
       <c r="C63" t="s">
         <v>72</v>
@@ -26001,12 +25929,12 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="1" t="s">
-        <v>1454</v>
+        <v>1429</v>
       </c>
       <c r="C64" t="s">
         <v>72</v>
@@ -26021,12 +25949,12 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="1" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -26041,12 +25969,12 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="1" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -26061,12 +25989,12 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="1" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
@@ -26081,12 +26009,12 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="1" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -26101,12 +26029,12 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="1" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -26121,12 +26049,12 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="1" t="s">
-        <v>1461</v>
+        <v>1436</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -26141,12 +26069,12 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="1" t="s">
-        <v>1462</v>
+        <v>1437</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -26161,12 +26089,12 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="1" t="s">
-        <v>1463</v>
+        <v>1438</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -26181,12 +26109,12 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="1" t="s">
-        <v>1472</v>
+        <v>1447</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
@@ -26201,12 +26129,12 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="1" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
       <c r="C74" t="s">
         <v>72</v>
@@ -26221,12 +26149,12 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="1" t="s">
-        <v>1464</v>
+        <v>1439</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -26241,12 +26169,12 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="1" t="s">
-        <v>1465</v>
+        <v>1440</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
@@ -26261,12 +26189,12 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="1" t="s">
-        <v>1466</v>
+        <v>1441</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -26281,12 +26209,12 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="1" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -26301,12 +26229,12 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="1" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="C79" t="s">
         <v>72</v>
@@ -26321,12 +26249,12 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="1" t="s">
-        <v>1469</v>
+        <v>1444</v>
       </c>
       <c r="C80" t="s">
         <v>72</v>
@@ -26341,12 +26269,12 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
-        <v>1470</v>
+        <v>1445</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
@@ -26361,12 +26289,12 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>1471</v>
+        <v>1446</v>
       </c>
       <c r="C82" t="s">
         <v>72</v>
@@ -26381,12 +26309,12 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>1473</v>
+        <v>1448</v>
       </c>
       <c r="C83" t="s">
         <v>72</v>
@@ -26401,12 +26329,12 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>1474</v>
+        <v>1449</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
@@ -26421,7 +26349,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -26444,12 +26372,12 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="1" t="s">
-        <v>1537</v>
+        <v>1512</v>
       </c>
       <c r="C86" t="s">
         <v>72</v>
@@ -26464,12 +26392,12 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>1538</v>
+        <v>1513</v>
       </c>
       <c r="C87" t="s">
         <v>72</v>
@@ -26484,12 +26412,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="1" t="s">
-        <v>1539</v>
+        <v>1514</v>
       </c>
       <c r="C88" t="s">
         <v>72</v>
@@ -26504,12 +26432,12 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="B89" s="1" t="s">
-        <v>1540</v>
+        <v>1515</v>
       </c>
       <c r="C89" t="s">
         <v>72</v>
@@ -26524,12 +26452,12 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="1" t="s">
-        <v>1541</v>
+        <v>1516</v>
       </c>
       <c r="C90" t="s">
         <v>72</v>
@@ -26544,12 +26472,12 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" s="1" t="s">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="C91" t="s">
         <v>72</v>
@@ -26564,12 +26492,12 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="1" t="s">
-        <v>1543</v>
+        <v>1518</v>
       </c>
       <c r="C92" t="s">
         <v>72</v>
@@ -26584,12 +26512,12 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="1" t="s">
-        <v>1544</v>
+        <v>1519</v>
       </c>
       <c r="C93" t="s">
         <v>72</v>
@@ -26604,12 +26532,12 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="1" t="s">
-        <v>1545</v>
+        <v>1520</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
@@ -26624,12 +26552,12 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="1" t="s">
-        <v>1546</v>
+        <v>1521</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -26644,12 +26572,12 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="1" t="s">
-        <v>1547</v>
+        <v>1522</v>
       </c>
       <c r="C96" t="s">
         <v>72</v>
@@ -26664,12 +26592,12 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="1" t="s">
-        <v>1548</v>
+        <v>1523</v>
       </c>
       <c r="C97" t="s">
         <v>72</v>
@@ -26684,12 +26612,12 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="1" t="s">
-        <v>1549</v>
+        <v>1524</v>
       </c>
       <c r="C98" t="s">
         <v>72</v>
@@ -26704,12 +26632,12 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="1" t="s">
-        <v>1550</v>
+        <v>1525</v>
       </c>
       <c r="C99" t="s">
         <v>72</v>
@@ -26724,12 +26652,12 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="1" t="s">
-        <v>1551</v>
+        <v>1526</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
@@ -26744,12 +26672,12 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="1" t="s">
-        <v>1552</v>
+        <v>1527</v>
       </c>
       <c r="C101" t="s">
         <v>72</v>
@@ -26764,12 +26692,12 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="1" t="s">
-        <v>1553</v>
+        <v>1528</v>
       </c>
       <c r="C102" t="s">
         <v>72</v>
@@ -26784,12 +26712,12 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="1" t="s">
-        <v>1554</v>
+        <v>1529</v>
       </c>
       <c r="C103" t="s">
         <v>72</v>
@@ -26804,12 +26732,12 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="1" t="s">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="C104" t="s">
         <v>72</v>
@@ -26824,12 +26752,12 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="1" t="s">
-        <v>1556</v>
+        <v>1531</v>
       </c>
       <c r="C105" t="s">
         <v>72</v>
@@ -26844,12 +26772,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="1" t="s">
-        <v>1557</v>
+        <v>1532</v>
       </c>
       <c r="C106" t="s">
         <v>72</v>
@@ -26864,12 +26792,12 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="1" t="s">
-        <v>1558</v>
+        <v>1533</v>
       </c>
       <c r="C107" t="s">
         <v>72</v>
@@ -26884,12 +26812,12 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="1" t="s">
-        <v>1536</v>
+        <v>1511</v>
       </c>
       <c r="C108" t="s">
         <v>72</v>
@@ -26904,12 +26832,12 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="1" t="s">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -26924,12 +26852,12 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="1" t="s">
-        <v>1476</v>
+        <v>1451</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -26944,12 +26872,12 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="30">
       <c r="B111" s="1" t="s">
-        <v>1477</v>
+        <v>1452</v>
       </c>
       <c r="C111" t="s">
         <v>72</v>
@@ -26964,12 +26892,12 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="30">
       <c r="B112" s="1" t="s">
-        <v>1478</v>
+        <v>1453</v>
       </c>
       <c r="C112" t="s">
         <v>72</v>
@@ -26984,7 +26912,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -27007,12 +26935,12 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="B114" s="1" t="s">
-        <v>1479</v>
+        <v>1454</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -27027,10 +26955,10 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="30">
       <c r="B115" s="1" t="s">
         <v>148</v>
       </c>
@@ -27047,12 +26975,12 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>1481</v>
+        <v>1456</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -27067,12 +26995,12 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
-        <v>1480</v>
+        <v>1455</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -27087,12 +27015,12 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="1" t="s">
-        <v>1482</v>
+        <v>1457</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -27107,12 +27035,12 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="B119" s="1" t="s">
-        <v>1483</v>
+        <v>1458</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -27127,12 +27055,12 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="B120" s="1" t="s">
-        <v>1484</v>
+        <v>1459</v>
       </c>
       <c r="C120" t="s">
         <v>72</v>
@@ -27147,12 +27075,12 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>1485</v>
+        <v>1460</v>
       </c>
       <c r="C121" t="s">
         <v>72</v>
@@ -27167,12 +27095,12 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="1" t="s">
-        <v>1486</v>
+        <v>1461</v>
       </c>
       <c r="C122" t="s">
         <v>72</v>
@@ -27187,12 +27115,12 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="B123" s="1" t="s">
-        <v>1487</v>
+        <v>1462</v>
       </c>
       <c r="C123" t="s">
         <v>72</v>
@@ -27207,7 +27135,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -27230,12 +27158,12 @@
         <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="B125" s="1" t="s">
-        <v>1488</v>
+        <v>1463</v>
       </c>
       <c r="C125" t="s">
         <v>72</v>
@@ -27250,12 +27178,12 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="1" t="s">
-        <v>1489</v>
+        <v>1464</v>
       </c>
       <c r="C126" t="s">
         <v>72</v>
@@ -27270,12 +27198,12 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="B127" s="1" t="s">
-        <v>1490</v>
+        <v>1465</v>
       </c>
       <c r="C127" t="s">
         <v>72</v>
@@ -27290,12 +27218,12 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="1" t="s">
-        <v>1491</v>
+        <v>1466</v>
       </c>
       <c r="C128" t="s">
         <v>72</v>
@@ -27310,12 +27238,12 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="1" t="s">
-        <v>1492</v>
+        <v>1467</v>
       </c>
       <c r="C129" t="s">
         <v>72</v>
@@ -27330,12 +27258,12 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="1" t="s">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="C130" t="s">
         <v>72</v>
@@ -27350,12 +27278,12 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="1" t="s">
-        <v>1494</v>
+        <v>1469</v>
       </c>
       <c r="C131" t="s">
         <v>72</v>
@@ -27370,12 +27298,12 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="1" t="s">
-        <v>1495</v>
+        <v>1470</v>
       </c>
       <c r="C132" t="s">
         <v>72</v>
@@ -27390,12 +27318,12 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="1" t="s">
-        <v>1496</v>
+        <v>1471</v>
       </c>
       <c r="C133" t="s">
         <v>72</v>
@@ -27410,12 +27338,12 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="1" t="s">
-        <v>1497</v>
+        <v>1472</v>
       </c>
       <c r="C134" t="s">
         <v>72</v>
@@ -27430,12 +27358,12 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="1" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="C135" t="s">
         <v>72</v>
@@ -27450,12 +27378,12 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="1" t="s">
-        <v>1499</v>
+        <v>1474</v>
       </c>
       <c r="C136" t="s">
         <v>72</v>
@@ -27470,12 +27398,12 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="1" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="C137" t="s">
         <v>72</v>
@@ -27490,12 +27418,12 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="1" t="s">
-        <v>1501</v>
+        <v>1476</v>
       </c>
       <c r="C138" t="s">
         <v>72</v>
@@ -27510,12 +27438,12 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="1" t="s">
-        <v>1502</v>
+        <v>1477</v>
       </c>
       <c r="C139" t="s">
         <v>72</v>
@@ -27530,12 +27458,12 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="30">
       <c r="B140" s="1" t="s">
-        <v>1503</v>
+        <v>1478</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -27550,12 +27478,12 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="1" t="s">
-        <v>1504</v>
+        <v>1479</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -27570,7 +27498,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="30">
@@ -27590,27 +27518,27 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
         <v>1505</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="30">
@@ -27630,12 +27558,12 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="B145" s="1" t="s">
-        <v>1559</v>
+        <v>1534</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -27670,12 +27598,12 @@
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="B147" s="1" t="s">
-        <v>1506</v>
+        <v>1481</v>
       </c>
       <c r="C147" t="s">
         <v>72</v>
@@ -27690,12 +27618,12 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="B148" s="1" t="s">
-        <v>1507</v>
+        <v>1482</v>
       </c>
       <c r="C148" t="s">
         <v>72</v>
@@ -27710,12 +27638,12 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="B149" s="1" t="s">
-        <v>1508</v>
+        <v>1483</v>
       </c>
       <c r="C149" t="s">
         <v>72</v>
@@ -27730,12 +27658,12 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="B150" s="1" t="s">
-        <v>1509</v>
+        <v>1484</v>
       </c>
       <c r="C150" t="s">
         <v>72</v>
@@ -27750,12 +27678,12 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="B151" s="1" t="s">
-        <v>1510</v>
+        <v>1485</v>
       </c>
       <c r="C151" t="s">
         <v>72</v>
@@ -27770,12 +27698,12 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="B152" s="1" t="s">
-        <v>1511</v>
+        <v>1486</v>
       </c>
       <c r="C152" t="s">
         <v>72</v>
@@ -27790,12 +27718,12 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="B153" s="1" t="s">
-        <v>1512</v>
+        <v>1487</v>
       </c>
       <c r="C153" t="s">
         <v>72</v>
@@ -27810,12 +27738,12 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="B154" s="1" t="s">
-        <v>1513</v>
+        <v>1488</v>
       </c>
       <c r="C154" t="s">
         <v>72</v>
@@ -27830,12 +27758,12 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="B155" s="1" t="s">
-        <v>1514</v>
+        <v>1489</v>
       </c>
       <c r="C155" t="s">
         <v>72</v>
@@ -27850,12 +27778,12 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="B156" s="1" t="s">
-        <v>1515</v>
+        <v>1490</v>
       </c>
       <c r="C156" t="s">
         <v>72</v>
@@ -27870,12 +27798,12 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="B157" s="1" t="s">
-        <v>1516</v>
+        <v>1491</v>
       </c>
       <c r="C157" t="s">
         <v>72</v>
@@ -27890,12 +27818,12 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="B158" s="1" t="s">
-        <v>1517</v>
+        <v>1492</v>
       </c>
       <c r="C158" t="s">
         <v>72</v>
@@ -27910,12 +27838,12 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="C159" t="s">
         <v>72</v>
@@ -27930,12 +27858,12 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>1519</v>
+        <v>1494</v>
       </c>
       <c r="C160" t="s">
         <v>72</v>
@@ -27950,12 +27878,12 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>1520</v>
+        <v>1495</v>
       </c>
       <c r="C161" t="s">
         <v>72</v>
@@ -27970,12 +27898,12 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>1521</v>
+        <v>1496</v>
       </c>
       <c r="C162" t="s">
         <v>72</v>
@@ -27990,12 +27918,12 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>1522</v>
+        <v>1497</v>
       </c>
       <c r="C163" t="s">
         <v>72</v>
@@ -28010,12 +27938,12 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
-        <v>1523</v>
+        <v>1498</v>
       </c>
       <c r="C164" t="s">
         <v>72</v>
@@ -28030,12 +27958,12 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="B165" s="1" t="s">
-        <v>1524</v>
+        <v>1499</v>
       </c>
       <c r="C165" t="s">
         <v>72</v>
@@ -28050,12 +27978,12 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="B166" s="1" t="s">
-        <v>1525</v>
+        <v>1500</v>
       </c>
       <c r="C166" t="s">
         <v>72</v>
@@ -28070,12 +27998,12 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="B167" s="1" t="s">
-        <v>1526</v>
+        <v>1501</v>
       </c>
       <c r="C167" t="s">
         <v>72</v>
@@ -28090,12 +28018,12 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="B168" s="1" t="s">
-        <v>1527</v>
+        <v>1502</v>
       </c>
       <c r="C168" t="s">
         <v>72</v>
@@ -28110,12 +28038,12 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="B169" s="1" t="s">
-        <v>1528</v>
+        <v>1503</v>
       </c>
       <c r="C169" t="s">
         <v>72</v>
@@ -28130,12 +28058,12 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="B170" s="1" t="s">
-        <v>1529</v>
+        <v>1504</v>
       </c>
       <c r="C170" t="s">
         <v>31</v>
@@ -28150,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -28173,7 +28101,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -28355,10 +28283,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -31152,456 +31080,173 @@
     </row>
     <row r="125" spans="1:10" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>1369</v>
+        <v>1535</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D125" s="3"/>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
       <c r="J125" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>1370</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D126" s="3"/>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
       <c r="J126" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A127" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B127" s="2" t="s">
-        <v>1371</v>
+        <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B128" s="2" t="s">
-        <v>1372</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="G128" s="2">
+        <v>3</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="26.25" customHeight="1">
+    <row r="129" spans="1:10" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>1373</v>
+        <v>310</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>2</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="26.25" customHeight="1">
+    <row r="130" spans="1:10" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>1374</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>2</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="26.25" customHeight="1">
+    <row r="131" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B131" s="2" t="s">
-        <v>1375</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B132" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>72</v>
+    <row r="132" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B133" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B134" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B135" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B136" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B137" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B138" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B139" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B140" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B141" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B142" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B143" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B144" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B145" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B146" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B147" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B148" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B149" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B150" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B151" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B152" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="2">
-        <v>1</v>
-      </c>
-      <c r="F153" s="2">
-        <v>1</v>
-      </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A154" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="G154" s="2">
-        <v>3</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B155" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="2">
-        <v>0</v>
-      </c>
-      <c r="G155" s="2">
-        <v>2</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B156" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="2">
-        <v>0</v>
-      </c>
-      <c r="G156" s="2">
-        <v>2</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A157" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2">
-        <v>1</v>
-      </c>
-      <c r="G157" s="2">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1">
-        <v>1</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="1">
-        <v>1</v>
-      </c>
-      <c r="J158" s="2" t="s">
         <v>490</v>
       </c>
     </row>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="12" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="Musculoskeletal" sheetId="22" r:id="rId22"/>
     <sheet name="NoteSubmit" sheetId="23" r:id="rId23"/>
     <sheet name="Supportive" sheetId="24" r:id="rId24"/>
+    <sheet name="Subjective" sheetId="25" r:id="rId25"/>
+    <sheet name="Objective" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="1540">
   <si>
     <t>Name</t>
   </si>
@@ -4645,6 +4647,18 @@
   </si>
   <si>
     <t>//form[@name="interventions"]//md-select</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Subjective")]</t>
+  </si>
+  <si>
+    <t>//form[@name="subjectEval"]//textarea</t>
+  </si>
+  <si>
+    <t>Fail to open Subjective Notes</t>
+  </si>
+  <si>
+    <t>Fail to complete subjective notes</t>
   </si>
 </sst>
 </file>
@@ -24630,8 +24644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145:G145"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15"/>
@@ -28107,6 +28121,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28285,7 +28468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="1541">
   <si>
     <t>Name</t>
   </si>
@@ -4659,6 +4659,9 @@
   </si>
   <si>
     <t>Fail to complete subjective notes</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Objective")]</t>
   </si>
 </sst>
 </file>
@@ -28129,7 +28132,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28242,10 +28245,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28286,6 +28289,29 @@
       </c>
       <c r="J1" s="6" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1538</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="12" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="17" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,17 @@
     <sheet name="Supportive" sheetId="24" r:id="rId24"/>
     <sheet name="Subjective" sheetId="25" r:id="rId25"/>
     <sheet name="Objective" sheetId="26" r:id="rId26"/>
+    <sheet name="Wound" sheetId="27" r:id="rId27"/>
+    <sheet name="TreatmentPlanning" sheetId="28" r:id="rId28"/>
+    <sheet name="AssessmentSummary" sheetId="29" r:id="rId29"/>
+    <sheet name="ICD10" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="1722">
   <si>
     <t>Name</t>
   </si>
@@ -4662,6 +4666,549 @@
   </si>
   <si>
     <t>//button[contains(@aria-label,"Objective")]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//textarea)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="rom"]//textarea)[5]</t>
+  </si>
+  <si>
+    <t>Fail to complete objective notes</t>
+  </si>
+  <si>
+    <t>(//form[@name="mobility"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="mobility"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="mobility"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="mobility"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="mobility"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//md-select)[14]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"WoundNotepart")]</t>
+  </si>
+  <si>
+    <t>Fail to open wound notes</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//input)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//input)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//canvas)</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//textarea)[4]</t>
+  </si>
+  <si>
+    <t>Fail to complete wound notes</t>
+  </si>
+  <si>
+    <t>(//form[@name="0"]//button[@ng-click="vm.saveCanvas()"])</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Treatmentplanning")]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="treatment"]//md-radio-group)[4]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-radio-group)[1]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-radio-group)[2]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-radio-group)[3]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="education"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="planning"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>Fail to complete Treatment Planning Notes</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-radio-group)//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="careCoordination"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="allergyProfile"]//md-radio-group)//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="medications"]//div[@ng-click="vm.showList()"])</t>
+  </si>
+  <si>
+    <t>(//form[@name="medications"]//button[@aria-label="+Add New"])</t>
+  </si>
+  <si>
+    <t>(//form[@name="transfer"]//textarea)</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//textarea)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//textarea)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="gait"]//textarea)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="wheelchairMobility"]//md-checkbox)</t>
+  </si>
+  <si>
+    <t>(//form[@name="wheelchairMobility"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="wheelchairMobility"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="wheelchairMobility"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="wheelchairMobility"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-checkbox)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="balance"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fallRisk"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fallRisk"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="fallRisk"]//input)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//md-checkbox)</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//input)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="exercise"]//textarea)[2]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Assessment")]</t>
+  </si>
+  <si>
+    <t>Fail to open Assessment Summary</t>
+  </si>
+  <si>
+    <t>//form[@name="clinicalFinding"]//textarea</t>
+  </si>
+  <si>
+    <t>Fail to complete Assessment Summary Notes</t>
+  </si>
+  <si>
+    <t>//form[@name="rehabPotential"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="rehabPotential"]//textarea</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[1]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[2]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//textarea)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-tab-item)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[3]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[4]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-tab-item)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[5]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[6]</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-tab-item)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[6]//md-radio-button</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-select)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@name="teaching"]//md-radio-group)[7]//md-radio-button</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Icdcoding")]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1011"]//input)[6]</t>
+  </si>
+  <si>
+    <t>Fail to open icd10 codes</t>
+  </si>
+  <si>
+    <t>Fail to complete CD10 Codes</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1017"]//input)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1021"]//input)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1021"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1021"]//md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1021"]//input)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@name="m1021"]//input)[4]</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container//li[1]</t>
   </si>
 </sst>
 </file>
@@ -18431,8 +18978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="16.5" customHeight="1"/>
@@ -20736,9 +21283,15 @@
         <v>72</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
       <c r="H113" s="2"/>
       <c r="J113" s="2" t="s">
         <v>959</v>
@@ -20753,9 +21306,15 @@
         <v>72</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="J114" s="2" t="s">
         <v>959</v>
@@ -20770,9 +21329,15 @@
         <v>72</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
       <c r="H115" s="2"/>
       <c r="J115" s="2" t="s">
         <v>959</v>
@@ -20787,9 +21352,15 @@
         <v>72</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
       <c r="H116" s="2"/>
       <c r="J116" s="2" t="s">
         <v>959</v>
@@ -20804,9 +21375,15 @@
         <v>72</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
       <c r="H117" s="2"/>
       <c r="J117" s="2" t="s">
         <v>959</v>
@@ -20821,9 +21398,15 @@
         <v>72</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="J118" s="2" t="s">
         <v>959</v>
@@ -20910,9 +21493,7 @@
       <c r="E122" s="2">
         <v>1</v>
       </c>
-      <c r="F122" s="2">
-        <v>1</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2">
         <v>1</v>
       </c>
@@ -20932,9 +21513,13 @@
         <v>72</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2">
+        <v>1</v>
+      </c>
       <c r="H123" s="2"/>
       <c r="J123" s="2" t="s">
         <v>959</v>
@@ -20951,9 +21536,13 @@
         <v>72</v>
       </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
       <c r="H124" s="2"/>
       <c r="J124" s="2" t="s">
         <v>959</v>
@@ -20968,9 +21557,13 @@
         <v>72</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
       <c r="H125" s="2"/>
       <c r="J125" s="2" t="s">
         <v>959</v>
@@ -20985,9 +21578,13 @@
         <v>72</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
       <c r="H126" s="2"/>
       <c r="J126" s="2" t="s">
         <v>959</v>
@@ -21002,9 +21599,13 @@
         <v>72</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="J127" s="2" t="s">
         <v>959</v>
@@ -21019,9 +21620,13 @@
         <v>72</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="J128" s="2" t="s">
         <v>959</v>
@@ -21036,9 +21641,13 @@
         <v>72</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="J129" s="2" t="s">
         <v>959</v>
@@ -21053,9 +21662,13 @@
         <v>72</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
+      <c r="G130" s="2">
+        <v>1</v>
+      </c>
       <c r="H130" s="2"/>
       <c r="J130" s="2" t="s">
         <v>959</v>
@@ -21118,9 +21731,13 @@
         <v>72</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="J133" s="2" t="s">
         <v>985</v>
@@ -21135,9 +21752,13 @@
         <v>72</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="J134" s="2" t="s">
         <v>987</v>
@@ -21152,9 +21773,13 @@
         <v>72</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="J135" s="2" t="s">
         <v>987</v>
@@ -21169,9 +21794,13 @@
         <v>72</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
+      <c r="G136" s="2">
+        <v>1</v>
+      </c>
       <c r="H136" s="2"/>
       <c r="J136" s="2" t="s">
         <v>987</v>
@@ -21186,9 +21815,13 @@
         <v>72</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
       <c r="H137" s="2"/>
       <c r="J137" s="2" t="s">
         <v>987</v>
@@ -21203,9 +21836,13 @@
         <v>72</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
       <c r="H138" s="2"/>
       <c r="J138" s="2" t="s">
         <v>987</v>
@@ -21220,9 +21857,13 @@
         <v>72</v>
       </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
+      <c r="G139" s="2">
+        <v>1</v>
+      </c>
       <c r="H139" s="2"/>
       <c r="J139" s="2" t="s">
         <v>987</v>
@@ -21237,9 +21878,13 @@
         <v>72</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
+      <c r="G140" s="2">
+        <v>1</v>
+      </c>
       <c r="H140" s="2"/>
       <c r="J140" s="2" t="s">
         <v>987</v>
@@ -21254,9 +21899,13 @@
         <v>72</v>
       </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
       <c r="H141" s="2"/>
       <c r="J141" s="2" t="s">
         <v>987</v>
@@ -21271,9 +21920,13 @@
         <v>72</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="G142" s="2">
+        <v>1</v>
+      </c>
       <c r="H142" s="2"/>
       <c r="J142" s="2" t="s">
         <v>987</v>
@@ -21288,9 +21941,13 @@
         <v>72</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
       <c r="H143" s="2"/>
       <c r="J143" s="2" t="s">
         <v>987</v>
@@ -21305,9 +21962,13 @@
         <v>72</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
       <c r="H144" s="2"/>
       <c r="J144" s="2" t="s">
         <v>987</v>
@@ -24647,8 +25308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:G171"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15"/>
@@ -28132,7 +28793,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28245,18 +28906,18 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="9" max="9" width="50.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -28314,8 +28975,4453 @@
         <v>1538</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>705</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>705</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>705</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>705</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>705</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>631</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45">
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="B32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>705</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45">
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45">
+      <c r="B38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B39" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45">
+      <c r="B42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45">
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45">
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45">
+      <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45">
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45">
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45">
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45">
+      <c r="B56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45">
+      <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45">
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>705</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>631</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="45">
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="45">
+      <c r="B68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="45">
+      <c r="B70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="45">
+      <c r="B72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="45">
+      <c r="B74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="45">
+      <c r="B76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>705</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>705</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>705</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>705</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="B81" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s">
+        <v>705</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>631</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45">
+      <c r="B85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45">
+      <c r="B87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45">
+      <c r="B89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45">
+      <c r="B91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>631</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45">
+      <c r="B96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="B97" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="45">
+      <c r="B98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="B99" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45">
+      <c r="B100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="B101" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="45">
+      <c r="B102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>631</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="B104" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="45">
+      <c r="B105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="B106" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s">
+        <v>705</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="B107" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>705</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>631</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="B109" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="B110" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>705</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="B111" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>705</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="B112" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="45">
+      <c r="B113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="B114" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="45">
+      <c r="B115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="B116" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="45">
+      <c r="B117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" t="s">
+        <v>705</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>705</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>631</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>705</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>705</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>705</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="30">
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="30">
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30">
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>705</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>705</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>705</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>631</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="66.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="B6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="B11" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="B12" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="B13" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="B14" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="B16" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="B17" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
+      <c r="B18" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>705</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>705</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30">
+      <c r="B35" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>631</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30">
+      <c r="B45" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>631</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="71.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="B5" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>631</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28483,6 +33589,717 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>222</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>333</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>444</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>555</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>666</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>111</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>222</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>333</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>444</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>555</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>666</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>111</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="B32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45">
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>111</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>111</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="1721">
   <si>
     <t>Name</t>
   </si>
@@ -5206,9 +5206,6 @@
   </si>
   <si>
     <t>(//form[@name="m1021"]//input)[4]</t>
-  </si>
-  <si>
-    <t>//md-virtual-repeat-container//li[1]</t>
   </si>
 </sst>
 </file>
@@ -32992,7 +32989,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>1680</v>
       </c>
@@ -33600,8 +33597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33678,9 +33675,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="60">
       <c r="B4" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -33712,9 +33709,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="60">
       <c r="B6" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -33746,9 +33743,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="60">
       <c r="B8" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -33780,9 +33777,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="60">
       <c r="B10" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -33814,9 +33811,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="60">
       <c r="B12" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -33848,9 +33845,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="60">
       <c r="B14" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -33905,9 +33902,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="60">
       <c r="B17" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -33939,9 +33936,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="60">
       <c r="B19" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -33973,9 +33970,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="60">
       <c r="B21" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -34007,9 +34004,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="60">
       <c r="B23" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -34041,9 +34038,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="60">
       <c r="B25" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -34075,9 +34072,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="60">
       <c r="B27" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -34132,9 +34129,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="60">
       <c r="B30" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -34228,9 +34225,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="60">
       <c r="B36" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -34262,9 +34259,9 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="60">
       <c r="B38" s="1" t="s">
-        <v>1721</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="17" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="18" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,14 @@
     <sheet name="TreatmentPlanning" sheetId="28" r:id="rId28"/>
     <sheet name="AssessmentSummary" sheetId="29" r:id="rId29"/>
     <sheet name="ICD10" sheetId="30" r:id="rId30"/>
+    <sheet name="VerifyNotes" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5980" uniqueCount="1755">
   <si>
     <t>Name</t>
   </si>
@@ -5206,6 +5207,108 @@
   </si>
   <si>
     <t>(//form[@name="m1021"]//input)[4]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Administrative") and contains(@aria-label,"3 / 3")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"General") and contains(@aria-label,"6 / 6")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Diagnoses") and contains(@aria-label,"8 / 8")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Risk") and contains(@aria-label,"7 / 7")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Neurological") and contains(@aria-label,"10 / 10")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Cardiac") and contains(@aria-label,"1 / 1")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Sensory") and contains(@aria-label,"8 / 8")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Respiratory") and contains(@aria-label,"5 / 5")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"GI") and contains(@aria-label,"7 / 7")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Integumentary") and contains(@aria-label,"14 / 14")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Musculoskeletal") and contains(@aria-label,"20 / 20")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Supportive") and contains(@aria-label,"10 / 10")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Subjective") and contains(@aria-label,"1 / 1")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Objective") and contains(@aria-label,"8 / 8")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Assessment") and contains(@aria-label,"3 / 3")]</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Planofcare") and contains(@aria-label,"6 / 6")]</t>
+  </si>
+  <si>
+    <t>Administrative notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>General notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>History and Diagnosesnotes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Risk and Prognosis notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Neurological notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Cardiac notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Sensory notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Respiratory notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Gastrointestinal notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Genitourinary notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Integumentary notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Supportive notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Subjective notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Objective notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Assessment notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>Plan of care notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"Treatmentplanning") and contains(@aria-label,"12 / 12")]</t>
+  </si>
+  <si>
+    <t>Treatment planning notes was not completed due to failure to save or lost connection</t>
   </si>
 </sst>
 </file>
@@ -33597,8 +33700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34297,6 +34400,243 @@
       </c>
       <c r="J39" t="s">
         <v>1709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="B2" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="B3" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="B4" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="B5" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="B6" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="B7" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="B8" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="B9" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="B10" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="B11" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="B12" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="B13" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="B14" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="B15" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="B16" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30">
+      <c r="B17" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="30">
+      <c r="B18" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="18" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5980" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="1759">
   <si>
     <t>Name</t>
   </si>
@@ -5309,6 +5309,18 @@
   </si>
   <si>
     <t>Treatment planning notes was not completed due to failure to save or lost connection</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Operations" and @ng-click="vm.go(entry.state)"])</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Clinician Portal" and @ng-click="vm.go(entry.state)"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="To-Do Visit" and @ng-click="vm.go(entry.state)"]</t>
   </si>
 </sst>
 </file>
@@ -5731,10 +5743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -5780,10 +5792,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -5804,10 +5816,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -5823,18 +5835,18 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -5844,24 +5856,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -5871,21 +5880,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -5904,15 +5913,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>724</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -5931,15 +5940,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -5958,12 +5967,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>728</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>725</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -5987,7 +5999,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -6010,11 +6022,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -6033,6 +6042,33 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6046,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J110"/>
     </sheetView>
   </sheetViews>
@@ -16525,10 +16561,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16568,12 +16604,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -16588,18 +16624,16 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -16614,21 +16648,19 @@
       <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -16638,25 +16670,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>2</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -16666,22 +16694,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -16701,15 +16729,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>726</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -16729,15 +16757,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>727</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>726</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -16757,6 +16785,34 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16767,11 +16823,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="25905" topLeftCell="T1"/>
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -16779,11 +16835,12 @@
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="23" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16812,12 +16869,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -16832,17 +16889,16 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -16857,20 +16913,19 @@
       <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -16880,24 +16935,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -16907,44 +16959,71 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>730</v>
       </c>
     </row>
@@ -18827,10 +18906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18872,21 +18951,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>474</v>
@@ -18894,7 +18977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -18909,18 +18992,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -18931,115 +19011,127 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -19050,21 +19142,32 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>485</v>
       </c>
     </row>
@@ -33527,10 +33630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -33572,80 +33675,89 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
+    <row r="3" spans="1:10" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60">
-      <c r="B5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -33655,39 +33767,62 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="B6" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="J6" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="J7" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -34411,7 +34546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -34648,7 +34783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
@@ -37621,10 +37756,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -37664,12 +37799,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -37682,19 +37817,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>2</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -37707,22 +37841,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5"/>
+        <v>2</v>
+      </c>
       <c r="J3" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -37732,24 +37865,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
@@ -37761,8 +37891,35 @@
       <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>493</v>
       </c>
     </row>
@@ -38541,10 +38698,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -38584,12 +38741,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -38604,17 +38761,16 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -38627,22 +38783,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="J3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -38652,13 +38807,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J4" t="s">
-        <v>498</v>
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -38682,47 +38834,50 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="J5" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
         <v>1</v>
@@ -38731,40 +38886,39 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>1756</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>1755</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -38777,22 +38931,21 @@
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="J9" t="s">
-        <v>497</v>
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>1757</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5">
@@ -38802,24 +38955,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>365</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="J10" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>1758</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="5">
@@ -38831,118 +38982,120 @@
       <c r="G11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="5"/>
+      <c r="J11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="J14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="J15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>1756</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>1755</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5">
@@ -38952,24 +39105,21 @@
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J16" t="s">
-        <v>498</v>
+        <v>2</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>1757</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="5">
@@ -38979,70 +39129,74 @@
         <v>1</v>
       </c>
       <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H18" s="5"/>
+      <c r="J18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="5">
@@ -39052,74 +39206,70 @@
         <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J20" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>3</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="A21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
       <c r="J21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>365</v>
+      <c r="A22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>15</v>
+        <v>1756</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>1755</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5">
@@ -39129,70 +39279,71 @@
         <v>1</v>
       </c>
       <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="J24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
         <v>3</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="J25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="5">
@@ -39202,22 +39353,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="J26" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="5">
@@ -39229,117 +39382,114 @@
       <c r="G27" s="5">
         <v>3</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>365</v>
+      <c r="A28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>29</v>
+      <c r="A29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5"/>
       <c r="J31" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>1758</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -39352,22 +39502,22 @@
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="5"/>
       <c r="J32" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="5">
@@ -39379,9 +39529,11 @@
       <c r="G33" s="5">
         <v>3</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="J33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -39405,50 +39557,47 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>29</v>
+      <c r="A35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
         <v>1</v>
@@ -39457,39 +39606,39 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>11</v>
+        <v>1757</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -39514,7 +39663,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>1758</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -39607,6 +39756,180 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="5" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="J45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="J46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
         <v>499</v>
       </c>
     </row>
@@ -39617,10 +39940,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39664,10 +39987,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>1756</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1755</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -39680,18 +40003,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1757</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -39704,21 +40027,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>497</v>
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1758</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5">
@@ -39728,67 +40051,68 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -39805,44 +40129,47 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="45">
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -39862,7 +40189,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -39882,7 +40209,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -39894,7 +40221,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>502</v>
@@ -39902,12 +40229,32 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>503</v>
       </c>
     </row>
@@ -39919,10 +40266,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -39964,87 +40311,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B3" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:10" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B4" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="J4" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1">
@@ -40054,15 +40401,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>504</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -40083,13 +40433,20 @@
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>504</v>
@@ -40097,28 +40454,21 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -40137,47 +40487,47 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="45">
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="B12" s="12" t="s">
-        <v>151</v>
+    <row r="12" spans="1:10" ht="60">
+      <c r="B12" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -40196,9 +40546,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
-      <c r="B13" s="1" t="s">
-        <v>148</v>
+    <row r="13" spans="1:10" ht="30">
+      <c r="B13" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -40217,9 +40567,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="45">
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -40232,7 +40582,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>504</v>
@@ -40240,12 +40590,33 @@
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="B16" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>505</v>
       </c>
     </row>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -35477,7 +35477,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -38451,8 +38451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -38510,7 +38510,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>468</v>
@@ -38534,7 +38534,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>468</v>
@@ -38558,7 +38558,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>469</v>
@@ -40635,7 +40635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="18" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -5314,18 +5314,6 @@
     <t>para</t>
   </si>
   <si>
-    <t>//textarea[@ng-model="vm.charts.dosage"]</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.charts.substance.doseName"]</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.charts.substance.routeName"]</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.charts.specialInstructions"]</t>
-  </si>
-  <si>
     <t>//input[@placeholder="Discontinue Date"]</t>
   </si>
   <si>
@@ -5381,6 +5369,18 @@
   </si>
   <si>
     <t>//p[@ng-if="vm.subtitle" and contains(text(),"TRAINING VISIT")]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.medication.dosage"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.medication.substance.doseName"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.medication.substance.routeName"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.medication.specialInstructions"]</t>
   </si>
 </sst>
 </file>
@@ -32267,8 +32267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:G73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33312,7 +33312,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="B54" s="1" t="s">
-        <v>1756</v>
+        <v>1775</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -33326,7 +33326,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="B55" s="1" t="s">
-        <v>1757</v>
+        <v>1776</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -33340,13 +33340,13 @@
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>1758</v>
+        <v>1777</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="J56" t="s">
         <v>1622</v>
@@ -33354,13 +33354,13 @@
     </row>
     <row r="57" spans="1:10">
       <c r="B57" s="1" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="J57" t="s">
         <v>1622</v>
@@ -33368,7 +33368,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="B58" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="H58" t="s">
         <v>57</v>
@@ -33379,7 +33379,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -33399,7 +33399,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="B60" s="1" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -33419,7 +33419,7 @@
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="B61" s="1" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -33439,7 +33439,7 @@
     </row>
     <row r="62" spans="1:10" ht="30">
       <c r="B62" s="1" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -33459,7 +33459,7 @@
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="B63" s="1" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -33502,7 +33502,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -33545,7 +33545,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="B67" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -33588,7 +33588,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="B69" s="1" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -33631,7 +33631,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -33674,7 +33674,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="1" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -33737,7 +33737,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="1" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -38451,7 +38451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -40822,13 +40822,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -40865,7 +40865,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -40962,7 +40962,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>45</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="18" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6160" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1798">
   <si>
     <t>Name</t>
   </si>
@@ -4630,9 +4630,6 @@
     <t>//md-backdrop</t>
   </si>
   <si>
-    <t>//form[@name="interventions"]//md-select</t>
-  </si>
-  <si>
     <t>//button[contains(@aria-label,"Subjective")]</t>
   </si>
   <si>
@@ -5381,6 +5378,66 @@
   </si>
   <si>
     <t>//textarea[@ng-model="vm.medication.specialInstructions"]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[2]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[3]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[4]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[5]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[6]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[7]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[8]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[9]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[10]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[12]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[11]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[13]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[14]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[15]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[16]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[17]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[18]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[19]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//md-checkbox[20]</t>
   </si>
 </sst>
 </file>
@@ -5852,10 +5909,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -5879,7 +5936,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -5903,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -16666,10 +16723,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -16693,7 +16750,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -16717,7 +16774,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -16929,10 +16986,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -16956,7 +17013,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -16980,7 +17037,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -19011,10 +19068,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -19038,7 +19095,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -19062,7 +19119,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -25402,10 +25459,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -25429,7 +25486,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -25453,7 +25510,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -29135,7 +29192,7 @@
         <v>1369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -29150,12 +29207,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -29164,7 +29221,7 @@
         <v>1357</v>
       </c>
       <c r="J3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29187,7 +29244,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
   </sheetData>
@@ -29248,7 +29305,7 @@
         <v>1369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -29263,12 +29320,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -29283,12 +29340,12 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -29303,12 +29360,12 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -29323,12 +29380,12 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -29343,12 +29400,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -29363,12 +29420,12 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -29383,12 +29440,12 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -29403,12 +29460,12 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -29423,12 +29480,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -29443,7 +29500,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -29463,12 +29520,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -29483,7 +29540,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
@@ -29503,12 +29560,12 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -29523,7 +29580,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45">
@@ -29543,12 +29600,12 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -29563,7 +29620,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
@@ -29583,12 +29640,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -29597,12 +29654,12 @@
         <v>698</v>
       </c>
       <c r="J19" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -29611,12 +29668,12 @@
         <v>698</v>
       </c>
       <c r="J20" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -29625,12 +29682,12 @@
         <v>698</v>
       </c>
       <c r="J21" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -29639,12 +29696,12 @@
         <v>698</v>
       </c>
       <c r="J22" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -29653,7 +29710,7 @@
         <v>698</v>
       </c>
       <c r="J23" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -29676,12 +29733,12 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -29696,7 +29753,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45">
@@ -29716,12 +29773,12 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -29736,7 +29793,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
@@ -29756,12 +29813,12 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -29776,7 +29833,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
@@ -29796,12 +29853,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -29816,7 +29873,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45">
@@ -29836,12 +29893,12 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -29850,7 +29907,7 @@
         <v>698</v>
       </c>
       <c r="J33" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -29873,12 +29930,12 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -29893,7 +29950,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45">
@@ -29913,12 +29970,12 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -29933,7 +29990,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45">
@@ -29953,12 +30010,12 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="B39" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -29973,7 +30030,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
@@ -29993,12 +30050,12 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -30013,7 +30070,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45">
@@ -30033,12 +30090,12 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -30053,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45">
@@ -30073,12 +30130,12 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -30093,7 +30150,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45">
@@ -30113,12 +30170,12 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -30133,7 +30190,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45">
@@ -30153,12 +30210,12 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -30173,7 +30230,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45">
@@ -30193,12 +30250,12 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -30213,7 +30270,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="45">
@@ -30233,12 +30290,12 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="B53" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -30253,7 +30310,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="45">
@@ -30273,12 +30330,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -30293,7 +30350,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
@@ -30313,12 +30370,12 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="B57" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -30333,7 +30390,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="45">
@@ -30353,12 +30410,12 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -30373,7 +30430,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45">
@@ -30393,12 +30450,12 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="B61" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -30413,7 +30470,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45">
@@ -30433,12 +30490,12 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="B63" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -30447,7 +30504,7 @@
         <v>698</v>
       </c>
       <c r="J63" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -30470,12 +30527,12 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -30490,7 +30547,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="45">
@@ -30510,12 +30567,12 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -30530,7 +30587,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="45">
@@ -30550,12 +30607,12 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -30570,7 +30627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="45">
@@ -30590,12 +30647,12 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -30610,7 +30667,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="45">
@@ -30630,12 +30687,12 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -30650,7 +30707,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="45">
@@ -30670,12 +30727,12 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -30690,7 +30747,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="45">
@@ -30710,12 +30767,12 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -30724,12 +30781,12 @@
         <v>698</v>
       </c>
       <c r="J77" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -30738,12 +30795,12 @@
         <v>698</v>
       </c>
       <c r="J78" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -30752,12 +30809,12 @@
         <v>698</v>
       </c>
       <c r="J79" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -30766,12 +30823,12 @@
         <v>698</v>
       </c>
       <c r="J80" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -30780,7 +30837,7 @@
         <v>698</v>
       </c>
       <c r="J81" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -30803,12 +30860,12 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C83" t="s">
         <v>70</v>
@@ -30823,12 +30880,12 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -30843,7 +30900,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="45">
@@ -30863,12 +30920,12 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -30883,7 +30940,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="45">
@@ -30903,12 +30960,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -30923,7 +30980,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="45">
@@ -30943,12 +31000,12 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -30963,7 +31020,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45">
@@ -30983,7 +31040,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -31006,12 +31063,12 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C93" t="s">
         <v>70</v>
@@ -31026,12 +31083,12 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C94" t="s">
         <v>70</v>
@@ -31046,12 +31103,12 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -31066,7 +31123,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45">
@@ -31086,12 +31143,12 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="B97" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -31106,7 +31163,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="45">
@@ -31126,12 +31183,12 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="B99" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -31146,7 +31203,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="45">
@@ -31166,12 +31223,12 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="B101" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -31186,7 +31243,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="45">
@@ -31206,7 +31263,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -31229,12 +31286,12 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -31249,7 +31306,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="45">
@@ -31269,12 +31326,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="B106" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -31283,12 +31340,12 @@
         <v>698</v>
       </c>
       <c r="J106" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="B107" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -31297,7 +31354,7 @@
         <v>698</v>
       </c>
       <c r="J107" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -31320,12 +31377,12 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="B109" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -31340,12 +31397,12 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="B110" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -31354,12 +31411,12 @@
         <v>698</v>
       </c>
       <c r="J110" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="B111" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -31368,12 +31425,12 @@
         <v>698</v>
       </c>
       <c r="J111" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="B112" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -31388,7 +31445,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="45">
@@ -31408,12 +31465,12 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="B114" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -31428,7 +31485,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="45">
@@ -31448,12 +31505,12 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -31468,7 +31525,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="45">
@@ -31488,12 +31545,12 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -31502,12 +31559,12 @@
         <v>698</v>
       </c>
       <c r="J118" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="B119" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -31516,7 +31573,7 @@
         <v>698</v>
       </c>
       <c r="J119" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -31539,7 +31596,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
   </sheetData>
@@ -31599,7 +31656,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -31614,12 +31671,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -31628,12 +31685,12 @@
         <v>698</v>
       </c>
       <c r="J3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -31642,12 +31699,12 @@
         <v>698</v>
       </c>
       <c r="J4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -31656,12 +31713,12 @@
         <v>698</v>
       </c>
       <c r="J5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -31670,12 +31727,12 @@
         <v>698</v>
       </c>
       <c r="J6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -31690,7 +31747,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -31710,12 +31767,12 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -31730,7 +31787,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -31750,12 +31807,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -31770,7 +31827,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -31790,12 +31847,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -31810,12 +31867,12 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -31830,12 +31887,12 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -31850,12 +31907,12 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -31870,12 +31927,12 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -31890,12 +31947,12 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
@@ -31910,12 +31967,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
@@ -31930,12 +31987,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
@@ -31950,12 +32007,12 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
@@ -31970,12 +32027,12 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -31990,12 +32047,12 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -32010,12 +32067,12 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -32030,7 +32087,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
@@ -32050,12 +32107,12 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -32070,7 +32127,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
@@ -32090,12 +32147,12 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
@@ -32110,12 +32167,12 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -32130,7 +32187,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
@@ -32150,12 +32207,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -32170,12 +32227,12 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -32184,12 +32241,12 @@
         <v>698</v>
       </c>
       <c r="J32" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -32198,12 +32255,12 @@
         <v>698</v>
       </c>
       <c r="J33" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -32212,12 +32269,12 @@
         <v>698</v>
       </c>
       <c r="J34" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -32232,7 +32289,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -32255,7 +32312,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -32267,8 +32324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32311,7 +32368,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -32326,12 +32383,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -32346,7 +32403,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -32366,12 +32423,12 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -32386,7 +32443,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -32406,12 +32463,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -32426,7 +32483,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -32446,12 +32503,12 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -32466,7 +32523,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -32486,12 +32543,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -32506,12 +32563,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -32526,12 +32583,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -32546,12 +32603,12 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -32566,7 +32623,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -32589,12 +32646,12 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -32609,12 +32666,12 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="B17" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -32629,12 +32686,12 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="B18" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -32649,12 +32706,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -32669,7 +32726,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
@@ -32689,12 +32746,12 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -32709,7 +32766,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
@@ -32729,12 +32786,12 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -32749,7 +32806,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
@@ -32769,12 +32826,12 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -32789,7 +32846,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
@@ -32809,7 +32866,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -32832,12 +32889,12 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -32846,12 +32903,12 @@
         <v>698</v>
       </c>
       <c r="J28" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -32860,12 +32917,12 @@
         <v>698</v>
       </c>
       <c r="J29" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
@@ -32880,12 +32937,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
@@ -32900,56 +32957,56 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>1621</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="J33" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J34" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -32964,7 +33021,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -32987,12 +33044,12 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -33007,12 +33064,12 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -33027,12 +33084,12 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
@@ -33047,12 +33104,12 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C41" t="s">
         <v>70</v>
@@ -33067,12 +33124,12 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C42" t="s">
         <v>70</v>
@@ -33087,12 +33144,12 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C43" t="s">
         <v>70</v>
@@ -33107,12 +33164,12 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C44" t="s">
         <v>70</v>
@@ -33127,12 +33184,12 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -33144,7 +33201,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45">
@@ -33164,7 +33221,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -33187,12 +33244,12 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
       <c r="B48" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -33207,7 +33264,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -33230,12 +33287,12 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -33250,12 +33307,12 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -33270,24 +33327,24 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="B52" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="45">
@@ -33307,12 +33364,12 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="B54" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -33321,12 +33378,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -33335,51 +33392,51 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="J56" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="B57" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J57" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="B58" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H58" t="s">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -33394,12 +33451,12 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="B60" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -33414,12 +33471,12 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="B61" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -33434,12 +33491,12 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
       <c r="B62" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -33454,12 +33511,12 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="B63" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -33474,7 +33531,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -33497,12 +33554,12 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -33517,7 +33574,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -33540,12 +33597,12 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="B67" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -33560,7 +33617,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -33583,12 +33640,12 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="B69" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -33603,7 +33660,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -33626,12 +33683,12 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -33646,7 +33703,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -33669,12 +33726,12 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -33689,7 +33746,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -33712,12 +33769,12 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -33732,12 +33789,12 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -33752,7 +33809,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -33775,7 +33832,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>
@@ -33833,7 +33890,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -33848,12 +33905,12 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -33862,7 +33919,7 @@
         <v>698</v>
       </c>
       <c r="J3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33885,12 +33942,12 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -33904,7 +33961,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -33933,12 +33990,12 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -33966,7 +34023,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -33980,7 +34037,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -34008,7 +34065,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -34022,7 +34079,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -34033,10 +34090,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -34050,7 +34107,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -34078,7 +34135,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -34092,7 +34149,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -34120,7 +34177,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -34134,10 +34191,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -34151,7 +34208,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -34179,7 +34236,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -34193,7 +34250,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -34221,7 +34278,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -34235,10 +34292,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1689</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -34252,7 +34309,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -34280,7 +34337,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -34312,7 +34369,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -34370,10 +34427,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -34397,7 +34454,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -34421,7 +34478,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -34571,7 +34628,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -34586,12 +34643,12 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -34603,7 +34660,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -34620,12 +34677,12 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -34637,7 +34694,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -34654,12 +34711,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -34671,7 +34728,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -34688,12 +34745,12 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -34705,7 +34762,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -34722,12 +34779,12 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -34739,7 +34796,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -34756,12 +34813,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -34773,7 +34830,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
@@ -34790,7 +34847,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -34813,12 +34870,12 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -34830,7 +34887,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60">
@@ -34847,12 +34904,12 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -34864,7 +34921,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60">
@@ -34881,12 +34938,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -34898,7 +34955,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60">
@@ -34915,12 +34972,12 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -34932,7 +34989,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="60">
@@ -34949,12 +35006,12 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -34966,7 +35023,7 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60">
@@ -34983,12 +35040,12 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -35000,7 +35057,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="60">
@@ -35017,7 +35074,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -35040,12 +35097,12 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -35057,7 +35114,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60">
@@ -35074,12 +35131,12 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -35105,12 +35162,12 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -35136,12 +35193,12 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -35153,7 +35210,7 @@
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60">
@@ -35170,12 +35227,12 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -35187,7 +35244,7 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="60">
@@ -35204,7 +35261,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -35227,7 +35284,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -35282,189 +35339,189 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="B2" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="B3" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="B4" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="B5" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30">
       <c r="B17" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -35474,10 +35531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125:J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -38271,12 +38328,11 @@
     </row>
     <row r="125" spans="1:10" ht="26.25" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>1528</v>
+        <v>1778</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="3"/>
+        <v>70</v>
+      </c>
       <c r="E125" s="2">
         <v>1</v>
       </c>
@@ -38292,12 +38348,11 @@
     </row>
     <row r="126" spans="1:10" ht="26.25" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>1779</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="3"/>
+        <v>70</v>
+      </c>
       <c r="E126" s="2">
         <v>1</v>
       </c>
@@ -38312,16 +38367,12 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="B127" s="2" t="s">
-        <v>42</v>
+        <v>1780</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="3"/>
+        <v>70</v>
+      </c>
       <c r="E127" s="2">
         <v>1</v>
       </c>
@@ -38329,81 +38380,79 @@
         <v>1</v>
       </c>
       <c r="G127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B128" s="2" t="s">
-        <v>44</v>
+        <v>1781</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D128" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
       <c r="G128" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="26.25" customHeight="1">
+    <row r="129" spans="2:10" ht="26.25" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>304</v>
+        <v>1782</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="26.25" customHeight="1">
+    <row r="130" spans="2:10" ht="26.25" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>142</v>
+        <v>1783</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
       </c>
       <c r="F130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>41</v>
-      </c>
+    <row r="131" spans="2:10" ht="26.25" customHeight="1">
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>1784</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="3"/>
+        <v>70</v>
+      </c>
       <c r="E131" s="2">
         <v>1</v>
       </c>
@@ -38411,34 +38460,500 @@
         <v>1</v>
       </c>
       <c r="G131" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B132" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B133" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B134" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B135" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B136" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B137" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B138" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B139" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B140" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B141" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B142" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B143" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B144" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="G146" s="2">
+        <v>3</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B147" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>2</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+      <c r="G148" s="2">
+        <v>2</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A150" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1">
-        <v>1</v>
-      </c>
-      <c r="J132" s="2" t="s">
+      <c r="C150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B153" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B154" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B155" s="2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B156" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B157" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B158" s="2" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B159" s="2" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B160" s="2" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B161" s="2" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B162" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B163" s="2" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B164" s="2" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B165" s="2" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B166" s="2" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B167" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B168" s="2" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B169" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B170" s="2" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B171" s="2" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B172" s="2" t="s">
+        <v>1797</v>
       </c>
     </row>
   </sheetData>
@@ -38494,10 +39009,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -38521,7 +39036,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -38545,7 +39060,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -39436,10 +39951,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -39463,7 +39978,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -39487,7 +40002,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -39608,10 +40123,10 @@
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -39635,7 +40150,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -39660,7 +40175,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
@@ -39782,10 +40297,10 @@
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
@@ -39809,7 +40324,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -39834,7 +40349,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -39956,10 +40471,10 @@
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
@@ -39983,7 +40498,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -40008,7 +40523,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>11</v>
@@ -40130,10 +40645,10 @@
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>11</v>
@@ -40157,7 +40672,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>11</v>
@@ -40182,7 +40697,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -40304,10 +40819,10 @@
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1">
       <c r="A37" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>11</v>
@@ -40331,7 +40846,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -40356,7 +40871,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>11</v>
@@ -40478,10 +40993,10 @@
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1">
       <c r="A44" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>11</v>
@@ -40505,7 +41020,7 @@
         <v>122</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -40530,7 +41045,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -40680,10 +41195,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -40707,7 +41222,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -40731,7 +41246,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -40822,13 +41337,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -40865,7 +41380,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -40962,7 +41477,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>45</v>
@@ -41026,10 +41541,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -41053,7 +41568,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -41077,7 +41592,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1801">
   <si>
     <t>Name</t>
   </si>
@@ -5438,6 +5438,15 @@
   </si>
   <si>
     <t>//form[@name="treatmentPlanPT"]//md-checkbox[20]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//div[4]/md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//div[2]/md-checkbox[1]</t>
+  </si>
+  <si>
+    <t>//form[@name="treatmentPlanPT"]//div[3]/md-checkbox[1]</t>
   </si>
 </sst>
 </file>
@@ -35533,8 +35542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125:J144"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -38668,7 +38677,7 @@
     </row>
     <row r="142" spans="2:10" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>70</v>
@@ -38688,7 +38697,7 @@
     </row>
     <row r="143" spans="2:10" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>70</v>
@@ -38708,7 +38717,7 @@
     </row>
     <row r="144" spans="2:10" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>70</v>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214" uniqueCount="1798">
   <si>
     <t>Name</t>
   </si>
@@ -5429,15 +5429,6 @@
   </si>
   <si>
     <t>//form[@name="treatmentPlanPT"]//md-checkbox[17]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//md-checkbox[18]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//md-checkbox[19]</t>
-  </si>
-  <si>
-    <t>//form[@name="treatmentPlanPT"]//md-checkbox[20]</t>
   </si>
   <si>
     <t>//form[@name="treatmentPlanPT"]//div[4]/md-checkbox[1]</t>
@@ -35540,10 +35531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="26.25" customHeight="1"/>
@@ -38677,7 +38668,7 @@
     </row>
     <row r="142" spans="2:10" ht="26.25" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>70</v>
@@ -38697,7 +38688,7 @@
     </row>
     <row r="143" spans="2:10" ht="26.25" customHeight="1">
       <c r="B143" s="2" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>70</v>
@@ -38717,7 +38708,7 @@
     </row>
     <row r="144" spans="2:10" ht="26.25" customHeight="1">
       <c r="B144" s="2" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>70</v>
@@ -38863,106 +38854,6 @@
       </c>
       <c r="J150" s="2" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B153" s="2" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B154" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B155" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B156" s="2" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B157" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B158" s="2" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B159" s="2" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B160" s="2" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B161" s="2" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B162" s="2" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B163" s="2" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B164" s="2" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B165" s="2" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B166" s="2" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B167" s="2" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B168" s="2" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B169" s="2" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B170" s="2" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B171" s="2" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="26.25" customHeight="1">
-      <c r="B172" s="2" t="s">
-        <v>1797</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Clinician.xlsx
+++ b/resources/Clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17190" windowHeight="3345" tabRatio="736" firstSheet="4" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Clinician" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6131" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="1799">
   <si>
     <t>Name</t>
   </si>
@@ -3874,9 +3874,6 @@
     <t>//div[@class="full-height ng-scope layout-row"]</t>
   </si>
   <si>
-    <t>clickp10</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-content/md-toolbar[2]/button</t>
   </si>
   <si>
@@ -5441,6 +5438,9 @@
   </si>
   <si>
     <t>(//form[@name="goals"]//md-select)[1]</t>
+  </si>
+  <si>
+    <t>10,10</t>
   </si>
 </sst>
 </file>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -5947,7 +5947,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -5971,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -16734,10 +16734,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -16761,7 +16761,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -16785,7 +16785,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -16997,10 +16997,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -17024,7 +17024,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -17048,7 +17048,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -19106,7 +19106,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -19130,7 +19130,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -19315,8 +19315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="16.5" customHeight="1"/>
@@ -21445,10 +21445,12 @@
       <c r="B106" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D106" s="2"/>
+      <c r="C106" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1798</v>
+      </c>
       <c r="E106" s="2">
         <v>1</v>
       </c>
@@ -24503,7 +24505,7 @@
         <v>1188</v>
       </c>
       <c r="B34" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -24517,7 +24519,7 @@
         <v>1188</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -24531,7 +24533,7 @@
         <v>1188</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -24545,7 +24547,7 @@
         <v>1188</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -25508,10 +25510,10 @@
  